--- a/results/derivatives.xlsx
+++ b/results/derivatives.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -10,7 +10,7 @@
     <sheet name="dKtot" sheetId="1" r:id="rId1"/>
     <sheet name="dWtot_currency" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -176,8 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +238,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000061"/>
@@ -259,13 +269,48 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000061"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92C5DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000061"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92C5DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -339,6 +384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,6 +419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,19 +595,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -613,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -621,31 +668,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.238370351199135</v>
+        <v>0.23837035119913499</v>
       </c>
       <c r="D2">
-        <v>0.762265704953408</v>
+        <v>0.76226570495340795</v>
       </c>
       <c r="E2">
-        <v>0.428775539362607</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.235727935533761</v>
+        <v>-0.23572793553376101</v>
       </c>
       <c r="G2">
         <v>0.114549791889765</v>
       </c>
       <c r="H2">
-        <v>-0.99999999998954</v>
+        <v>-0.99999999998954003</v>
       </c>
       <c r="I2">
-        <v>1.00013773613362</v>
+        <v>1.0001377361336199</v>
       </c>
       <c r="J2">
-        <v>0.11454975824193</v>
+        <v>0.11454975824193001</v>
       </c>
       <c r="K2">
-        <v>-0.235634842672142</v>
+        <v>-0.23563484267214199</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -660,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.238400369010863</v>
+        <v>0.23840036901086301</v>
       </c>
       <c r="Q2">
-        <v>0.762517650147626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.76251765014762596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -674,28 +721,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.327711772600367</v>
+        <v>0.32771177260036699</v>
       </c>
       <c r="D3">
-        <v>0.67260754303262</v>
+        <v>0.67260754303262005</v>
       </c>
       <c r="E3">
-        <v>0.428775539362037</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.196635947046933</v>
+        <v>-0.19663594704693299</v>
       </c>
       <c r="G3">
-        <v>0.255600983388969</v>
+        <v>0.25560098338896903</v>
       </c>
       <c r="H3">
-        <v>-1.00000000000898</v>
+        <v>-1.0000000000089799</v>
       </c>
       <c r="I3">
         <v>1.00010286161064</v>
       </c>
       <c r="J3">
-        <v>0.255618769815423</v>
+        <v>0.25561876981542297</v>
       </c>
       <c r="K3">
         <v>-0.196561608963746</v>
@@ -713,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.327712265237839</v>
+        <v>0.32771226523783897</v>
       </c>
       <c r="Q3">
-        <v>0.673050192904587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.67305019290458701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -730,16 +777,16 @@
         <v>0.476597269506289</v>
       </c>
       <c r="D4">
-        <v>0.524294847935754</v>
+        <v>0.52429484793575398</v>
       </c>
       <c r="E4">
-        <v>0.428775539362553</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.196635947046705</v>
+        <v>-0.19663594704670501</v>
       </c>
       <c r="G4">
-        <v>0.353414710559211</v>
+        <v>0.35341471055921098</v>
       </c>
       <c r="H4">
         <v>-1.00000000000005</v>
@@ -748,7 +795,7 @@
         <v>1.00014557180318</v>
       </c>
       <c r="J4">
-        <v>0.353430607687051</v>
+        <v>0.35343060768705098</v>
       </c>
       <c r="K4">
         <v>-0.196561608961065</v>
@@ -766,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.476400035397518</v>
+        <v>0.47640003539751802</v>
       </c>
       <c r="Q4">
-        <v>0.524287854254396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.52428785425439595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -780,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.330115246977717</v>
+        <v>0.33011524697771699</v>
       </c>
       <c r="D5">
-        <v>0.69912451398503</v>
+        <v>0.69912451398502995</v>
       </c>
       <c r="E5">
-        <v>0.428775539362346</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.235727935533848</v>
+        <v>-0.23572793553384799</v>
       </c>
       <c r="G5">
-        <v>0.16091526625431</v>
+        <v>0.16091526625430999</v>
       </c>
       <c r="H5">
-        <v>-1.00000000000562</v>
+        <v>-1.0000000000056199</v>
       </c>
       <c r="I5">
         <v>1.00011600476522</v>
@@ -804,7 +851,7 @@
         <v>0.160940125076662</v>
       </c>
       <c r="K5">
-        <v>-0.235634842673233</v>
+        <v>-0.23563484267323301</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -819,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.323336397483688</v>
+        <v>0.32333639748368798</v>
       </c>
       <c r="Q5">
-        <v>0.677585390162817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.67758539016281705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -833,28 +880,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.114980494031335</v>
+        <v>0.11498049403133501</v>
       </c>
       <c r="D6">
-        <v>0.929282699305138</v>
+        <v>0.92928269930513796</v>
       </c>
       <c r="E6">
-        <v>0.428775539363026</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.28787668593417</v>
+        <v>-0.28787668593416998</v>
       </c>
       <c r="G6">
-        <v>0.0704812887010144</v>
+        <v>7.0481288701014402E-2</v>
       </c>
       <c r="H6">
-        <v>-1.00000000000767</v>
+        <v>-1.0000000000076701</v>
       </c>
       <c r="I6">
         <v>1.0000839763806</v>
       </c>
       <c r="J6">
-        <v>0.0704751739702171</v>
+        <v>7.0475173970217103E-2</v>
       </c>
       <c r="K6">
         <v>-0.287758574182301</v>
@@ -875,10 +922,10 @@
         <v>0.110839865019759</v>
       </c>
       <c r="Q6">
-        <v>0.890097438936736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.89009743893673599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -886,28 +933,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.377115263950539</v>
+        <v>0.37711526395053901</v>
       </c>
       <c r="D7">
-        <v>0.62730359764744</v>
+        <v>0.62730359764744004</v>
       </c>
       <c r="E7">
-        <v>0.428775539362866</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.206256037952661</v>
+        <v>-0.20625603795266101</v>
       </c>
       <c r="G7">
         <v>0.249658068960353</v>
       </c>
       <c r="H7">
-        <v>-0.999999999999506</v>
+        <v>-0.99999999999950595</v>
       </c>
       <c r="I7">
-        <v>1.00012633821462</v>
+        <v>1.0001263382146199</v>
       </c>
       <c r="J7">
-        <v>0.249679889549466</v>
+        <v>0.24967988954946599</v>
       </c>
       <c r="K7">
         <v>-0.206177084529824</v>
@@ -928,10 +975,10 @@
         <v>0.375917650698121</v>
       </c>
       <c r="Q7">
-        <v>0.624876090530977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.62487609053097704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -939,31 +986,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0645063599992011</v>
+        <v>6.4506359999201096E-2</v>
       </c>
       <c r="D8">
         <v>0.945422962858677</v>
       </c>
       <c r="E8">
-        <v>0.428775539362491</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.251205120295785</v>
+        <v>-0.25120512029578501</v>
       </c>
       <c r="G8">
-        <v>0.0503212645641515</v>
+        <v>5.0321264564151501E-2</v>
       </c>
       <c r="H8">
-        <v>-0.999999999994639</v>
+        <v>-0.99999999999463896</v>
       </c>
       <c r="I8">
-        <v>1.0000727011253</v>
+        <v>1.0000727011252999</v>
       </c>
       <c r="J8">
-        <v>0.0502779638304351</v>
+        <v>5.0277963830435098E-2</v>
       </c>
       <c r="K8">
-        <v>-0.251104602097082</v>
+        <v>-0.25110460209708202</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -978,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.0639710053394094</v>
+        <v>6.3971005339409401E-2</v>
       </c>
       <c r="Q8">
-        <v>0.936940899839411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.93694089983941098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -992,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.169876230283567</v>
+        <v>0.16987623028356699</v>
       </c>
       <c r="D9">
-        <v>0.831116492720302</v>
+        <v>0.83111649272030197</v>
       </c>
       <c r="E9">
-        <v>0.428775539362793</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>-0.218392723880693</v>
@@ -1007,16 +1054,16 @@
         <v>0.121543557995725</v>
       </c>
       <c r="H9">
-        <v>-0.999999999995764</v>
+        <v>-0.99999999999576406</v>
       </c>
       <c r="I9">
-        <v>1.00010262656507</v>
+        <v>1.0001026265650701</v>
       </c>
       <c r="J9">
         <v>0.121525511655005</v>
       </c>
       <c r="K9">
-        <v>-0.218307947760993</v>
+        <v>-0.21830794776099299</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1034,10 +1081,10 @@
         <v>0.169788712758557</v>
       </c>
       <c r="Q9">
-        <v>0.831099163749092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.83109916374909198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1048,16 +1095,16 @@
         <v>0.405531821768501</v>
       </c>
       <c r="D10">
-        <v>0.595601846652012</v>
+        <v>0.59560184665201199</v>
       </c>
       <c r="E10">
-        <v>0.428775539362293</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.190571428571977</v>
+        <v>-0.19057142857197701</v>
       </c>
       <c r="G10">
-        <v>0.312105915696605</v>
+        <v>0.31210591569660501</v>
       </c>
       <c r="H10">
         <v>-1.00000000000141</v>
@@ -1066,7 +1113,7 @@
         <v>1.00012108360449</v>
       </c>
       <c r="J10">
-        <v>0.312125015490149</v>
+        <v>0.31212501549014898</v>
       </c>
       <c r="K10">
         <v>-0.19050000000219</v>
@@ -1090,7 +1137,7 @@
         <v>0.595455787035571</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1098,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.229578625134303</v>
+        <v>0.22957862513430299</v>
       </c>
       <c r="D11">
-        <v>0.771261359042489</v>
+        <v>0.77126135904248905</v>
       </c>
       <c r="E11">
-        <v>0.428775539363456</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>-0.197130667765921</v>
@@ -1113,13 +1160,13 @@
         <v>0.164047766913301</v>
       </c>
       <c r="H11">
-        <v>-0.999999999992926</v>
+        <v>-0.99999999999292599</v>
       </c>
       <c r="I11">
         <v>1.00010380564728</v>
       </c>
       <c r="J11">
-        <v>0.164046880305474</v>
+        <v>0.16404688030547401</v>
       </c>
       <c r="K11">
         <v>-0.197056092331372</v>
@@ -1137,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.229475010025202</v>
+        <v>0.22947501002520199</v>
       </c>
       <c r="Q11">
         <v>0.771175968090972</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1151,31 +1198,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.314888926016597</v>
+        <v>0.31488892601659701</v>
       </c>
       <c r="D12">
-        <v>0.690627702929583</v>
+        <v>0.69062770292958298</v>
       </c>
       <c r="E12">
-        <v>0.428775539362787</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>-0.208414707490199</v>
       </c>
       <c r="G12">
-        <v>0.23124181265893</v>
+        <v>0.23124181265893001</v>
       </c>
       <c r="H12">
-        <v>-0.999999999996352</v>
+        <v>-0.99999999999635203</v>
       </c>
       <c r="I12">
-        <v>1.00011782259411</v>
+        <v>1.0001178225941101</v>
       </c>
       <c r="J12">
-        <v>0.23124492351159</v>
+        <v>0.23124492351159001</v>
       </c>
       <c r="K12">
-        <v>-0.20833471842701</v>
+        <v>-0.20833471842701001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1193,10 +1240,10 @@
         <v>0.313510068147072</v>
       </c>
       <c r="Q12">
-        <v>0.687278799426902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.68727879942690195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1204,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.239211166888023</v>
+        <v>0.23921116688802299</v>
       </c>
       <c r="D13">
-        <v>0.762651404163779</v>
+        <v>0.76265140416377897</v>
       </c>
       <c r="E13">
-        <v>0.428775539362811</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.235727935533544</v>
+        <v>-0.23572793553354399</v>
       </c>
       <c r="G13">
-        <v>0.112507362485632</v>
+        <v>0.11250736248563201</v>
       </c>
       <c r="H13">
-        <v>-1.00000000000382</v>
+        <v>-1.0000000000038201</v>
       </c>
       <c r="I13">
-        <v>1.00012353026846</v>
+        <v>1.0001235302684599</v>
       </c>
       <c r="J13">
         <v>0.112514396867649</v>
       </c>
       <c r="K13">
-        <v>-0.235634842672036</v>
+        <v>-0.23563484267203599</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1243,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.239010829146351</v>
+        <v>0.23901082914635099</v>
       </c>
       <c r="Q13">
-        <v>0.761913721964816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.76191372196481599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1257,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.095022903196863</v>
+        <v>9.5022903196863004E-2</v>
       </c>
       <c r="D14">
-        <v>0.90665115381026</v>
+        <v>0.90665115381025996</v>
       </c>
       <c r="E14">
-        <v>0.428775539363353</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>-0.215637518142417</v>
       </c>
       <c r="G14">
-        <v>0.0710982625431586</v>
+        <v>7.1098262543158597E-2</v>
       </c>
       <c r="H14">
-        <v>-0.999999999998397</v>
+        <v>-0.99999999999839695</v>
       </c>
       <c r="I14">
         <v>1.0000957140944</v>
       </c>
       <c r="J14">
-        <v>0.0710537154890813</v>
+        <v>7.1053715489081307E-2</v>
       </c>
       <c r="K14">
-        <v>-0.21555406385881</v>
+        <v>-0.21555406385881001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1296,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.0949103611850236</v>
+        <v>9.4910361185023606E-2</v>
       </c>
       <c r="Q14">
-        <v>0.905932542822893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.90593254282289304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1313,10 +1360,10 @@
         <v>0.161777174196086</v>
       </c>
       <c r="D15">
-        <v>0.840658874518379</v>
+        <v>0.84065887451837895</v>
       </c>
       <c r="E15">
-        <v>0.428775539362251</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>-0.215637518142758</v>
@@ -1328,7 +1375,7 @@
         <v>-1.00000000001644</v>
       </c>
       <c r="I15">
-        <v>1.00010467664454</v>
+        <v>1.0001046766445401</v>
       </c>
       <c r="J15">
         <v>0.118138796324359</v>
@@ -1352,10 +1399,10 @@
         <v>0.161488724911305</v>
       </c>
       <c r="Q15">
-        <v>0.839401292250356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.83940129225035598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1363,31 +1410,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.193977544038085</v>
+        <v>0.19397754403808501</v>
       </c>
       <c r="D16">
-        <v>0.807204844019367</v>
+        <v>0.80720484401936698</v>
       </c>
       <c r="E16">
-        <v>0.428775539362796</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>-0.218392723881044</v>
       </c>
       <c r="G16">
-        <v>0.131535405968372</v>
+        <v>0.13153540596837199</v>
       </c>
       <c r="H16">
         <v>-1.00000000000061</v>
       </c>
       <c r="I16">
-        <v>1.00010839795216</v>
+        <v>1.0001083979521601</v>
       </c>
       <c r="J16">
-        <v>0.131526123830196</v>
+        <v>0.13152612383019599</v>
       </c>
       <c r="K16">
-        <v>-0.218307947762187</v>
+        <v>-0.21830794776218701</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1405,10 +1452,10 @@
         <v>0.19385666295588</v>
       </c>
       <c r="Q16">
-        <v>0.807024839363961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.80702483936396097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1419,25 +1466,25 @@
         <v>0.152505150455471</v>
       </c>
       <c r="D17">
-        <v>0.849059147087085</v>
+        <v>0.84905914708708496</v>
       </c>
       <c r="E17">
-        <v>0.428775539362703</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.235727935533187</v>
+        <v>-0.23572793553318699</v>
       </c>
       <c r="G17">
-        <v>0.0800700798910394</v>
+        <v>8.0070079891039397E-2</v>
       </c>
       <c r="H17">
-        <v>-1.0000000000002</v>
+        <v>-1.0000000000002001</v>
       </c>
       <c r="I17">
-        <v>1.00010807094824</v>
+        <v>1.0001080709482399</v>
       </c>
       <c r="J17">
-        <v>0.0800674535179696</v>
+        <v>8.0067453517969595E-2</v>
       </c>
       <c r="K17">
         <v>-0.235634842669846</v>
@@ -1458,10 +1505,10 @@
         <v>0.152391800606581</v>
       </c>
       <c r="Q17">
-        <v>0.84854381945736</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.84854381945736002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1469,25 +1516,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.14410007704723</v>
+        <v>0.14410007704722999</v>
       </c>
       <c r="D18">
-        <v>0.861427136176209</v>
+        <v>0.86142713617620903</v>
       </c>
       <c r="E18">
-        <v>0.428775539361948</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>-0.215637518142685</v>
       </c>
       <c r="G18">
-        <v>0.103292388104845</v>
+        <v>0.10329238810484501</v>
       </c>
       <c r="H18">
-        <v>-1.00000000002215</v>
+        <v>-1.0000000000221501</v>
       </c>
       <c r="I18">
-        <v>1.00008921394148</v>
+        <v>1.0000892139414801</v>
       </c>
       <c r="J18">
         <v>0.103279190084081</v>
@@ -1511,10 +1558,10 @@
         <v>0.14346642948072</v>
       </c>
       <c r="Q18">
-        <v>0.857437989710014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.85743798971001395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1522,31 +1569,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0555421477149906</v>
+        <v>5.5542147714990601E-2</v>
       </c>
       <c r="D19">
-        <v>0.976804465614816</v>
+        <v>0.97680446561481604</v>
       </c>
       <c r="E19">
-        <v>0.428775539362882</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.287876685934524</v>
+        <v>-0.28787668593452398</v>
       </c>
       <c r="G19">
-        <v>0.0417939943904494</v>
+        <v>4.1793994390449403E-2</v>
       </c>
       <c r="H19">
-        <v>-1.00000000000813</v>
+        <v>-1.0000000000081299</v>
       </c>
       <c r="I19">
-        <v>1.00007392316518</v>
+        <v>1.0000739231651801</v>
       </c>
       <c r="J19">
-        <v>0.0417495148375231</v>
+        <v>4.1749514837523101E-2</v>
       </c>
       <c r="K19">
-        <v>-0.287758574182663</v>
+        <v>-0.28775857418266299</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1561,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.0540401568383414</v>
+        <v>5.4040156838341402E-2</v>
       </c>
       <c r="Q19">
         <v>0.94686599323762</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1578,25 +1625,25 @@
         <v>0.345466114646033</v>
       </c>
       <c r="D20">
-        <v>0.66459340440285</v>
+        <v>0.66459340440284997</v>
       </c>
       <c r="E20">
-        <v>0.428775539363122</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>-0.206256037952885</v>
       </c>
       <c r="G20">
-        <v>0.227639265028224</v>
+        <v>0.22763926502822401</v>
       </c>
       <c r="H20">
-        <v>-0.999999999990149</v>
+        <v>-0.99999999999014899</v>
       </c>
       <c r="I20">
-        <v>1.00011182027674</v>
+        <v>1.0001118202767401</v>
       </c>
       <c r="J20">
-        <v>0.227667831610908</v>
+        <v>0.22766783161090801</v>
       </c>
       <c r="K20">
         <v>-0.206177084533431</v>
@@ -1614,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.342809827968739</v>
+        <v>0.34280982796873899</v>
       </c>
       <c r="Q20">
-        <v>0.658002183118529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.65800218311852898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1628,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.654906851959169</v>
+        <v>0.65490685195916898</v>
       </c>
       <c r="D21">
         <v>0.347400085683086</v>
       </c>
       <c r="E21">
-        <v>0.428775539363031</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.152680258376467</v>
+        <v>-0.15268025837646701</v>
       </c>
       <c r="G21">
-        <v>0.519571517970867</v>
+        <v>0.51957151797086698</v>
       </c>
       <c r="H21">
-        <v>-0.999999999987211</v>
+        <v>-0.99999999998721101</v>
       </c>
       <c r="I21">
-        <v>1.00013951757075</v>
+        <v>1.0001395175707499</v>
       </c>
       <c r="J21">
-        <v>0.519638222803128</v>
+        <v>0.51963822280312799</v>
       </c>
       <c r="K21">
-        <v>-0.152627008477713</v>
+        <v>-0.15262700847771299</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1667,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.654050406724272</v>
+        <v>0.65405040672427195</v>
       </c>
       <c r="Q21">
-        <v>0.346562896805122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.34656289680512198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.523536662929278</v>
+        <v>0.52353666292927803</v>
       </c>
       <c r="D22">
-        <v>0.477866971805621</v>
+        <v>0.47786697180562099</v>
       </c>
       <c r="E22">
-        <v>0.428775539363002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-0.152680258376842</v>
+        <v>-0.15268025837684199</v>
       </c>
       <c r="G22">
-        <v>0.396114983962124</v>
+        <v>0.39611498396212402</v>
       </c>
       <c r="H22">
-        <v>-1.00000000000271</v>
+        <v>-1.0000000000027101</v>
       </c>
       <c r="I22">
-        <v>1.00013132171438</v>
+        <v>1.0001313217143799</v>
       </c>
       <c r="J22">
-        <v>0.396158830533051</v>
+        <v>0.39615883053305101</v>
       </c>
       <c r="K22">
-        <v>-0.152627008476753</v>
+        <v>-0.15262700847675301</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1720,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.523121884521378</v>
+        <v>0.52312188452137798</v>
       </c>
       <c r="Q22">
-        <v>0.477541097177352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.47754109717735199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1737,13 +1784,13 @@
         <v>0.311165937085216</v>
       </c>
       <c r="D23">
-        <v>0.691556499684106</v>
+        <v>0.69155649968410604</v>
       </c>
       <c r="E23">
-        <v>0.428775539362916</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.197130667765463</v>
+        <v>-0.19713066776546301</v>
       </c>
       <c r="G23">
         <v>0.22462116884298</v>
@@ -1773,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.310527069244496</v>
+        <v>0.31052706924449602</v>
       </c>
       <c r="Q23">
-        <v>0.690122270981066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.69012227098106604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1790,16 +1837,16 @@
         <v>0.484645705429195</v>
       </c>
       <c r="D24">
-        <v>0.516377581260227</v>
+        <v>0.51637758126022704</v>
       </c>
       <c r="E24">
-        <v>0.42877553936352</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>-0.214111245831765</v>
       </c>
       <c r="G24">
-        <v>0.362344591993333</v>
+        <v>0.36234459199333302</v>
       </c>
       <c r="H24">
         <v>-1.00000000000552</v>
@@ -1808,10 +1855,10 @@
         <v>1.00013451532508</v>
       </c>
       <c r="J24">
-        <v>0.362374580425438</v>
+        <v>0.36237458042543802</v>
       </c>
       <c r="K24">
-        <v>-0.214028523795942</v>
+        <v>-0.21402852379594201</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1826,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.484398787290199</v>
+        <v>0.48439878729019897</v>
       </c>
       <c r="Q24">
-        <v>0.516284911310308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.51628491131030796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.168669683725745</v>
+        <v>0.16866968372574501</v>
       </c>
       <c r="D25">
-        <v>0.83199584611956</v>
+        <v>0.83199584611956001</v>
       </c>
       <c r="E25">
-        <v>0.428775539362423</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>-0.251205120296148</v>
@@ -1855,16 +1902,16 @@
         <v>0.101897401655831</v>
       </c>
       <c r="H25">
-        <v>-0.999999999994435</v>
+        <v>-0.99999999999443501</v>
       </c>
       <c r="I25">
-        <v>1.0001085762784</v>
+        <v>1.0001085762784001</v>
       </c>
       <c r="J25">
         <v>0.101891523740056</v>
       </c>
       <c r="K25">
-        <v>-0.251104602097773</v>
+        <v>-0.25110460209777302</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1879,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.168655057479785</v>
+        <v>0.16865505747978499</v>
       </c>
       <c r="Q25">
-        <v>0.83225717581586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0.83225717581586001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1896,10 +1943,10 @@
         <v>0.147763228462856</v>
       </c>
       <c r="D26">
-        <v>0.852767284695033</v>
+        <v>0.85276728469503305</v>
       </c>
       <c r="E26">
-        <v>0.428775539362238</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>-0.2183927238809</v>
@@ -1908,16 +1955,16 @@
         <v>0.104531345959781</v>
       </c>
       <c r="H26">
-        <v>-1.00000000000826</v>
+        <v>-1.0000000000082601</v>
       </c>
       <c r="I26">
-        <v>1.00008597727809</v>
+        <v>1.0000859772780899</v>
       </c>
       <c r="J26">
         <v>0.104525553034862</v>
       </c>
       <c r="K26">
-        <v>-0.218307947761557</v>
+        <v>-0.21830794776155699</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1932,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0.147747846454628</v>
+        <v>0.14774784645462799</v>
       </c>
       <c r="Q26">
-        <v>0.853156176462203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>0.85315617646220299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1946,28 +1993,28 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.0703027716790045</v>
+        <v>7.0302771679004505E-2</v>
       </c>
       <c r="D27">
-        <v>0.930630580309031</v>
+        <v>0.93063058030903101</v>
       </c>
       <c r="E27">
-        <v>0.428775539362839</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.25120512029588</v>
+        <v>-0.25120512029587999</v>
       </c>
       <c r="G27">
-        <v>0.0551166573796605</v>
+        <v>5.5116657379660497E-2</v>
       </c>
       <c r="H27">
-        <v>-0.999999999999267</v>
+        <v>-0.99999999999926703</v>
       </c>
       <c r="I27">
         <v>1.00007814951605</v>
       </c>
       <c r="J27">
-        <v>0.0550699889294065</v>
+        <v>5.5069988929406503E-2</v>
       </c>
       <c r="K27">
         <v>-0.251104602098707</v>
@@ -1985,13 +2032,13 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0.0702629215741705</v>
+        <v>7.0262921574170495E-2</v>
       </c>
       <c r="Q27">
-        <v>0.930648381713045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0.93064838171304498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1999,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.166113263745944</v>
+        <v>0.16611326374594401</v>
       </c>
       <c r="D28">
-        <v>0.834566593384446</v>
+        <v>0.83456659338444605</v>
       </c>
       <c r="E28">
-        <v>0.428775539362234</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.215637518142743</v>
+        <v>-0.21563751814274301</v>
       </c>
       <c r="G28">
-        <v>0.116742704821608</v>
+        <v>0.11674270482160801</v>
       </c>
       <c r="H28">
-        <v>-0.999999999997349</v>
+        <v>-0.99999999999734901</v>
       </c>
       <c r="I28">
-        <v>1.00010095877055</v>
+        <v>1.0001009587705501</v>
       </c>
       <c r="J28">
         <v>0.11672799091927</v>
       </c>
       <c r="K28">
-        <v>-0.215554063862014</v>
+        <v>-0.21555406386201401</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2038,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0.166075240682468</v>
+        <v>0.16607524068246801</v>
       </c>
       <c r="Q28">
-        <v>0.834817737449612</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0.83481773744961196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2055,28 +2102,28 @@
         <v>0.162952762603391</v>
       </c>
       <c r="D29">
-        <v>0.845090730813662</v>
+        <v>0.84509073081366204</v>
       </c>
       <c r="E29">
-        <v>0.428775539362104</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.287876685934903</v>
+        <v>-0.28787668593490301</v>
       </c>
       <c r="G29">
-        <v>0.0920693948303449</v>
+        <v>9.2069394830344903E-2</v>
       </c>
       <c r="H29">
-        <v>-1.00000000002983</v>
+        <v>-1.0000000000298299</v>
       </c>
       <c r="I29">
         <v>1.00010281681261</v>
       </c>
       <c r="J29">
-        <v>0.0920689444170321</v>
+        <v>9.2068944417032103E-2</v>
       </c>
       <c r="K29">
-        <v>-0.287758574182459</v>
+        <v>-0.28775857418245898</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2091,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0.161938360834652</v>
+        <v>0.16193836083465199</v>
       </c>
       <c r="Q29">
-        <v>0.838984930486773</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0.83898493048677303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2105,31 +2152,31 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.0446858361374597</v>
+        <v>4.4685836137459703E-2</v>
       </c>
       <c r="D30">
-        <v>0.959834849154467</v>
+        <v>0.95983484915446704</v>
       </c>
       <c r="E30">
-        <v>0.428775539363265</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.287876685933753</v>
+        <v>-0.28787668593375298</v>
       </c>
       <c r="G30">
-        <v>0.0345699953324691</v>
+        <v>3.45699953324691E-2</v>
       </c>
       <c r="H30">
         <v>-1.00000000001308</v>
       </c>
       <c r="I30">
-        <v>1.00006254557655</v>
+        <v>1.0000625455765499</v>
       </c>
       <c r="J30">
-        <v>0.0345337136366258</v>
+        <v>3.4533713636625801E-2</v>
       </c>
       <c r="K30">
-        <v>-0.287758574179758</v>
+        <v>-0.28775857417975798</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2144,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0.0445223962673114</v>
+        <v>4.4522396267311401E-2</v>
       </c>
       <c r="Q30">
-        <v>0.956386312078462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0.95638631207846203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,25 +2208,25 @@
         <v>0.472196909666803</v>
       </c>
       <c r="D31">
-        <v>0.52910262214384</v>
+        <v>0.52910262214383996</v>
       </c>
       <c r="E31">
-        <v>0.428775539362157</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.163967841765246</v>
+        <v>-0.16396784176524601</v>
       </c>
       <c r="G31">
-        <v>0.351563160804127</v>
+        <v>0.35156316080412697</v>
       </c>
       <c r="H31">
-        <v>-1.00000000000173</v>
+        <v>-1.0000000000017299</v>
       </c>
       <c r="I31">
         <v>1.0001364298825</v>
       </c>
       <c r="J31">
-        <v>0.351587780864786</v>
+        <v>0.35158778086478598</v>
       </c>
       <c r="K31">
         <v>-0.163909176533276</v>
@@ -2197,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0.471842977008946</v>
+        <v>0.47184297700894601</v>
       </c>
       <c r="Q31">
-        <v>0.528847980292092</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>0.52884798029209201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -2211,31 +2258,31 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.66274180737716</v>
+        <v>0.66274180737716004</v>
       </c>
       <c r="D32">
-        <v>0.540389863036824</v>
+        <v>0.54038986303682401</v>
       </c>
       <c r="E32">
-        <v>0.428775539362632</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.214111245832056</v>
+        <v>-0.21411124583205601</v>
       </c>
       <c r="G32">
-        <v>0.421967123474522</v>
+        <v>0.42196712347452198</v>
       </c>
       <c r="H32">
         <v>-1.00000000002416</v>
       </c>
       <c r="I32">
-        <v>1.00017099566705</v>
+        <v>1.0001709956670499</v>
       </c>
       <c r="J32">
-        <v>0.421978609121327</v>
+        <v>0.42197860912132701</v>
       </c>
       <c r="K32">
-        <v>-0.214028523796185</v>
+        <v>-0.21402852379618501</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2250,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0.564755552551757</v>
+        <v>0.56475555255175702</v>
       </c>
       <c r="Q32">
-        <v>0.435877606250223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>0.43587760625022298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2267,22 +2314,22 @@
         <v>0.238236536641138</v>
       </c>
       <c r="D33">
-        <v>0.772034983024053</v>
+        <v>0.77203498302405305</v>
       </c>
       <c r="E33">
-        <v>0.428775539362497</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.21411124583182</v>
+        <v>-0.21411124583182001</v>
       </c>
       <c r="G33">
-        <v>0.166587433345543</v>
+        <v>0.16658743334554299</v>
       </c>
       <c r="H33">
-        <v>-0.999999999989913</v>
+        <v>-0.99999999998991296</v>
       </c>
       <c r="I33">
-        <v>1.00009622527853</v>
+        <v>1.0000962252785299</v>
       </c>
       <c r="J33">
         <v>0.166599097370184</v>
@@ -2303,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0.236250315172164</v>
+        <v>0.23625031517216399</v>
       </c>
       <c r="Q33">
-        <v>0.764415907348916</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>0.76441590734891596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2317,28 +2364,28 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.524479909358707</v>
+        <v>0.52447990935870703</v>
       </c>
       <c r="D34">
         <v>0.476873842842299</v>
       </c>
       <c r="E34">
-        <v>0.428775539363037</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.214111245832235</v>
+        <v>-0.21411124583223501</v>
       </c>
       <c r="G34">
-        <v>0.395009650261504</v>
+        <v>0.39500965026150398</v>
       </c>
       <c r="H34">
         <v>-1.00000000000195</v>
       </c>
       <c r="I34">
-        <v>1.00016189832996</v>
+        <v>1.0001618983299601</v>
       </c>
       <c r="J34">
-        <v>0.395018013854352</v>
+        <v>0.39501801385435198</v>
       </c>
       <c r="K34">
         <v>-0.214028523794765</v>
@@ -2356,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0.524041913482372</v>
+        <v>0.52404191348237195</v>
       </c>
       <c r="Q34">
-        <v>0.476606862786022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>0.47660686278602199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2373,16 +2420,16 @@
         <v>0.125150725932936</v>
       </c>
       <c r="D35">
-        <v>0.875697744402515</v>
+        <v>0.87569774440251502</v>
       </c>
       <c r="E35">
-        <v>0.42877553936248</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>-0.251205120296076</v>
       </c>
       <c r="G35">
-        <v>0.0853377281512326</v>
+        <v>8.5337728151232597E-2</v>
       </c>
       <c r="H35">
         <v>-1.00000000000584</v>
@@ -2391,10 +2438,10 @@
         <v>1.00009671450883</v>
       </c>
       <c r="J35">
-        <v>0.0853186933875649</v>
+        <v>8.5318693387564898E-2</v>
       </c>
       <c r="K35">
-        <v>-0.251104602097962</v>
+        <v>-0.25110460209796198</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2409,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0.125106560666071</v>
+        <v>0.12510656066607101</v>
       </c>
       <c r="Q35">
-        <v>0.875815522222903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>0.87581552222290304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2423,31 +2470,31 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.289966142087897</v>
+        <v>0.28996614208789701</v>
       </c>
       <c r="D36">
-        <v>0.712391867746113</v>
+        <v>0.71239186774611296</v>
       </c>
       <c r="E36">
-        <v>0.428775539363237</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.179284467403043</v>
+        <v>-0.17928446740304299</v>
       </c>
       <c r="G36">
-        <v>0.214637597901788</v>
+        <v>0.21463759790178799</v>
       </c>
       <c r="H36">
-        <v>-0.999999999994371</v>
+        <v>-0.99999999999437095</v>
       </c>
       <c r="I36">
-        <v>1.0001095197705</v>
+        <v>1.0001095197705001</v>
       </c>
       <c r="J36">
         <v>0.214642756739091</v>
       </c>
       <c r="K36">
-        <v>-0.179218453865499</v>
+        <v>-0.17921845386549901</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2462,18 +2509,18 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0.289453990680418</v>
+        <v>0.28945399068041799</v>
       </c>
       <c r="Q36">
-        <v>0.711168012415991</v>
+        <v>0.71116801241599104</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:BB600">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2482,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2492,9 +2539,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2547,60 +2594,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.140342183380511</v>
+        <v>0.14034218338051099</v>
       </c>
       <c r="C2">
         <v>0.645984332830568</v>
       </c>
       <c r="D2">
-        <v>0.356389767675483</v>
+        <v>0.35638976767548303</v>
       </c>
       <c r="E2">
-        <v>-0.192106270286336</v>
+        <v>-0.19210627028633601</v>
       </c>
       <c r="F2">
         <v>-0.237241202370917</v>
       </c>
       <c r="G2">
-        <v>0.355489584357168</v>
+        <v>0.35548958435716799</v>
       </c>
       <c r="H2">
-        <v>-0.999999999982075</v>
+        <v>-0.99999999998207501</v>
       </c>
       <c r="I2">
-        <v>-0.499127461398944</v>
+        <v>-0.49912746139894398</v>
       </c>
       <c r="J2">
-        <v>-0.29321346685168</v>
+        <v>-0.29321346685167998</v>
       </c>
       <c r="K2">
-        <v>-0.23714760940208</v>
+        <v>-0.23714760940207999</v>
       </c>
       <c r="L2">
-        <v>-0.104918659280816</v>
+        <v>-0.10491865928081601</v>
       </c>
       <c r="M2">
-        <v>-0.0265545421527492</v>
+        <v>-2.6554542152749199E-2</v>
       </c>
       <c r="N2">
         <v>-0.145018762132711</v>
       </c>
       <c r="O2">
-        <v>-0.0367037480483377</v>
+        <v>-3.6703748048337703E-2</v>
       </c>
       <c r="P2">
-        <v>0.383345802963858</v>
+        <v>0.38334580296385801</v>
       </c>
       <c r="Q2">
-        <v>0.173426476513048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.17342647651304799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2608,63 +2655,63 @@
         <v>0.142025012771688</v>
       </c>
       <c r="C3">
-        <v>0.778793532836702</v>
+        <v>0.77879353283670205</v>
       </c>
       <c r="D3">
-        <v>0.22555629335793</v>
+        <v>0.22555629335793001</v>
       </c>
       <c r="E3">
-        <v>-0.118251373863164</v>
+        <v>-0.11825137386316401</v>
       </c>
       <c r="F3">
-        <v>-0.200509167075982</v>
+        <v>-0.20050916707598199</v>
       </c>
       <c r="G3">
-        <v>0.609198567501895</v>
+        <v>0.60919856750189505</v>
       </c>
       <c r="H3">
-        <v>-1.00000000000632</v>
+        <v>-1.0000000000063201</v>
       </c>
       <c r="I3">
         <v>-0.49729460295653</v>
       </c>
       <c r="J3">
-        <v>-0.374868545256162</v>
+        <v>-0.37486854525616198</v>
       </c>
       <c r="K3">
-        <v>-0.200433659126747</v>
+        <v>-0.20043365912674699</v>
       </c>
       <c r="L3">
         <v>-0.253771531985301</v>
       </c>
       <c r="M3">
-        <v>-0.0171882325512824</v>
+        <v>-1.7188232551282399E-2</v>
       </c>
       <c r="N3">
-        <v>-0.321766181657177</v>
+        <v>-0.32176618165717702</v>
       </c>
       <c r="O3">
-        <v>-0.0217935926170023</v>
+        <v>-2.17935926170023E-2</v>
       </c>
       <c r="P3">
-        <v>0.624646011149477</v>
+        <v>0.62464601114947704</v>
       </c>
       <c r="Q3">
         <v>0.113474474945467</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.141291933312743</v>
+        <v>0.14129193331274301</v>
       </c>
       <c r="C4">
-        <v>0.82990851182652</v>
+        <v>0.82990851182652003</v>
       </c>
       <c r="D4">
-        <v>0.172338398300266</v>
+        <v>0.17233839830026601</v>
       </c>
       <c r="E4">
         <v>-0.12624616261231</v>
@@ -2673,60 +2720,60 @@
         <v>-0.199375963715685</v>
       </c>
       <c r="G4">
-        <v>0.610125247166198</v>
+        <v>0.61012524716619798</v>
       </c>
       <c r="H4">
-        <v>-0.999999999999787</v>
+        <v>-0.99999999999978695</v>
       </c>
       <c r="I4">
-        <v>-0.498064891896053</v>
+        <v>-0.49806489189605302</v>
       </c>
       <c r="J4">
-        <v>-0.393153838159318</v>
+        <v>-0.39315383815931798</v>
       </c>
       <c r="K4">
         <v>-0.199300836896911</v>
       </c>
       <c r="L4">
-        <v>-0.24077862055761</v>
+        <v>-0.24077862055761001</v>
       </c>
       <c r="M4">
-        <v>-0.0132351363578796</v>
+        <v>-1.3235136357879601E-2</v>
       </c>
       <c r="N4">
-        <v>-0.305292014998799</v>
+        <v>-0.30529201499879899</v>
       </c>
       <c r="O4">
-        <v>-0.0167813079340557</v>
+        <v>-1.67813079340557E-2</v>
       </c>
       <c r="P4">
-        <v>0.62879890503895</v>
+        <v>0.62879890503894997</v>
       </c>
       <c r="Q4">
-        <v>0.0866278095626839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.66278095626839E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.140096994089306</v>
+        <v>0.14009699408930601</v>
       </c>
       <c r="C5">
-        <v>0.896033945275484</v>
+        <v>0.89603394527548397</v>
       </c>
       <c r="D5">
-        <v>0.127115842796113</v>
+        <v>0.12711584279611299</v>
       </c>
       <c r="E5">
         <v>-0.194932399447</v>
       </c>
       <c r="F5">
-        <v>-0.236752445097977</v>
+        <v>-0.23675244509797699</v>
       </c>
       <c r="G5">
-        <v>0.598916189112959</v>
+        <v>0.59891618911295896</v>
       </c>
       <c r="H5">
         <v>-1.00000000000284</v>
@@ -2735,31 +2782,31 @@
         <v>-0.499608347797319</v>
       </c>
       <c r="J5">
-        <v>-0.423681836020839</v>
+        <v>-0.42368183602083898</v>
       </c>
       <c r="K5">
-        <v>-0.236659245107506</v>
+        <v>-0.23665924510750599</v>
       </c>
       <c r="L5">
         <v>-0.116821591949195</v>
       </c>
       <c r="M5">
-        <v>-0.00922015913719037</v>
+        <v>-9.2201591371903705E-3</v>
       </c>
       <c r="N5">
         <v>-0.161471005396465</v>
       </c>
       <c r="O5">
-        <v>-0.0127442504370265</v>
+        <v>-1.27442504370265E-2</v>
       </c>
       <c r="P5">
-        <v>0.489185490978396</v>
+        <v>0.48918549097839598</v>
       </c>
       <c r="Q5">
-        <v>0.0600005491309202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>6.0000549130920199E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2767,52 +2814,52 @@
         <v>0.138858561192612</v>
       </c>
       <c r="C6">
-        <v>0.532127868689645</v>
+        <v>0.53212786868964501</v>
       </c>
       <c r="D6">
-        <v>0.509242607416701</v>
+        <v>0.50924260741670102</v>
       </c>
       <c r="E6">
-        <v>-0.145673056002445</v>
+        <v>-0.14567305600244501</v>
       </c>
       <c r="F6">
-        <v>-0.289879987913247</v>
+        <v>-0.28987998791324698</v>
       </c>
       <c r="G6">
-        <v>0.355099247029238</v>
+        <v>0.35509924702923801</v>
       </c>
       <c r="H6">
-        <v>-0.999999999992425</v>
+        <v>-0.99999999999242495</v>
       </c>
       <c r="I6">
-        <v>-0.482436966752298</v>
+        <v>-0.48243696675229802</v>
       </c>
       <c r="J6">
-        <v>-0.244094145746635</v>
+        <v>-0.24409414574663499</v>
       </c>
       <c r="K6">
-        <v>-0.289761550425808</v>
+        <v>-0.28976155042580798</v>
       </c>
       <c r="L6">
-        <v>-0.130184091898696</v>
+        <v>-0.13018409189869601</v>
       </c>
       <c r="M6">
-        <v>-0.0381671404147947</v>
+        <v>-3.8167140414794701E-2</v>
       </c>
       <c r="N6">
-        <v>-0.148227999028562</v>
+        <v>-0.14822799902856201</v>
       </c>
       <c r="O6">
-        <v>-0.0434579497649118</v>
+        <v>-4.3457949764911803E-2</v>
       </c>
       <c r="P6">
-        <v>0.370729548365264</v>
+        <v>0.37072954836526401</v>
       </c>
       <c r="Q6">
-        <v>0.25781001490461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.25781001490460997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2820,7 +2867,7 @@
         <v>0.140576173208074</v>
       </c>
       <c r="C7">
-        <v>0.825998587239053</v>
+        <v>0.82599858723905295</v>
       </c>
       <c r="D7">
         <v>0.178138347676604</v>
@@ -2829,19 +2876,19 @@
         <v>-0.12883911500456</v>
       </c>
       <c r="F7">
-        <v>-0.208404767913191</v>
+        <v>-0.20840476791319101</v>
       </c>
       <c r="G7">
-        <v>0.587427842827803</v>
+        <v>0.58742784282780303</v>
       </c>
       <c r="H7">
-        <v>-0.999999999998554</v>
+        <v>-0.99999999999855405</v>
       </c>
       <c r="I7">
-        <v>-0.495645164439075</v>
+        <v>-0.49564516443907503</v>
       </c>
       <c r="J7">
-        <v>-0.392407136029029</v>
+        <v>-0.39240713602902899</v>
       </c>
       <c r="K7">
         <v>-0.208325114159429</v>
@@ -2850,22 +2897,22 @@
         <v>-0.209048510045617</v>
       </c>
       <c r="M7">
-        <v>-0.0146898987410804</v>
+        <v>-1.46898987410804E-2</v>
       </c>
       <c r="N7">
-        <v>-0.206632657503677</v>
+        <v>-0.20663265750367699</v>
       </c>
       <c r="O7">
-        <v>-0.0145202479018499</v>
+        <v>-1.45202479018499E-2</v>
       </c>
       <c r="P7">
-        <v>0.603791947371523</v>
+        <v>0.60379194737152297</v>
       </c>
       <c r="Q7">
-        <v>0.0967631407288643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.67631407288643E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2873,116 +2920,116 @@
         <v>0.138158132582132</v>
       </c>
       <c r="C8">
-        <v>0.34948146578874</v>
+        <v>0.34948146578874001</v>
       </c>
       <c r="D8">
         <v>0.660162585103654</v>
       </c>
       <c r="E8">
-        <v>-0.136587564817187</v>
+        <v>-0.13658756481718701</v>
       </c>
       <c r="F8">
-        <v>-0.253661942645499</v>
+        <v>-0.25366194264549902</v>
       </c>
       <c r="G8">
-        <v>0.276079877830595</v>
+        <v>0.27607987783059501</v>
       </c>
       <c r="H8">
-        <v>-0.99999999999798</v>
+        <v>-0.99999999999797995</v>
       </c>
       <c r="I8">
-        <v>-0.470607683920896</v>
+        <v>-0.47060768392089602</v>
       </c>
       <c r="J8">
-        <v>-0.166982679143116</v>
+        <v>-0.16698267914311599</v>
       </c>
       <c r="K8">
-        <v>-0.253560376922745</v>
+        <v>-0.25356037692274502</v>
       </c>
       <c r="L8">
-        <v>-0.11909771578831</v>
+        <v>-0.11909771578830999</v>
       </c>
       <c r="M8">
-        <v>-0.0496026160036682</v>
+        <v>-4.96026160036682E-2</v>
       </c>
       <c r="N8">
-        <v>-0.147302415993998</v>
+        <v>-0.14730241599399799</v>
       </c>
       <c r="O8">
-        <v>-0.0613493109646069</v>
+        <v>-6.1349310964606898E-2</v>
       </c>
       <c r="P8">
-        <v>0.286688095505555</v>
+        <v>0.28668809550555502</v>
       </c>
       <c r="Q8">
-        <v>0.339546114773472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.33954611477347202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.140600383734256</v>
+        <v>0.14060038373425601</v>
       </c>
       <c r="C9">
-        <v>0.552839373797291</v>
+        <v>0.55283937379729098</v>
       </c>
       <c r="D9">
-        <v>0.449214416916793</v>
+        <v>0.44921441691679298</v>
       </c>
       <c r="E9">
-        <v>-0.138196484455004</v>
+        <v>-0.13819648445500399</v>
       </c>
       <c r="F9">
-        <v>-0.220936265931275</v>
+        <v>-0.22093626593127499</v>
       </c>
       <c r="G9">
-        <v>0.400740555134508</v>
+        <v>0.40074055513450801</v>
       </c>
       <c r="H9">
-        <v>-0.999999999987734</v>
+        <v>-0.99999999998773403</v>
       </c>
       <c r="I9">
-        <v>-0.494055558058296</v>
+        <v>-0.49405555805829598</v>
       </c>
       <c r="J9">
-        <v>-0.262096718623764</v>
+        <v>-0.26209671862376399</v>
       </c>
       <c r="K9">
-        <v>-0.220850707257486</v>
+        <v>-0.22085070725748601</v>
       </c>
       <c r="L9">
-        <v>-0.167382904874282</v>
+        <v>-0.16738290487428201</v>
       </c>
       <c r="M9">
-        <v>-0.0367409957175742</v>
+        <v>-3.67409957175742E-2</v>
       </c>
       <c r="N9">
-        <v>-0.172151290932864</v>
+        <v>-0.17215129093286399</v>
       </c>
       <c r="O9">
-        <v>-0.0377876415081318</v>
+        <v>-3.7787641508131797E-2</v>
       </c>
       <c r="P9">
-        <v>0.4349488194254</v>
+        <v>0.43494881942539998</v>
       </c>
       <c r="Q9">
-        <v>0.241502345373402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.24150234537340201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.141073648387369</v>
+        <v>0.14107364838736899</v>
       </c>
       <c r="C10">
-        <v>0.806202644205973</v>
+        <v>0.80620264420597298</v>
       </c>
       <c r="D10">
-        <v>0.195982580684668</v>
+        <v>0.19598258068466801</v>
       </c>
       <c r="E10">
         <v>-0.117439949711043</v>
@@ -2991,40 +3038,40 @@
         <v>-0.193507711619025</v>
       </c>
       <c r="G10">
-        <v>0.61673581263117</v>
+        <v>0.61673581263117006</v>
       </c>
       <c r="H10">
-        <v>-0.999999999994789</v>
+        <v>-0.99999999999478895</v>
       </c>
       <c r="I10">
-        <v>-0.493503555553599</v>
+        <v>-0.49350355555359898</v>
       </c>
       <c r="J10">
         <v>-0.384895821894568</v>
       </c>
       <c r="K10">
-        <v>-0.193435408404025</v>
+        <v>-0.19343540840402501</v>
       </c>
       <c r="L10">
-        <v>-0.25170471211007</v>
+        <v>-0.25170471211007001</v>
       </c>
       <c r="M10">
-        <v>-0.0145787217534762</v>
+        <v>-1.4578721753476199E-2</v>
       </c>
       <c r="N10">
-        <v>-0.340927337581951</v>
+        <v>-0.34092733758195098</v>
       </c>
       <c r="O10">
-        <v>-0.0197465210922645</v>
+        <v>-1.9746521092264501E-2</v>
       </c>
       <c r="P10">
-        <v>0.630033709998618</v>
+        <v>0.63003370999861796</v>
       </c>
       <c r="Q10">
-        <v>0.0972572057193063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>9.7257205719306294E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3032,399 +3079,399 @@
         <v>0.141176022277823</v>
       </c>
       <c r="C11">
-        <v>0.655131302312113</v>
+        <v>0.65513130231211303</v>
       </c>
       <c r="D11">
         <v>0.347610087606956</v>
       </c>
       <c r="E11">
-        <v>-0.154913724526775</v>
+        <v>-0.15491372452677499</v>
       </c>
       <c r="F11">
         <v>-0.199928966976781</v>
       </c>
       <c r="G11">
-        <v>0.469016639076309</v>
+        <v>0.46901663907630903</v>
       </c>
       <c r="H11">
-        <v>-0.999999999996704</v>
+        <v>-0.99999999999670397</v>
       </c>
       <c r="I11">
         <v>-0.496422891420713</v>
       </c>
       <c r="J11">
-        <v>-0.311323961264141</v>
+        <v>-0.31132396126414102</v>
       </c>
       <c r="K11">
-        <v>-0.19985357412791</v>
+        <v>-0.19985357412790999</v>
       </c>
       <c r="L11">
-        <v>-0.183892611412785</v>
+        <v>-0.18389261141278501</v>
       </c>
       <c r="M11">
-        <v>-0.0251561933831564</v>
+        <v>-2.5156193383156399E-2</v>
       </c>
       <c r="N11">
-        <v>-0.280735055489622</v>
+        <v>-0.28073505548962202</v>
       </c>
       <c r="O11">
-        <v>-0.0384040730476778</v>
+        <v>-3.8404073047677803E-2</v>
       </c>
       <c r="P11">
-        <v>0.480786194694012</v>
+        <v>0.48078619469401201</v>
       </c>
       <c r="Q11">
-        <v>0.164344712231813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.16434471223181299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.141147884225569</v>
+        <v>0.14114788422556901</v>
       </c>
       <c r="C12">
-        <v>0.734871113766718</v>
+        <v>0.73487111376671799</v>
       </c>
       <c r="D12">
-        <v>0.270379802851006</v>
+        <v>0.27037980285100599</v>
       </c>
       <c r="E12">
         <v>-0.116804539880909</v>
       </c>
       <c r="F12">
-        <v>-0.211341099719984</v>
+        <v>-0.21134109971998399</v>
       </c>
       <c r="G12">
-        <v>0.546000286847584</v>
+        <v>0.54600028684758395</v>
       </c>
       <c r="H12">
-        <v>-1.00000000000871</v>
+        <v>-1.0000000000087099</v>
       </c>
       <c r="I12">
         <v>-0.496343123285722</v>
       </c>
       <c r="J12">
-        <v>-0.348700928170896</v>
+        <v>-0.34870092817089599</v>
       </c>
       <c r="K12">
-        <v>-0.211260183070611</v>
+        <v>-0.21126018307061101</v>
       </c>
       <c r="L12">
         <v>-0.228927683300886</v>
       </c>
       <c r="M12">
-        <v>-0.0224747442737493</v>
+        <v>-2.2474744273749299E-2</v>
       </c>
       <c r="N12">
         <v>-0.222516392287507</v>
       </c>
       <c r="O12">
-        <v>-0.0218452276353634</v>
+        <v>-2.1845227635363399E-2</v>
       </c>
       <c r="P12">
-        <v>0.586868979477228</v>
+        <v>0.58686897947722805</v>
       </c>
       <c r="Q12">
-        <v>0.146905513169219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.14690551316921899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.140179531183721</v>
+        <v>0.14017953118372101</v>
       </c>
       <c r="C13">
-        <v>0.712566593352532</v>
+        <v>0.71256659335253203</v>
       </c>
       <c r="D13">
         <v>0.28971570921501</v>
       </c>
       <c r="E13">
-        <v>-0.191932348827737</v>
+        <v>-0.19193234882773699</v>
       </c>
       <c r="F13">
         <v>-0.236951392146344</v>
       </c>
       <c r="G13">
-        <v>0.415710490717101</v>
+        <v>0.41571049071710098</v>
       </c>
       <c r="H13">
-        <v>-0.999999999998173</v>
+        <v>-0.99999999999817302</v>
       </c>
       <c r="I13">
-        <v>-0.49922245280963</v>
+        <v>-0.49922245280963001</v>
       </c>
       <c r="J13">
-        <v>-0.33143753823734</v>
+        <v>-0.33143753823734001</v>
       </c>
       <c r="K13">
-        <v>-0.236857944589411</v>
+        <v>-0.23685794458941101</v>
       </c>
       <c r="L13">
         <v>-0.109775064371074</v>
       </c>
       <c r="M13">
-        <v>-0.0216279147954785</v>
+        <v>-2.1627914795478501E-2</v>
       </c>
       <c r="N13">
         <v>-0.151731278609022</v>
       </c>
       <c r="O13">
-        <v>-0.029894144388935</v>
+        <v>-2.9894144388935E-2</v>
       </c>
       <c r="P13">
-        <v>0.415259529821966</v>
+        <v>0.41525952982196601</v>
       </c>
       <c r="Q13">
         <v>0.14090404295369</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14">
-        <v>0.140357873568709</v>
+        <v>0.14035787356870899</v>
       </c>
       <c r="C14">
         <v>0.356938610309953</v>
       </c>
       <c r="D14">
-        <v>0.645431282285911</v>
+        <v>0.64543128228591096</v>
       </c>
       <c r="E14">
-        <v>-0.185086476367871</v>
+        <v>-0.18508647636787101</v>
       </c>
       <c r="F14">
-        <v>-0.217489373441773</v>
+        <v>-0.21748937344177299</v>
       </c>
       <c r="G14">
-        <v>0.259225933759487</v>
+        <v>0.25922593375948699</v>
       </c>
       <c r="H14">
-        <v>-1.0000000000126</v>
+        <v>-1.0000000000125999</v>
       </c>
       <c r="I14">
-        <v>-0.496036524447534</v>
+        <v>-0.49603652444753399</v>
       </c>
       <c r="J14">
-        <v>-0.169288507586477</v>
+        <v>-0.16928850758647701</v>
       </c>
       <c r="K14">
-        <v>-0.217405125319116</v>
+        <v>-0.21740512531911599</v>
       </c>
       <c r="L14">
         <v>-0.108610951558389</v>
       </c>
       <c r="M14">
-        <v>-0.0454739459410375</v>
+        <v>-4.54739459410375E-2</v>
       </c>
       <c r="N14">
         <v>-0.175535692485004</v>
       </c>
       <c r="O14">
-        <v>-0.0734945673176327</v>
+        <v>-7.3494567317632695E-2</v>
       </c>
       <c r="P14">
         <v>0.270924888958678</v>
       </c>
       <c r="Q14">
-        <v>0.297448220608646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.29744822060864601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15">
-        <v>0.140376082302154</v>
+        <v>0.14037608230215401</v>
       </c>
       <c r="C15">
-        <v>0.499273950982511</v>
+        <v>0.49927395098251098</v>
       </c>
       <c r="D15">
-        <v>0.503521112035588</v>
+        <v>0.50352111203558803</v>
       </c>
       <c r="E15">
-        <v>-0.171358897134099</v>
+        <v>-0.17135889713409899</v>
       </c>
       <c r="F15">
         <v>-0.217481605536293</v>
       </c>
       <c r="G15">
-        <v>0.354183784622308</v>
+        <v>0.35418378462230798</v>
       </c>
       <c r="H15">
         <v>-0.999999999987219</v>
       </c>
       <c r="I15">
-        <v>-0.496290997509253</v>
+        <v>-0.49629099750925298</v>
       </c>
       <c r="J15">
         <v>-0.235572190600006</v>
       </c>
       <c r="K15">
-        <v>-0.217397390401382</v>
+        <v>-0.21739739040138201</v>
       </c>
       <c r="L15">
-        <v>-0.14463805473424</v>
+        <v>-0.14463805473423999</v>
       </c>
       <c r="M15">
-        <v>-0.0353277898269127</v>
+        <v>-3.5327789826912703E-2</v>
       </c>
       <c r="N15">
         <v>-0.233762297174648</v>
       </c>
       <c r="O15">
-        <v>-0.0570964796587802</v>
+        <v>-5.7096479658780203E-2</v>
       </c>
       <c r="P15">
-        <v>0.369115707764947</v>
+        <v>0.36911570776494701</v>
       </c>
       <c r="Q15">
         <v>0.231814207631411</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16">
-        <v>0.140317473167775</v>
+        <v>0.14031747316777499</v>
       </c>
       <c r="C16">
-        <v>0.594768754966761</v>
+        <v>0.59476875496676096</v>
       </c>
       <c r="D16">
-        <v>0.407277289016612</v>
+        <v>0.40727728901661198</v>
       </c>
       <c r="E16">
         <v>-0.138830242583521</v>
       </c>
       <c r="F16">
-        <v>-0.220680908621797</v>
+        <v>-0.22068090862179701</v>
       </c>
       <c r="G16">
-        <v>0.414376207451121</v>
+        <v>0.41437620745112103</v>
       </c>
       <c r="H16">
         <v>-1.00000000001113</v>
       </c>
       <c r="I16">
-        <v>-0.492771444208001</v>
+        <v>-0.49277144420800101</v>
       </c>
       <c r="J16">
         <v>-0.280128202322111</v>
       </c>
       <c r="K16">
-        <v>-0.220595462571496</v>
+        <v>-0.22059546257149601</v>
       </c>
       <c r="L16">
-        <v>-0.165988639336361</v>
+        <v>-0.16598863933636099</v>
       </c>
       <c r="M16">
-        <v>-0.033249906240194</v>
+        <v>-3.3249906240193999E-2</v>
       </c>
       <c r="N16">
         <v>-0.170717337112121</v>
       </c>
       <c r="O16">
-        <v>-0.0341971507359722</v>
+        <v>-3.4197150735972202E-2</v>
       </c>
       <c r="P16">
-        <v>0.451597867485004</v>
+        <v>0.45159786748500402</v>
       </c>
       <c r="Q16">
         <v>0.219356087522487</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17">
-        <v>0.140225058539058</v>
+        <v>0.14022505853905801</v>
       </c>
       <c r="C17">
-        <v>0.556549464255307</v>
+        <v>0.55654946425530705</v>
       </c>
       <c r="D17">
-        <v>0.445619706074409</v>
+        <v>0.44561970607440898</v>
       </c>
       <c r="E17">
-        <v>-0.188175624766337</v>
+        <v>-0.18817562476633701</v>
       </c>
       <c r="F17">
         <v>-0.23707584388208</v>
       </c>
       <c r="G17">
-        <v>0.330921279479462</v>
+        <v>0.33092127947946198</v>
       </c>
       <c r="H17">
         <v>-1.00000000000115</v>
       </c>
       <c r="I17">
-        <v>-0.498922103216363</v>
+        <v>-0.49892210321636299</v>
       </c>
       <c r="J17">
         <v>-0.258660289060551</v>
       </c>
       <c r="K17">
-        <v>-0.236982497301138</v>
+        <v>-0.23698249730113799</v>
       </c>
       <c r="L17">
         <v>-0.104988857862229</v>
       </c>
       <c r="M17">
-        <v>-0.0332659316243597</v>
+        <v>-3.3265931624359701E-2</v>
       </c>
       <c r="N17">
         <v>-0.145115782580372</v>
       </c>
       <c r="O17">
-        <v>-0.045980210602486</v>
+        <v>-4.5980210602485999E-2</v>
       </c>
       <c r="P17">
-        <v>0.347994086536291</v>
+        <v>0.34799408653629099</v>
       </c>
       <c r="Q17">
-        <v>0.216789845606026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.21678984560602599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B18">
-        <v>0.140212876967464</v>
+        <v>0.14021287696746401</v>
       </c>
       <c r="C18">
-        <v>0.53532134478794</v>
+        <v>0.53532134478794002</v>
       </c>
       <c r="D18">
-        <v>0.470073939991539</v>
+        <v>0.47007393999153901</v>
       </c>
       <c r="E18">
-        <v>-0.16792848453908</v>
+        <v>-0.16792848453907999</v>
       </c>
       <c r="F18">
-        <v>-0.217413847150986</v>
+        <v>-0.21741384715098599</v>
       </c>
       <c r="G18">
-        <v>0.385508005964697</v>
+        <v>0.38550800596469698</v>
       </c>
       <c r="H18">
-        <v>-0.999999999982432</v>
+        <v>-0.99999999998243205</v>
       </c>
       <c r="I18">
         <v>-0.495004381609563</v>
       </c>
       <c r="J18">
-        <v>-0.254871260641416</v>
+        <v>-0.25487126064141602</v>
       </c>
       <c r="K18">
         <v>-0.217329844094201</v>
@@ -3433,80 +3480,80 @@
         <v>-0.150621821941163</v>
       </c>
       <c r="M18">
-        <v>-0.0328362348869371</v>
+        <v>-3.2836234886937099E-2</v>
       </c>
       <c r="N18">
         <v>-0.243433094261609</v>
       </c>
       <c r="O18">
-        <v>-0.0530695013095549</v>
+        <v>-5.3069501309554901E-2</v>
       </c>
       <c r="P18">
-        <v>0.389493151523761</v>
+        <v>0.38949315152376102</v>
       </c>
       <c r="Q18">
-        <v>0.216265851084518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.21626585108451801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19">
-        <v>0.13820741910381</v>
+        <v>0.13820741910380999</v>
       </c>
       <c r="C19">
-        <v>0.313892591240381</v>
+        <v>0.31389259124038099</v>
       </c>
       <c r="D19">
-        <v>0.717347412962111</v>
+        <v>0.71734741296211102</v>
       </c>
       <c r="E19">
         <v>-0.140392484759578</v>
       </c>
       <c r="F19">
-        <v>-0.290396354673805</v>
+        <v>-0.29039635467380498</v>
       </c>
       <c r="G19">
         <v>0.240467009667266</v>
       </c>
       <c r="H19">
-        <v>-0.999999999993972</v>
+        <v>-0.99999999999397204</v>
       </c>
       <c r="I19">
-        <v>-0.4726448787561</v>
+        <v>-0.47264487875610001</v>
       </c>
       <c r="J19">
         <v>-0.147016152840095</v>
       </c>
       <c r="K19">
-        <v>-0.290277282217154</v>
+        <v>-0.29027728221715399</v>
       </c>
       <c r="L19">
         <v>-0.103433869741362</v>
       </c>
       <c r="M19">
-        <v>-0.0543425501233791</v>
+        <v>-5.4342550123379102E-2</v>
       </c>
       <c r="N19">
-        <v>-0.117771238889042</v>
+        <v>-0.11777123888904199</v>
       </c>
       <c r="O19">
-        <v>-0.0618753855812858</v>
+        <v>-6.1875385581285802E-2</v>
       </c>
       <c r="P19">
-        <v>0.251998199430775</v>
+        <v>0.25199819943077501</v>
       </c>
       <c r="Q19">
-        <v>0.368887792886234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.36888779288623402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.140651036160032</v>
+        <v>0.14065103616003199</v>
       </c>
       <c r="C20">
         <v>0.840521566350247</v>
@@ -3515,113 +3562,113 @@
         <v>0.168276335054898</v>
       </c>
       <c r="E20">
-        <v>-0.128916011381278</v>
+        <v>-0.12891601138127801</v>
       </c>
       <c r="F20">
-        <v>-0.208389260867606</v>
+        <v>-0.20838926086760601</v>
       </c>
       <c r="G20">
         <v>0.609638349853034</v>
       </c>
       <c r="H20">
-        <v>-1.00000000000157</v>
+        <v>-1.0000000000015701</v>
       </c>
       <c r="I20">
-        <v>-0.496531798197651</v>
+        <v>-0.49653179819765098</v>
       </c>
       <c r="J20">
-        <v>-0.401457143784221</v>
+        <v>-0.40145714378422098</v>
       </c>
       <c r="K20">
         <v>-0.208309815005155</v>
       </c>
       <c r="L20">
-        <v>-0.211807038755107</v>
+        <v>-0.21180703875510701</v>
       </c>
       <c r="M20">
-        <v>-0.0138136012787166</v>
+        <v>-1.38136012787166E-2</v>
       </c>
       <c r="N20">
-        <v>-0.20935935427581</v>
+        <v>-0.20935935427581001</v>
       </c>
       <c r="O20">
-        <v>-0.013653949320942</v>
+        <v>-1.3653949320942001E-2</v>
       </c>
       <c r="P20">
-        <v>0.61150162049384</v>
+        <v>0.61150162049384005</v>
       </c>
       <c r="Q20">
-        <v>0.0907741564062524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>9.0774156406252401E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.141685209248381</v>
+        <v>0.14168520924838099</v>
       </c>
       <c r="C21">
-        <v>0.967778497577133</v>
+        <v>0.96777849757713297</v>
       </c>
       <c r="D21">
-        <v>0.0345902272317451</v>
+        <v>3.4590227231745103E-2</v>
       </c>
       <c r="E21">
-        <v>-0.09261812473381</v>
+        <v>-9.2618124733809995E-2</v>
       </c>
       <c r="F21">
-        <v>-0.15524268782675</v>
+        <v>-0.15524268782674999</v>
       </c>
       <c r="G21">
-        <v>0.828647915797864</v>
+        <v>0.82864791579786401</v>
       </c>
       <c r="H21">
-        <v>-1.00000000001259</v>
+        <v>-1.0000000000125899</v>
       </c>
       <c r="I21">
-        <v>-0.498018272640086</v>
+        <v>-0.49801827264008602</v>
       </c>
       <c r="J21">
         <v>-0.475075878462559</v>
       </c>
       <c r="K21">
-        <v>-0.155188698636014</v>
+        <v>-0.15518869863601401</v>
       </c>
       <c r="L21">
-        <v>-0.280852944138508</v>
+        <v>-0.28085294413850798</v>
       </c>
       <c r="M21">
-        <v>-0.00319054361552962</v>
+        <v>-3.19054361552962E-3</v>
       </c>
       <c r="N21">
         <v>-0.176415344972775</v>
       </c>
       <c r="O21">
-        <v>-0.00200411027309601</v>
+        <v>-2.0041102730960101E-3</v>
       </c>
       <c r="P21">
-        <v>0.775681025188996</v>
+        <v>0.77568102518899595</v>
       </c>
       <c r="Q21">
-        <v>0.0209680827575984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2.09680827575984E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.141919484364827</v>
+        <v>0.14191948436482699</v>
       </c>
       <c r="C22">
-        <v>0.912522704291071</v>
+        <v>0.91252270429107096</v>
       </c>
       <c r="D22">
-        <v>0.0895551692467868</v>
+        <v>8.9555169246786803E-2</v>
       </c>
       <c r="E22">
-        <v>-0.0869780579906393</v>
+        <v>-8.6978057990639304E-2</v>
       </c>
       <c r="F22">
         <v>-0.155621541283919</v>
@@ -3630,98 +3677,98 @@
         <v>0.732210483381315</v>
       </c>
       <c r="H22">
-        <v>-0.999999999998688</v>
+        <v>-0.99999999999868805</v>
       </c>
       <c r="I22">
-        <v>-0.496816653543696</v>
+        <v>-0.49681665354369597</v>
       </c>
       <c r="J22">
         <v>-0.442198937574726</v>
       </c>
       <c r="K22">
-        <v>-0.1555674249484</v>
+        <v>-0.15556742494840001</v>
       </c>
       <c r="L22">
-        <v>-0.287250913783234</v>
+        <v>-0.28725091378323397</v>
       </c>
       <c r="M22">
-        <v>-0.00828045049924746</v>
+        <v>-8.2804504992474593E-3</v>
       </c>
       <c r="N22">
         <v>-0.180434189839697</v>
       </c>
       <c r="O22">
-        <v>-0.00520127835144097</v>
+        <v>-5.2012783514409702E-3</v>
       </c>
       <c r="P22">
-        <v>0.755304550712961</v>
+        <v>0.75530455071296099</v>
       </c>
       <c r="Q22">
-        <v>0.0542988799300681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.42988799300681E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.140227439879019</v>
+        <v>0.14022743987901901</v>
       </c>
       <c r="C23">
-        <v>0.688629069698977</v>
+        <v>0.68862906969897697</v>
       </c>
       <c r="D23">
-        <v>0.314454306200929</v>
+        <v>0.31445430620092901</v>
       </c>
       <c r="E23">
         <v>-0.141553212277022</v>
       </c>
       <c r="F23">
-        <v>-0.199612181031964</v>
+        <v>-0.19961218103196399</v>
       </c>
       <c r="G23">
-        <v>0.484399698809749</v>
+        <v>0.48439969880974898</v>
       </c>
       <c r="H23">
         <v>-1.0000000000042</v>
       </c>
       <c r="I23">
-        <v>-0.488635457792899</v>
+        <v>-0.48863545779289902</v>
       </c>
       <c r="J23">
-        <v>-0.321238187824382</v>
+        <v>-0.32123818782438202</v>
       </c>
       <c r="K23">
-        <v>-0.199536828240602</v>
+        <v>-0.19953682824060201</v>
       </c>
       <c r="L23">
         <v>-0.19432166351256</v>
       </c>
       <c r="M23">
-        <v>-0.0224650677258688</v>
+        <v>-2.2465067725868801E-2</v>
       </c>
       <c r="N23">
-        <v>-0.296656328413909</v>
+        <v>-0.29665632841390899</v>
       </c>
       <c r="O23">
-        <v>-0.0342957231042578</v>
+        <v>-3.4295723104257797E-2</v>
       </c>
       <c r="P23">
-        <v>0.507126884196274</v>
+        <v>0.50712688419627405</v>
       </c>
       <c r="Q23">
-        <v>0.150258885579355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.15025888557935499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.141289699293846</v>
+        <v>0.14128969929384599</v>
       </c>
       <c r="C24">
-        <v>0.868565637184872</v>
+        <v>0.86856563718487201</v>
       </c>
       <c r="D24">
         <v>0.133567171963656</v>
@@ -3733,7 +3780,7 @@
         <v>-0.217337290248206</v>
       </c>
       <c r="G24">
-        <v>0.664496867353047</v>
+        <v>0.66449686735304703</v>
       </c>
       <c r="H24">
         <v>-1.00000000001719</v>
@@ -3748,198 +3795,198 @@
         <v>-0.217253573588469</v>
       </c>
       <c r="L24">
-        <v>-0.258185972929443</v>
+        <v>-0.25818597292944301</v>
       </c>
       <c r="M24">
-        <v>-0.010777475826194</v>
+        <v>-1.0777475826194E-2</v>
       </c>
       <c r="N24">
         <v>-0.276176051300704</v>
       </c>
       <c r="O24">
-        <v>-0.0115284337181301</v>
+        <v>-1.15284337181301E-2</v>
       </c>
       <c r="P24">
-        <v>0.675652233324966</v>
+        <v>0.67565223332496605</v>
       </c>
       <c r="Q24">
-        <v>0.071130369297212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>7.1130369297212004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.139719538453156</v>
+        <v>0.13971953845315599</v>
       </c>
       <c r="C25">
-        <v>0.563537601183489</v>
+        <v>0.56353760118348895</v>
       </c>
       <c r="D25">
-        <v>0.438735475530234</v>
+        <v>0.43873547553023401</v>
       </c>
       <c r="E25">
-        <v>-0.160485154088443</v>
+        <v>-0.16048515408844299</v>
       </c>
       <c r="F25">
         <v>-0.253244363717472</v>
       </c>
       <c r="G25">
-        <v>0.360828511427816</v>
+        <v>0.36082851142781602</v>
       </c>
       <c r="H25">
         <v>-1.00000000001</v>
       </c>
       <c r="I25">
-        <v>-0.489879856988266</v>
+        <v>-0.48987985698826603</v>
       </c>
       <c r="J25">
-        <v>-0.262499759786061</v>
+        <v>-0.26249975978606099</v>
       </c>
       <c r="K25">
-        <v>-0.253143222641784</v>
+        <v>-0.25314322264178402</v>
       </c>
       <c r="L25">
         <v>-0.129727147121417</v>
       </c>
       <c r="M25">
-        <v>-0.033581234943718</v>
+        <v>-3.3581234943718001E-2</v>
       </c>
       <c r="N25">
-        <v>-0.160448962798685</v>
+        <v>-0.16044896279868501</v>
       </c>
       <c r="O25">
-        <v>-0.0415338883476396</v>
+        <v>-4.1533888347639603E-2</v>
       </c>
       <c r="P25">
-        <v>0.387489887573906</v>
+        <v>0.38748988757390601</v>
       </c>
       <c r="Q25">
-        <v>0.224180946835446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0.22418094683544601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.141054996443059</v>
+        <v>0.14105499644305899</v>
       </c>
       <c r="C26">
         <v>0.587377086305364</v>
       </c>
       <c r="D26">
-        <v>0.415251038969648</v>
+        <v>0.41525103896964799</v>
       </c>
       <c r="E26">
         <v>-0.139970566896502</v>
       </c>
       <c r="F26">
-        <v>-0.221175249603446</v>
+        <v>-0.22117524960344601</v>
       </c>
       <c r="G26">
-        <v>0.434964186534827</v>
+        <v>0.43496418653482699</v>
       </c>
       <c r="H26">
-        <v>-0.999999999994985</v>
+        <v>-0.99999999999498501</v>
       </c>
       <c r="I26">
-        <v>-0.497299479295045</v>
+        <v>-0.49729947929504498</v>
       </c>
       <c r="J26">
-        <v>-0.282086041376665</v>
+        <v>-0.28208604137666499</v>
       </c>
       <c r="K26">
         <v>-0.221089633402026</v>
       </c>
       <c r="L26">
-        <v>-0.17450784969165</v>
+        <v>-0.17450784969165001</v>
       </c>
       <c r="M26">
-        <v>-0.0339938143807792</v>
+        <v>-3.3993814380779197E-2</v>
       </c>
       <c r="N26">
         <v>-0.179479205789386</v>
       </c>
       <c r="O26">
-        <v>-0.0349622340500539</v>
+        <v>-3.49622340500539E-2</v>
       </c>
       <c r="P26">
-        <v>0.458091910270033</v>
+        <v>0.45809191027003299</v>
       </c>
       <c r="Q26">
         <v>0.222523099780913</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.139058605670784</v>
+        <v>0.13905860567078401</v>
       </c>
       <c r="C27">
         <v>0.348049391492117</v>
       </c>
       <c r="D27">
-        <v>0.654030268657996</v>
+        <v>0.65403026865799596</v>
       </c>
       <c r="E27">
         <v>-0.146082315543726</v>
       </c>
       <c r="F27">
-        <v>-0.253908302725198</v>
+        <v>-0.25390830272519799</v>
       </c>
       <c r="G27">
-        <v>0.273932039592618</v>
+        <v>0.27393203959261803</v>
       </c>
       <c r="H27">
-        <v>-1.0000000000032</v>
+        <v>-1.0000000000032001</v>
       </c>
       <c r="I27">
-        <v>-0.478806001203133</v>
+        <v>-0.47880600120313299</v>
       </c>
       <c r="J27">
-        <v>-0.167141584027504</v>
+        <v>-0.16714158402750401</v>
       </c>
       <c r="K27">
-        <v>-0.253806903939184</v>
+        <v>-0.25380690393918398</v>
       </c>
       <c r="L27">
         <v>-0.11877430050057</v>
       </c>
       <c r="M27">
-        <v>-0.0498132829845777</v>
+        <v>-4.9813282984577698E-2</v>
       </c>
       <c r="N27">
         <v>-0.146902270800507</v>
       </c>
       <c r="O27">
-        <v>-0.0616100193914374</v>
+        <v>-6.1610019391437398E-2</v>
       </c>
       <c r="P27">
-        <v>0.286638126327059</v>
+        <v>0.28663812632705898</v>
       </c>
       <c r="Q27">
-        <v>0.336652492245187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0.33665249224518701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.139331629217597</v>
+        <v>0.13933162921759701</v>
       </c>
       <c r="C28">
-        <v>0.53711036232811</v>
+        <v>0.53711036232811005</v>
       </c>
       <c r="D28">
-        <v>0.465284558203137</v>
+        <v>0.46528455820313702</v>
       </c>
       <c r="E28">
-        <v>-0.15915230310307</v>
+        <v>-0.15915230310306999</v>
       </c>
       <c r="F28">
         <v>-0.217630485425405</v>
@@ -3948,151 +3995,151 @@
         <v>0.374067378275522</v>
       </c>
       <c r="H28">
-        <v>-0.999999999974048</v>
+        <v>-0.99999999997404798</v>
       </c>
       <c r="I28">
-        <v>-0.484023115866074</v>
+        <v>-0.48402311586607399</v>
       </c>
       <c r="J28">
-        <v>-0.252272619642434</v>
+        <v>-0.25227261964243403</v>
       </c>
       <c r="K28">
         <v>-0.217546468237235</v>
       </c>
       <c r="L28">
-        <v>-0.145074680816147</v>
+        <v>-0.14507468081614699</v>
       </c>
       <c r="M28">
-        <v>-0.0321045572160985</v>
+        <v>-3.2104557216098499E-2</v>
       </c>
       <c r="N28">
         <v>-0.234467977925163</v>
       </c>
       <c r="O28">
-        <v>-0.0518870111572573</v>
+        <v>-5.1887011157257301E-2</v>
       </c>
       <c r="P28">
-        <v>0.384602400698458</v>
+        <v>0.38460240069845802</v>
       </c>
       <c r="Q28">
-        <v>0.218232497556596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0.21823249755659599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.139396676695145</v>
+        <v>0.13939667669514499</v>
       </c>
       <c r="C29">
         <v>0.593713338104364</v>
       </c>
       <c r="D29">
-        <v>0.413825378809175</v>
+        <v>0.41382537880917503</v>
       </c>
       <c r="E29">
-        <v>-0.157090578514559</v>
+        <v>-0.15709057851455899</v>
       </c>
       <c r="F29">
         <v>-0.289674881947799</v>
       </c>
       <c r="G29">
-        <v>0.375552663630065</v>
+        <v>0.37555266363006501</v>
       </c>
       <c r="H29">
-        <v>-0.999999999981326</v>
+        <v>-0.99999999998132605</v>
       </c>
       <c r="I29">
-        <v>-0.48920807895274</v>
+        <v>-0.48920807895273999</v>
       </c>
       <c r="J29">
-        <v>-0.27674309757037</v>
+        <v>-0.27674309757037002</v>
       </c>
       <c r="K29">
-        <v>-0.289556114555697</v>
+        <v>-0.28955611455569702</v>
       </c>
       <c r="L29">
-        <v>-0.127817359630565</v>
+        <v>-0.12781735963056501</v>
       </c>
       <c r="M29">
-        <v>-0.0323549442662643</v>
+        <v>-3.2354944266264299E-2</v>
       </c>
       <c r="N29">
         <v>-0.14553351908987</v>
       </c>
       <c r="O29">
-        <v>-0.0368397623918706</v>
+        <v>-3.6839762391870597E-2</v>
       </c>
       <c r="P29">
-        <v>0.400429273739197</v>
+        <v>0.40042927373919701</v>
       </c>
       <c r="Q29">
-        <v>0.215814410278981</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0.21581441027898099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.137817015039493</v>
+        <v>0.13781701503949301</v>
       </c>
       <c r="C30">
-        <v>0.31482439153759</v>
+        <v>0.31482439153759001</v>
       </c>
       <c r="D30">
-        <v>0.689762866293885</v>
+        <v>0.68976286629388495</v>
       </c>
       <c r="E30">
-        <v>-0.133810916691896</v>
+        <v>-0.13381091669189599</v>
       </c>
       <c r="F30">
-        <v>-0.290537120415827</v>
+        <v>-0.29053712041582702</v>
       </c>
       <c r="G30">
-        <v>0.252322395675496</v>
+        <v>0.25232239567549603</v>
       </c>
       <c r="H30">
-        <v>-1.00000000000207</v>
+        <v>-1.0000000000020699</v>
       </c>
       <c r="I30">
-        <v>-0.467756954406561</v>
+        <v>-0.46775695440656101</v>
       </c>
       <c r="J30">
         <v>-0.152067038405447</v>
       </c>
       <c r="K30">
-        <v>-0.290419072465821</v>
+        <v>-0.29041907246582099</v>
       </c>
       <c r="L30">
-        <v>-0.106884924456401</v>
+        <v>-0.10688492445640101</v>
       </c>
       <c r="M30">
-        <v>-0.0534037582310455</v>
+        <v>-5.3403758231045498E-2</v>
       </c>
       <c r="N30">
-        <v>-0.121699825567894</v>
+        <v>-0.12169982556789399</v>
       </c>
       <c r="O30">
-        <v>-0.0608056797948976</v>
+        <v>-6.08056797948976E-2</v>
       </c>
       <c r="P30">
-        <v>0.259597990161327</v>
+        <v>0.25959799016132701</v>
       </c>
       <c r="Q30">
-        <v>0.366257037942696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0.36625703794269598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.141162764769049</v>
+        <v>0.14116276476904899</v>
       </c>
       <c r="C31">
-        <v>0.846942481232819</v>
+        <v>0.84694248123281901</v>
       </c>
       <c r="D31">
         <v>0.155268840432364</v>
@@ -4104,45 +4151,45 @@
         <v>-0.166138310698657</v>
       </c>
       <c r="G31">
-        <v>0.631115382909183</v>
+        <v>0.63111538290918301</v>
       </c>
       <c r="H31">
-        <v>-0.999999999979867</v>
+        <v>-0.99999999997986699</v>
       </c>
       <c r="I31">
-        <v>-0.497720735185686</v>
+        <v>-0.49772073518568599</v>
       </c>
       <c r="J31">
-        <v>-0.404127787252115</v>
+        <v>-0.40412778725211501</v>
       </c>
       <c r="K31">
-        <v>-0.166078991212026</v>
+        <v>-0.16607899121202599</v>
       </c>
       <c r="L31">
-        <v>-0.240744359815649</v>
+        <v>-0.24074435981564901</v>
       </c>
       <c r="M31">
-        <v>-0.0114560351572956</v>
+        <v>-1.14560351572956E-2</v>
       </c>
       <c r="N31">
         <v>-0.341902610062427</v>
       </c>
       <c r="O31">
-        <v>-0.0162697526678742</v>
+        <v>-1.6269752667874199E-2</v>
       </c>
       <c r="P31">
-        <v>0.628731374668948</v>
+        <v>0.62873137466894802</v>
       </c>
       <c r="Q31">
-        <v>0.0751699476106258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>7.5169947610625801E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.141296346357757</v>
+        <v>0.14129634635775701</v>
       </c>
       <c r="C32">
         <v>1.00179394230409</v>
@@ -4154,96 +4201,96 @@
         <v>-0.115775302947977</v>
       </c>
       <c r="F32">
-        <v>-0.217005869168531</v>
+        <v>-0.21700586916853101</v>
       </c>
       <c r="G32">
-        <v>0.628437449671999</v>
+        <v>0.62843744967199899</v>
       </c>
       <c r="H32">
-        <v>-1.00000000000177</v>
+        <v>-1.0000000000017699</v>
       </c>
       <c r="I32">
-        <v>-0.498774393530949</v>
+        <v>-0.49877439353094899</v>
       </c>
       <c r="J32">
-        <v>-0.402159180202078</v>
+        <v>-0.40215918020207803</v>
       </c>
       <c r="K32">
         <v>-0.216919785655975</v>
       </c>
       <c r="L32">
-        <v>-0.253291042679523</v>
+        <v>-0.25329104267952302</v>
       </c>
       <c r="M32">
-        <v>-0.0119652239605913</v>
+        <v>-1.19652239605913E-2</v>
       </c>
       <c r="N32">
-        <v>-0.270938597738498</v>
+        <v>-0.27093859773849799</v>
       </c>
       <c r="O32">
-        <v>-0.0128006027238736</v>
+        <v>-1.2800602723873599E-2</v>
       </c>
       <c r="P32">
-        <v>0.663273490770065</v>
+        <v>0.66327349077006503</v>
       </c>
       <c r="Q32">
-        <v>0.0777345873115273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>7.7734587311527298E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.140954364093149</v>
+        <v>0.14095436409314899</v>
       </c>
       <c r="C33">
-        <v>0.723177533817043</v>
+        <v>0.72317753381704297</v>
       </c>
       <c r="D33">
-        <v>0.286253184462221</v>
+        <v>0.28625318446222098</v>
       </c>
       <c r="E33">
-        <v>-0.125702924681088</v>
+        <v>-0.12570292468108801</v>
       </c>
       <c r="F33">
         <v>-0.217268802522775</v>
       </c>
       <c r="G33">
-        <v>0.532157082747121</v>
+        <v>0.53215708274712104</v>
       </c>
       <c r="H33">
         <v>-0.999999999995135</v>
       </c>
       <c r="I33">
-        <v>-0.493213217075154</v>
+        <v>-0.49321321707515398</v>
       </c>
       <c r="J33">
         <v>-0.344399158721862</v>
       </c>
       <c r="K33">
-        <v>-0.217185471658814</v>
+        <v>-0.21718547165881399</v>
       </c>
       <c r="L33">
-        <v>-0.209505909751569</v>
+        <v>-0.20950590975156899</v>
       </c>
       <c r="M33">
-        <v>-0.0231363228514439</v>
+        <v>-2.3136322851443899E-2</v>
       </c>
       <c r="N33">
-        <v>-0.224104005339291</v>
+        <v>-0.22410400533929101</v>
       </c>
       <c r="O33">
-        <v>-0.0247483744571266</v>
+        <v>-2.4748374457126601E-2</v>
       </c>
       <c r="P33">
-        <v>0.55489639323632</v>
+        <v>0.55489639323632001</v>
       </c>
       <c r="Q33">
         <v>0.151818270136032</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -4251,7 +4298,7 @@
         <v>0.141458366776467</v>
       </c>
       <c r="C34">
-        <v>0.832139219089053</v>
+        <v>0.83213921908905297</v>
       </c>
       <c r="D34">
         <v>0.169995353450964</v>
@@ -4260,96 +4307,96 @@
         <v>-0.113709507652297</v>
       </c>
       <c r="F34">
-        <v>-0.217357899132603</v>
+        <v>-0.21735789913260301</v>
       </c>
       <c r="G34">
-        <v>0.614740635662133</v>
+        <v>0.61474063566213299</v>
       </c>
       <c r="H34">
-        <v>-0.999999999993901</v>
+        <v>-0.99999999999390099</v>
       </c>
       <c r="I34">
-        <v>-0.498014188808829</v>
+        <v>-0.49801418880882897</v>
       </c>
       <c r="J34">
-        <v>-0.39144321969463</v>
+        <v>-0.39144321969462997</v>
       </c>
       <c r="K34">
-        <v>-0.217274250227997</v>
+        <v>-0.21727425022799701</v>
       </c>
       <c r="L34">
-        <v>-0.254799205527362</v>
+        <v>-0.25479920552736202</v>
       </c>
       <c r="M34">
-        <v>-0.0138015364666917</v>
+        <v>-1.3801536466691701E-2</v>
       </c>
       <c r="N34">
         <v>-0.272553300839045</v>
       </c>
       <c r="O34">
-        <v>-0.0147632280723251</v>
+        <v>-1.4763228072325101E-2</v>
       </c>
       <c r="P34">
-        <v>0.655736086892337</v>
+        <v>0.65573608689233698</v>
       </c>
       <c r="Q34">
-        <v>0.0900483843655298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>9.0048384365529796E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.140012755091895</v>
+        <v>0.14001275509189501</v>
       </c>
       <c r="C35">
         <v>0.474561763788866</v>
       </c>
       <c r="D35">
-        <v>0.52752473328721</v>
+        <v>0.52752473328720995</v>
       </c>
       <c r="E35">
-        <v>-0.159060687828304</v>
+        <v>-0.15906068782830399</v>
       </c>
       <c r="F35">
-        <v>-0.253422984242019</v>
+        <v>-0.25342298424201898</v>
       </c>
       <c r="G35">
-        <v>0.330044550861064</v>
+        <v>0.33004455086106399</v>
       </c>
       <c r="H35">
-        <v>-0.999999999994916</v>
+        <v>-0.99999999999491596</v>
       </c>
       <c r="I35">
-        <v>-0.491964182952408</v>
+        <v>-0.49196418295240801</v>
       </c>
       <c r="J35">
-        <v>-0.224116187947361</v>
+        <v>-0.22411618794736099</v>
       </c>
       <c r="K35">
-        <v>-0.253321816092804</v>
+        <v>-0.25332181609280402</v>
       </c>
       <c r="L35">
         <v>-0.130555246019116</v>
       </c>
       <c r="M35">
-        <v>-0.0405722459722208</v>
+        <v>-4.0572245972220797E-2</v>
       </c>
       <c r="N35">
-        <v>-0.161473156941302</v>
+        <v>-0.16147315694130199</v>
       </c>
       <c r="O35">
-        <v>-0.0501805050481354</v>
+        <v>-5.0180505048135399E-2</v>
       </c>
       <c r="P35">
-        <v>0.351800806500804</v>
+        <v>0.35180080650080398</v>
       </c>
       <c r="Q35">
-        <v>0.268530461494154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>0.26853046149415399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -4357,57 +4404,57 @@
         <v>0.141409656508722</v>
       </c>
       <c r="C36">
-        <v>0.725629593242532</v>
+        <v>0.72562959324253196</v>
       </c>
       <c r="D36">
-        <v>0.277200596963422</v>
+        <v>0.27720059696342197</v>
       </c>
       <c r="E36">
         <v>-0.117708247402296</v>
       </c>
       <c r="F36">
-        <v>-0.182591162299835</v>
+        <v>-0.18259116229983499</v>
       </c>
       <c r="G36">
-        <v>0.544944807700965</v>
+        <v>0.54494480770096498</v>
       </c>
       <c r="H36">
-        <v>-0.999999999996539</v>
+        <v>-0.99999999999653899</v>
       </c>
       <c r="I36">
         <v>-0.492564803510678</v>
       </c>
       <c r="J36">
-        <v>-0.345693433180168</v>
+        <v>-0.34569343318016799</v>
       </c>
       <c r="K36">
-        <v>-0.182524174328787</v>
+        <v>-0.18252417432878701</v>
       </c>
       <c r="L36">
-        <v>-0.227889937629971</v>
+        <v>-0.22788993762997101</v>
       </c>
       <c r="M36">
-        <v>-0.0224992571396434</v>
+        <v>-2.2499257139643399E-2</v>
       </c>
       <c r="N36">
-        <v>-0.246999369171696</v>
+        <v>-0.24699936917169599</v>
       </c>
       <c r="O36">
-        <v>-0.024385879090012</v>
+        <v>-2.4385879090012001E-2</v>
       </c>
       <c r="P36">
-        <v>0.579823676648914</v>
+        <v>0.57982367664891399</v>
       </c>
       <c r="Q36">
-        <v>0.147769844097957</v>
+        <v>0.14776984409795699</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:BB600">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results/derivatives.xlsx
+++ b/results/derivatives.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -10,12 +10,12 @@
     <sheet name="dKtot" sheetId="1" r:id="rId1"/>
     <sheet name="dWtot_currency" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
   <si>
     <t>T_rebuild_K</t>
   </si>
@@ -77,12 +77,39 @@
     <t>Agusan Del Sur</t>
   </si>
   <si>
+    <t>Aklan</t>
+  </si>
+  <si>
+    <t>Albay</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
     <t>Apayao</t>
   </si>
   <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Basilan</t>
+  </si>
+  <si>
+    <t>Bataan</t>
+  </si>
+  <si>
     <t>Batangas</t>
   </si>
   <si>
+    <t>Benguet</t>
+  </si>
+  <si>
+    <t>Biliran</t>
+  </si>
+  <si>
+    <t>Bohol</t>
+  </si>
+  <si>
     <t>Bukidnon</t>
   </si>
   <si>
@@ -92,15 +119,45 @@
     <t>Cagayan</t>
   </si>
   <si>
+    <t>Camarines Norte</t>
+  </si>
+  <si>
     <t>Camarines Sur</t>
   </si>
   <si>
+    <t>Camiguin</t>
+  </si>
+  <si>
     <t>Capiz</t>
   </si>
   <si>
+    <t>Catanduanes</t>
+  </si>
+  <si>
+    <t>Cavite</t>
+  </si>
+  <si>
+    <t>Cebu</t>
+  </si>
+  <si>
+    <t>Compostela Valley</t>
+  </si>
+  <si>
     <t>Davao Del Norte</t>
   </si>
   <si>
+    <t>Davao Del Sur</t>
+  </si>
+  <si>
+    <t>Davao Oriental</t>
+  </si>
+  <si>
+    <t>Eastern Samar</t>
+  </si>
+  <si>
+    <t>Guimaras</t>
+  </si>
+  <si>
     <t>Ifugao</t>
   </si>
   <si>
@@ -110,6 +167,9 @@
     <t>Ilocos Sur</t>
   </si>
   <si>
+    <t>Iloilo</t>
+  </si>
+  <si>
     <t>Isabela</t>
   </si>
   <si>
@@ -128,21 +188,48 @@
     <t>Lanao Del Sur</t>
   </si>
   <si>
+    <t>Leyte</t>
+  </si>
+  <si>
     <t>Maguindanao</t>
   </si>
   <si>
+    <t>Marinduque</t>
+  </si>
+  <si>
+    <t>Masbate</t>
+  </si>
+  <si>
+    <t>Misamis Oriental</t>
+  </si>
+  <si>
+    <t>Mountain Province</t>
+  </si>
+  <si>
     <t>Negros Occidental</t>
   </si>
   <si>
     <t>North Cotabato</t>
   </si>
   <si>
+    <t>Northern Samar</t>
+  </si>
+  <si>
     <t>Nueva Ecija</t>
   </si>
   <si>
     <t>Nueva Vizcaya</t>
   </si>
   <si>
+    <t>Occidental Mindoro</t>
+  </si>
+  <si>
+    <t>Oriental Mindoro</t>
+  </si>
+  <si>
+    <t>Palawan</t>
+  </si>
+  <si>
     <t>Pampanga</t>
   </si>
   <si>
@@ -152,32 +239,62 @@
     <t>Quezon</t>
   </si>
   <si>
+    <t>Quirino</t>
+  </si>
+  <si>
     <t>Rizal</t>
   </si>
   <si>
+    <t>Romblon</t>
+  </si>
+  <si>
     <t>Samar</t>
   </si>
   <si>
     <t>Sarangani</t>
   </si>
   <si>
+    <t>Sorsogon</t>
+  </si>
+  <si>
     <t>South Cotabato</t>
   </si>
   <si>
+    <t>Southern Leyte</t>
+  </si>
+  <si>
     <t>Sultan Kudarat</t>
   </si>
   <si>
+    <t>Sulu</t>
+  </si>
+  <si>
+    <t>Surigao Del Norte</t>
+  </si>
+  <si>
     <t>Tarlac</t>
   </si>
   <si>
+    <t>Tawi-Tawi</t>
+  </si>
+  <si>
+    <t>Zambales</t>
+  </si>
+  <si>
+    <t>Zamboanga Del Norte</t>
+  </si>
+  <si>
     <t>Zamboanga Del Sur</t>
+  </si>
+  <si>
+    <t>Zamboanga Sibugay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,17 +355,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF000061"/>
@@ -269,48 +376,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000061"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92C5DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000061"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92C5DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -419,7 +490,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,19 +665,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -660,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -668,31 +738,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.23837035119913499</v>
+        <v>325244.116552349</v>
       </c>
       <c r="D2">
-        <v>0.76226570495340795</v>
+        <v>1313417.05740779</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>368093.130271009</v>
       </c>
       <c r="F2">
-        <v>-0.23572793553376101</v>
+        <v>-303499.283331912</v>
       </c>
       <c r="G2">
-        <v>0.114549791889765</v>
+        <v>78971.6456402675</v>
       </c>
       <c r="H2">
-        <v>-0.99999999998954003</v>
+        <v>-24373.3154723304</v>
       </c>
       <c r="I2">
-        <v>1.0001377361336199</v>
+        <v>354847.376573598</v>
       </c>
       <c r="J2">
-        <v>0.11454975824193001</v>
+        <v>78884.9582831608</v>
       </c>
       <c r="K2">
-        <v>-0.23563484267214199</v>
+        <v>-63665.6477089855</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -707,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.23840036901086301</v>
+        <v>402578.518674127</v>
       </c>
       <c r="Q2">
-        <v>0.76251765014762596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1962499.38421592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -721,31 +791,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.32771177260036699</v>
+        <v>2301569.18514054</v>
       </c>
       <c r="D3">
-        <v>0.67260754303262005</v>
+        <v>5901868.35122295</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3670622.30087817</v>
       </c>
       <c r="F3">
-        <v>-0.19663594704693299</v>
+        <v>-2524593.83828565</v>
       </c>
       <c r="G3">
-        <v>0.25560098338896903</v>
+        <v>1893390.5915916</v>
       </c>
       <c r="H3">
-        <v>-1.0000000000089799</v>
+        <v>-273011.822234839</v>
       </c>
       <c r="I3">
-        <v>1.00010286161064</v>
+        <v>2642585.29963437</v>
       </c>
       <c r="J3">
-        <v>0.25561876981542297</v>
+        <v>2350336.05852164</v>
       </c>
       <c r="K3">
-        <v>-0.196561608963746</v>
+        <v>-614797.463216819</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -760,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.32771226523783897</v>
+        <v>2314225.38140323</v>
       </c>
       <c r="Q3">
-        <v>0.67305019290458701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>17273846.9738094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -774,31 +844,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.476597269506289</v>
+        <v>2850362.25359072</v>
       </c>
       <c r="D4">
-        <v>0.52429484793575398</v>
+        <v>4186554.39612106</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1127001.21181202</v>
       </c>
       <c r="F4">
-        <v>-0.19663594704670501</v>
+        <v>-775132.956173038</v>
       </c>
       <c r="G4">
-        <v>0.35341471055921098</v>
+        <v>579700.504486682</v>
       </c>
       <c r="H4">
-        <v>-1.00000000000005</v>
+        <v>-91611.9613184128</v>
       </c>
       <c r="I4">
-        <v>1.00014557180318</v>
+        <v>1148253.12585803</v>
       </c>
       <c r="J4">
-        <v>0.35343060768705098</v>
+        <v>705095.159682678</v>
       </c>
       <c r="K4">
-        <v>-0.196561608961065</v>
+        <v>-188762.947876239</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -813,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.47640003539751802</v>
+        <v>1294602.97839134</v>
       </c>
       <c r="Q4">
-        <v>0.52428785425439595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4131389.0674687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -827,31 +897,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.33011524697771699</v>
+        <v>6992174.11863143</v>
       </c>
       <c r="D5">
-        <v>0.69912451398502995</v>
+        <v>20884150.1440105</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.23572793553384799</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.16091526625430999</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.0000000000056199</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.00011600476522</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.160940125076662</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.23563484267323301</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -866,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.32333639748368798</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.67758539016281705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -880,31 +950,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.11498049403133501</v>
+        <v>22951469.7705522</v>
       </c>
       <c r="D6">
-        <v>0.92928269930513796</v>
+        <v>45556866.9060743</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.28787668593416998</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7.0481288701014402E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1.0000000000076701</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.0000839763806</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.0475173970217103E-2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.287758574182301</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -919,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.110839865019759</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.89009743893673599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -933,31 +1003,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.37711526395053901</v>
+        <v>8168479.70333094</v>
       </c>
       <c r="D7">
-        <v>0.62730359764744004</v>
+        <v>19941324.6161305</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.20625603795266101</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.249658068960353</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.99999999999950595</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.0001263382146199</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.24967988954946599</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-0.206177084529824</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -972,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.375917650698121</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.62487609053097704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -986,31 +1056,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.4506359999201096E-2</v>
+        <v>362686.037665217</v>
       </c>
       <c r="D8">
-        <v>0.945422962858677</v>
+        <v>1147174.82977062</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7377.80407294849</v>
       </c>
       <c r="F8">
-        <v>-0.25120512029578501</v>
+        <v>-6083.12968801329</v>
       </c>
       <c r="G8">
-        <v>5.0321264564151501E-2</v>
+        <v>1353.80787945905</v>
       </c>
       <c r="H8">
-        <v>-0.99999999999463896</v>
+        <v>-793.18675146169</v>
       </c>
       <c r="I8">
-        <v>1.0000727011252999</v>
+        <v>5990.16716435472</v>
       </c>
       <c r="J8">
-        <v>5.0277963830435098E-2</v>
+        <v>2637.44905065323</v>
       </c>
       <c r="K8">
-        <v>-0.25110460209708202</v>
+        <v>-1276.07020166579</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1025,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>6.3971005339409401E-2</v>
+        <v>12644.8868627176</v>
       </c>
       <c r="Q8">
-        <v>0.93694089983941098</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34953.6929740043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1039,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.16987623028356699</v>
+        <v>1496797.98412782</v>
       </c>
       <c r="D9">
-        <v>0.83111649272030197</v>
+        <v>8220885.17813092</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.218392723880693</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.121543557995725</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.99999999999576406</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.0001026265650701</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.121525511655005</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.21830794776099299</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1078,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.169788712758557</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.83109916374909198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1092,31 +1162,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.405531821768501</v>
+        <v>7466009.69688488</v>
       </c>
       <c r="D10">
-        <v>0.59560184665201199</v>
+        <v>13862285.2454811</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.19057142857197701</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.31210591569660501</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1.00000000000141</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.00012108360449</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.31212501549014898</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>-0.19050000000219</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1131,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.405258703300024</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.595455787035571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1145,31 +1215,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.22957862513430299</v>
+        <v>2679634.51930029</v>
       </c>
       <c r="D11">
-        <v>0.77126135904248905</v>
+        <v>50949135.4618836</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.197130667765921</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.164047766913301</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.99999999999292599</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.00010380564728</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.16404688030547401</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.197056092331372</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1184,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.22947501002520199</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.771175968090972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1198,31 +1268,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.31488892601659701</v>
+        <v>3399545.76458345</v>
       </c>
       <c r="D12">
-        <v>0.69062770292958298</v>
+        <v>32524216.4496946</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>115958.630330861</v>
       </c>
       <c r="F12">
-        <v>-0.208414707490199</v>
+        <v>-116761.180234607</v>
       </c>
       <c r="G12">
-        <v>0.23124181265893001</v>
+        <v>30035.2023035521</v>
       </c>
       <c r="H12">
-        <v>-0.99999999999635203</v>
+        <v>-10499.145595677</v>
       </c>
       <c r="I12">
-        <v>1.0001178225941101</v>
+        <v>68154.7629812849</v>
       </c>
       <c r="J12">
-        <v>0.23124492351159001</v>
+        <v>25072.519925161</v>
       </c>
       <c r="K12">
-        <v>-0.20833471842701001</v>
+        <v>-20902.3362831795</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1237,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.313510068147072</v>
+        <v>39034.2238859739</v>
       </c>
       <c r="Q12">
-        <v>0.68727879942690195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>721676.468212245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1251,31 +1321,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.23921116688802299</v>
+        <v>1476855.89419101</v>
       </c>
       <c r="D13">
-        <v>0.76265140416377897</v>
+        <v>61789526.6375653</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.23572793553354399</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.11250736248563201</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-1.0000000000038201</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.0001235302684599</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.112514396867649</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.23563484267203599</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1290,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.23901082914635099</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.76191372196481599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1304,31 +1374,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.5022903196863004E-2</v>
+        <v>2496155.17276575</v>
       </c>
       <c r="D14">
-        <v>0.90665115381025996</v>
+        <v>11334493.3194676</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.215637518142417</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>7.1098262543158597E-2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.99999999999839695</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.0000957140944</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.1053715489081307E-2</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>-0.21555406385881001</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1343,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>9.4910361185023606E-2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.90593254282289304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1357,31 +1427,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.161777174196086</v>
+        <v>19057999.7163395</v>
       </c>
       <c r="D15">
-        <v>0.84065887451837895</v>
+        <v>42985743.0660392</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.215637518142758</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.118165552086253</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-1.00000000001644</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.0001046766445401</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.118138796324359</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.215554063863517</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1396,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.161488724911305</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.83940129225035598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1410,31 +1480,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.19397754403808501</v>
+        <v>3853902.21670503</v>
       </c>
       <c r="D16">
-        <v>0.80720484401936698</v>
+        <v>8602997.49024736</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>402775.991128874</v>
       </c>
       <c r="F16">
-        <v>-0.218392723881044</v>
+        <v>-290575.605101767</v>
       </c>
       <c r="G16">
-        <v>0.13153540596837199</v>
+        <v>143599.621574394</v>
       </c>
       <c r="H16">
-        <v>-1.00000000000061</v>
+        <v>-28706.7256128648</v>
       </c>
       <c r="I16">
-        <v>1.0001083979521601</v>
+        <v>356151.111476356</v>
       </c>
       <c r="J16">
-        <v>0.13152612383019599</v>
+        <v>205112.502777483</v>
       </c>
       <c r="K16">
-        <v>-0.21830794776218701</v>
+        <v>-68003.6074417876</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1449,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.19385666295588</v>
+        <v>477795.534133329</v>
       </c>
       <c r="Q16">
-        <v>0.80702483936396097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1759784.13764969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,31 +1533,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.152505150455471</v>
+        <v>3601031.78853169</v>
       </c>
       <c r="D17">
-        <v>0.84905914708708496</v>
+        <v>61335089.5392499</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>934395.457797218</v>
       </c>
       <c r="F17">
-        <v>-0.23572793553318699</v>
+        <v>-821009.364685742</v>
       </c>
       <c r="G17">
-        <v>8.0070079891039397E-2</v>
+        <v>449656.372547615</v>
       </c>
       <c r="H17">
-        <v>-1.0000000000002001</v>
+        <v>-100456.73352317</v>
       </c>
       <c r="I17">
-        <v>1.0001080709482399</v>
+        <v>475453.280763468</v>
       </c>
       <c r="J17">
-        <v>8.0067453517969595E-2</v>
+        <v>166476.766600972</v>
       </c>
       <c r="K17">
-        <v>-0.235634842669846</v>
+        <v>-163637.050769757</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1502,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.152391800606581</v>
+        <v>99901.285142405</v>
       </c>
       <c r="Q17">
-        <v>0.84854381945736002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5863807.03423871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1516,31 +1586,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.14410007704722999</v>
+        <v>1827332.32067199</v>
       </c>
       <c r="D18">
-        <v>0.86142713617620903</v>
+        <v>10672465.1347566</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1799032.03406371</v>
       </c>
       <c r="F18">
-        <v>-0.215637518142685</v>
+        <v>-1374250.69883466</v>
       </c>
       <c r="G18">
-        <v>0.10329238810484501</v>
+        <v>776133.993002586</v>
       </c>
       <c r="H18">
-        <v>-1.0000000000221501</v>
+        <v>-134810.38967846</v>
       </c>
       <c r="I18">
-        <v>1.0000892139414801</v>
+        <v>1292214.69313605</v>
       </c>
       <c r="J18">
-        <v>0.103279190084081</v>
+        <v>548904.840580653</v>
       </c>
       <c r="K18">
-        <v>-0.215554063859423</v>
+        <v>-306798.532081302</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1555,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.14346642948072</v>
+        <v>725361.950120423</v>
       </c>
       <c r="Q18">
-        <v>0.85743798971001395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10454268.6907668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1569,31 +1639,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.5542147714990601E-2</v>
+        <v>8663950.25480068</v>
       </c>
       <c r="D19">
-        <v>0.97680446561481604</v>
+        <v>21873242.9331563</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.28787668593452398</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4.1793994390449403E-2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-1.0000000000081299</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.0000739231651801</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.1749514837523101E-2</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>-0.28775857418266299</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1608,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>5.4040156838341402E-2</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.94686599323762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,31 +1692,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.345466114646033</v>
+        <v>4455705.14772087</v>
       </c>
       <c r="D20">
-        <v>0.66459340440284997</v>
+        <v>8405706.70784218</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1620938.74389771</v>
       </c>
       <c r="F20">
-        <v>-0.206256037952885</v>
+        <v>-1080471.45415097</v>
       </c>
       <c r="G20">
-        <v>0.22763926502822401</v>
+        <v>859987.392732874</v>
       </c>
       <c r="H20">
-        <v>-0.99999999999014899</v>
+        <v>-73859.8724524491</v>
       </c>
       <c r="I20">
-        <v>1.0001118202767401</v>
+        <v>1373687.49989895</v>
       </c>
       <c r="J20">
-        <v>0.22766783161090801</v>
+        <v>1076673.61081112</v>
       </c>
       <c r="K20">
-        <v>-0.206177084533431</v>
+        <v>-270117.863540072</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1661,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.34280982796873899</v>
+        <v>1357189.70562797</v>
       </c>
       <c r="Q20">
-        <v>0.65800218311852898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6748667.62341699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1675,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.65490685195916898</v>
+        <v>1251431.52180243</v>
       </c>
       <c r="D21">
-        <v>0.347400085683086</v>
+        <v>2862447.94316904</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.15268025837646701</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.51957151797086698</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-0.99999999998721101</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.0001395175707499</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.51963822280312799</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>-0.15262700847771299</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1714,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.65405040672427195</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.34656289680512198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1728,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.52353666292927803</v>
+        <v>1244302.50258883</v>
       </c>
       <c r="D22">
-        <v>0.47786697180562099</v>
+        <v>5100518.11602316</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1079225.62717227</v>
       </c>
       <c r="F22">
-        <v>-0.15268025837684199</v>
+        <v>-744141.19510795</v>
       </c>
       <c r="G22">
-        <v>0.39611498396212402</v>
+        <v>446149.056033464</v>
       </c>
       <c r="H22">
-        <v>-1.0000000000027101</v>
+        <v>-47386.7802869063</v>
       </c>
       <c r="I22">
-        <v>1.0001313217143799</v>
+        <v>784095.969747286</v>
       </c>
       <c r="J22">
-        <v>0.39615883053305101</v>
+        <v>439452.062268974</v>
       </c>
       <c r="K22">
-        <v>-0.15262700847675301</v>
+        <v>-180835.651094094</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1767,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.52312188452137798</v>
+        <v>461645.755395293</v>
       </c>
       <c r="Q22">
-        <v>0.47754109717735199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4455517.54907006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1781,31 +1851,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.311165937085216</v>
+        <v>4357248.66541558</v>
       </c>
       <c r="D23">
-        <v>0.69155649968410604</v>
+        <v>14800621.8931568</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.19713066776546301</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.22462116884298</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-1.00000000000746</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.00012615644494</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.224617269400955</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>-0.19705609233176</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1820,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.31052706924449602</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.69012227098106604</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1834,31 +1904,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.484645705429195</v>
+        <v>6339878.26665916</v>
       </c>
       <c r="D24">
-        <v>0.51637758126022704</v>
+        <v>256461902.131583</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.214111245831765</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.36234459199333302</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-1.00000000000552</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.00013451532508</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.36237458042543802</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-0.21402852379594201</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1873,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.48439878729019897</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.51628491131030796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1887,31 +1957,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.16866968372574501</v>
+        <v>46719119.4898893</v>
       </c>
       <c r="D25">
-        <v>0.83199584611956001</v>
+        <v>271676069.18107</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.251205120296148</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.101897401655831</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-0.99999999999443501</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.0001085762784001</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.101891523740056</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>-0.25110460209777302</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1926,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.16865505747978499</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.83225717581586001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1940,31 +2010,31 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.147763228462856</v>
+        <v>9657369.3919562</v>
       </c>
       <c r="D26">
-        <v>0.85276728469503305</v>
+        <v>21813745.8907731</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.2183927238809</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.104531345959781</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-1.0000000000082601</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1.0000859772780899</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.104525553034862</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>-0.21830794776155699</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1979,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0.14774784645462799</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.85315617646220299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1993,31 +2063,31 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>7.0302771679004505E-2</v>
+        <v>3307457.7988559</v>
       </c>
       <c r="D27">
-        <v>0.93063058030903101</v>
+        <v>9011499.73007268</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>319053.997640149</v>
       </c>
       <c r="F27">
-        <v>-0.25120512029587999</v>
+        <v>-232584.869363636</v>
       </c>
       <c r="G27">
-        <v>5.5116657379660497E-2</v>
+        <v>154406.786619802</v>
       </c>
       <c r="H27">
-        <v>-0.99999999999926703</v>
+        <v>-28266.2109273952</v>
       </c>
       <c r="I27">
-        <v>1.00007814951605</v>
+        <v>263104.79555279</v>
       </c>
       <c r="J27">
-        <v>5.5069988929406503E-2</v>
+        <v>161353.50436467</v>
       </c>
       <c r="K27">
-        <v>-0.251104602098707</v>
+        <v>-53964.5733646466</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2032,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>7.0262921574170495E-2</v>
+        <v>228386.920990015</v>
       </c>
       <c r="Q27">
-        <v>0.93064838171304498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1533200.85924555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2046,31 +2116,31 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.16611326374594401</v>
+        <v>25810279.253996</v>
       </c>
       <c r="D28">
-        <v>0.83456659338444605</v>
+        <v>125177977.5444</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.21563751814274301</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.11674270482160801</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-0.99999999999734901</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1.0001009587705501</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.11672799091927</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>-0.21555406386201401</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2085,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0.16607524068246801</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.83481773744961196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2099,31 +2169,31 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.162952762603391</v>
+        <v>7866963.05912719</v>
       </c>
       <c r="D29">
-        <v>0.84509073081366204</v>
+        <v>10195597.5557277</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.28787668593490301</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>9.2069394830344903E-2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-1.0000000000298299</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1.00010281681261</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>9.2068944417032103E-2</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>-0.28775857418245898</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2138,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0.16193836083465199</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.83898493048677303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2152,31 +2222,31 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4.4685836137459703E-2</v>
+        <v>9327334.85302861</v>
       </c>
       <c r="D30">
-        <v>0.95983484915446704</v>
+        <v>11545952.5610682</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.28787668593375298</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>3.45699953324691E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-1.00000000001308</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1.0000625455765499</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3.4533713636625801E-2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-0.28775857417975798</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2191,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>4.4522396267311401E-2</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.95638631207846203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -2205,31 +2275,31 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.472196909666803</v>
+        <v>2126479.71929534</v>
       </c>
       <c r="D31">
-        <v>0.52910262214383996</v>
+        <v>8806306.15329822</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.16396784176524601</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.35156316080412697</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-1.0000000000017299</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1.0001364298825</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.35158778086478598</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>-0.163909176533276</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2244,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0.47184297700894601</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.52884798029209201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -2258,31 +2328,31 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.66274180737716004</v>
+        <v>289598.980952724</v>
       </c>
       <c r="D32">
-        <v>0.54038986303682401</v>
+        <v>1193339.90344981</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>113756.025698531</v>
       </c>
       <c r="F32">
-        <v>-0.21411124583205601</v>
+        <v>-93793.8511613174</v>
       </c>
       <c r="G32">
-        <v>0.42196712347452198</v>
+        <v>21097.8230516776</v>
       </c>
       <c r="H32">
-        <v>-1.00000000002416</v>
+        <v>-7482.80959640397</v>
       </c>
       <c r="I32">
-        <v>1.0001709956670499</v>
+        <v>98352.1321762237</v>
       </c>
       <c r="J32">
-        <v>0.42197860912132701</v>
+        <v>26698.4461405082</v>
       </c>
       <c r="K32">
-        <v>-0.21402852379618501</v>
+        <v>-19675.3225238353</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2297,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0.56475555255175702</v>
+        <v>130094.393559557</v>
       </c>
       <c r="Q32">
-        <v>0.43587760625022298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>606013.253021229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2311,31 +2381,31 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.238236536641138</v>
+        <v>114411.643523345</v>
       </c>
       <c r="D33">
-        <v>0.77203498302405305</v>
+        <v>1276075.06173939</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>118675.372699508</v>
       </c>
       <c r="F33">
-        <v>-0.21411124583182001</v>
+        <v>-89510.4692512541</v>
       </c>
       <c r="G33">
-        <v>0.16658743334554299</v>
+        <v>59700.3923689772</v>
       </c>
       <c r="H33">
-        <v>-0.99999999998991296</v>
+        <v>-1725.39926905301</v>
       </c>
       <c r="I33">
-        <v>1.0000962252785299</v>
+        <v>79500.9799044055</v>
       </c>
       <c r="J33">
-        <v>0.166599097370184</v>
+        <v>22699.2105235695</v>
       </c>
       <c r="K33">
-        <v>-0.214028523795631</v>
+        <v>-20192.5974403275</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2350,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0.23625031517216399</v>
+        <v>20933.2426755282</v>
       </c>
       <c r="Q33">
-        <v>0.76441590734891596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>679190.355782484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2364,31 +2434,31 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.52447990935870703</v>
+        <v>335763.822384906</v>
       </c>
       <c r="D34">
-        <v>0.476873842842299</v>
+        <v>2070614.76814066</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>141137.361013098</v>
       </c>
       <c r="F34">
-        <v>-0.21411124583223501</v>
+        <v>-106452.342435077</v>
       </c>
       <c r="G34">
-        <v>0.39500965026150398</v>
+        <v>67472.8098625201</v>
       </c>
       <c r="H34">
-        <v>-1.00000000000195</v>
+        <v>-3559.70028846059</v>
       </c>
       <c r="I34">
-        <v>1.0001618983299601</v>
+        <v>103401.723310672</v>
       </c>
       <c r="J34">
-        <v>0.39501801385435198</v>
+        <v>41042.923257919</v>
       </c>
       <c r="K34">
-        <v>-0.214028523794765</v>
+        <v>-24014.5014923473</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2403,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0.52404191348237195</v>
+        <v>50827.7379207721</v>
       </c>
       <c r="Q34">
-        <v>0.47660686278602199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>828349.362289882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2417,31 +2487,31 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.125150725932936</v>
+        <v>29891302.6760897</v>
       </c>
       <c r="D35">
-        <v>0.87569774440251502</v>
+        <v>137985616.839234</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.251205120296076</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>8.5337728151232597E-2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-1.00000000000584</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1.00009671450883</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>8.5318693387564898E-2</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>-0.25110460209796198</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2456,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0.12510656066607101</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0.87581552222290304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2470,31 +2540,31 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.28996614208789701</v>
+        <v>2383383.62982031</v>
       </c>
       <c r="D36">
-        <v>0.71239186774611296</v>
+        <v>11982519.9778983</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1735948.83228652</v>
       </c>
       <c r="F36">
-        <v>-0.17928446740304299</v>
+        <v>-1326062.48846278</v>
       </c>
       <c r="G36">
-        <v>0.21463759790178799</v>
+        <v>655510.638188571</v>
       </c>
       <c r="H36">
-        <v>-0.99999999999437095</v>
+        <v>-118073.739586398</v>
       </c>
       <c r="I36">
-        <v>1.0001095197705001</v>
+        <v>1317024.91041273</v>
       </c>
       <c r="J36">
-        <v>0.214642756739091</v>
+        <v>542733.52735443</v>
       </c>
       <c r="K36">
-        <v>-0.17921845386549901</v>
+        <v>-296040.617083199</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2509,18 +2579,2085 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0.28945399068041799</v>
+        <v>914689.864069223</v>
       </c>
       <c r="Q36">
-        <v>0.71116801241599104</v>
+        <v>9795480.35845393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>322640.441471303</v>
+      </c>
+      <c r="D37">
+        <v>2184917.30103706</v>
+      </c>
+      <c r="E37">
+        <v>229031.694325968</v>
+      </c>
+      <c r="F37">
+        <v>-188840.674741368</v>
+      </c>
+      <c r="G37">
+        <v>47932.1541910758</v>
+      </c>
+      <c r="H37">
+        <v>-21372.9527418036</v>
+      </c>
+      <c r="I37">
+        <v>173236.954415333</v>
+      </c>
+      <c r="J37">
+        <v>43722.0967269968</v>
+      </c>
+      <c r="K37">
+        <v>-39613.4835612611</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>140941.446825746</v>
+      </c>
+      <c r="Q37">
+        <v>1358850.80652602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>452575.122360431</v>
+      </c>
+      <c r="D38">
+        <v>3218052.87363211</v>
+      </c>
+      <c r="E38">
+        <v>94885.1307654695</v>
+      </c>
+      <c r="F38">
+        <v>-71566.7655944708</v>
+      </c>
+      <c r="G38">
+        <v>37066.0496727214</v>
+      </c>
+      <c r="H38">
+        <v>-2791.50163405575</v>
+      </c>
+      <c r="I38">
+        <v>59247.0709154441</v>
+      </c>
+      <c r="J38">
+        <v>28301.2307989702</v>
+      </c>
+      <c r="K38">
+        <v>-16144.6912282554</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>31769.1210597695</v>
+      </c>
+      <c r="Q38">
+        <v>568856.595727993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1997218.34560623</v>
+      </c>
+      <c r="D39">
+        <v>40631833.5330227</v>
+      </c>
+      <c r="E39">
+        <v>188295.899695659</v>
+      </c>
+      <c r="F39">
+        <v>-189599.095980229</v>
+      </c>
+      <c r="G39">
+        <v>86015.7677863026</v>
+      </c>
+      <c r="H39">
+        <v>-15009.8860147409</v>
+      </c>
+      <c r="I39">
+        <v>97422.0796255395</v>
+      </c>
+      <c r="J39">
+        <v>27396.9211723306</v>
+      </c>
+      <c r="K39">
+        <v>-33941.6238787817</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>17770.1010846067</v>
+      </c>
+      <c r="Q39">
+        <v>1176429.68208471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>3354566.68026891</v>
+      </c>
+      <c r="D40">
+        <v>8650375.52452311</v>
+      </c>
+      <c r="E40">
+        <v>170508.825424913</v>
+      </c>
+      <c r="F40">
+        <v>-123010.572164931</v>
+      </c>
+      <c r="G40">
+        <v>55361.1412114697</v>
+      </c>
+      <c r="H40">
+        <v>-14751.2548563827</v>
+      </c>
+      <c r="I40">
+        <v>133445.340827457</v>
+      </c>
+      <c r="J40">
+        <v>89452.2511637479</v>
+      </c>
+      <c r="K40">
+        <v>-28788.2482698478</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>184577.351332264</v>
+      </c>
+      <c r="Q40">
+        <v>784469.590823137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>4528558.17113828</v>
+      </c>
+      <c r="D41">
+        <v>4769886.8451023</v>
+      </c>
+      <c r="E41">
+        <v>575888.59577023</v>
+      </c>
+      <c r="F41">
+        <v>-307546.132117859</v>
+      </c>
+      <c r="G41">
+        <v>283852.942437516</v>
+      </c>
+      <c r="H41">
+        <v>-38980.7089074748</v>
+      </c>
+      <c r="I41">
+        <v>562345.697158598</v>
+      </c>
+      <c r="J41">
+        <v>552716.397229233</v>
+      </c>
+      <c r="K41">
+        <v>-92914.7309204563</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1076532.08183183</v>
+      </c>
+      <c r="Q41">
+        <v>1395476.28200729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>32814299.7072297</v>
+      </c>
+      <c r="D42">
+        <v>77587041.8784238</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>7869392.23169815</v>
+      </c>
+      <c r="D43">
+        <v>10518862.2697466</v>
+      </c>
+      <c r="E43">
+        <v>1871761.04935817</v>
+      </c>
+      <c r="F43">
+        <v>-999590.676405933</v>
+      </c>
+      <c r="G43">
+        <v>880605.816538446</v>
+      </c>
+      <c r="H43">
+        <v>-181193.283419125</v>
+      </c>
+      <c r="I43">
+        <v>1720374.31509467</v>
+      </c>
+      <c r="J43">
+        <v>1455015.866498</v>
+      </c>
+      <c r="K43">
+        <v>-301992.738742847</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>2435606.126762</v>
+      </c>
+      <c r="Q43">
+        <v>6249756.17714459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>4055986.08466255</v>
+      </c>
+      <c r="D44">
+        <v>10595928.6145636</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>16828992.7557913</v>
+      </c>
+      <c r="D45">
+        <v>22707026.8484298</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>15698128.8421055</v>
+      </c>
+      <c r="D46">
+        <v>74751098.8200404</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1129625.06035934</v>
+      </c>
+      <c r="D47">
+        <v>4075959.80480405</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>6330658.83640316</v>
+      </c>
+      <c r="D48">
+        <v>17419659.7052389</v>
+      </c>
+      <c r="E48">
+        <v>1246452.24343869</v>
+      </c>
+      <c r="F48">
+        <v>-859446.290676715</v>
+      </c>
+      <c r="G48">
+        <v>605877.332586097</v>
+      </c>
+      <c r="H48">
+        <v>-61739.9682372343</v>
+      </c>
+      <c r="I48">
+        <v>1100578.63313239</v>
+      </c>
+      <c r="J48">
+        <v>571858.914449112</v>
+      </c>
+      <c r="K48">
+        <v>-208856.23666225</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>757227.37577511</v>
+      </c>
+      <c r="Q48">
+        <v>4907564.31035581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>5854236.70231132</v>
+      </c>
+      <c r="D49">
+        <v>8586156.67501697</v>
+      </c>
+      <c r="E49">
+        <v>2016256.15246827</v>
+      </c>
+      <c r="F49">
+        <v>-1509990.06193131</v>
+      </c>
+      <c r="G49">
+        <v>976458.78203446</v>
+      </c>
+      <c r="H49">
+        <v>-166018.9504968</v>
+      </c>
+      <c r="I49">
+        <v>1898250.25737053</v>
+      </c>
+      <c r="J49">
+        <v>1399648.83568697</v>
+      </c>
+      <c r="K49">
+        <v>-342635.138700716</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>2369783.037249</v>
+      </c>
+      <c r="Q49">
+        <v>7278419.0203296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>11791469.6363618</v>
+      </c>
+      <c r="D50">
+        <v>18267268.3094984</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2657510.77409368</v>
+      </c>
+      <c r="D51">
+        <v>15875261.5440264</v>
+      </c>
+      <c r="E51">
+        <v>3978660.3002809</v>
+      </c>
+      <c r="F51">
+        <v>-3495861.77691817</v>
+      </c>
+      <c r="G51">
+        <v>1125733.20884258</v>
+      </c>
+      <c r="H51">
+        <v>-280709.301736206</v>
+      </c>
+      <c r="I51">
+        <v>3023484.95130427</v>
+      </c>
+      <c r="J51">
+        <v>962052.976735868</v>
+      </c>
+      <c r="K51">
+        <v>-696767.339911312</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>2250218.91116165</v>
+      </c>
+      <c r="Q51">
+        <v>23152416.4103204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>457406.740534352</v>
+      </c>
+      <c r="D52">
+        <v>3158934.35043516</v>
+      </c>
+      <c r="E52">
+        <v>973951.27905882</v>
+      </c>
+      <c r="F52">
+        <v>-743985.210122773</v>
+      </c>
+      <c r="G52">
+        <v>344556.306739105</v>
+      </c>
+      <c r="H52">
+        <v>-47836.0502887517</v>
+      </c>
+      <c r="I52">
+        <v>586080.046958523</v>
+      </c>
+      <c r="J52">
+        <v>305067.764327396</v>
+      </c>
+      <c r="K52">
+        <v>-166093.108447967</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>352552.436750848</v>
+      </c>
+      <c r="Q52">
+        <v>5809887.02554838</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>9169175.99643855</v>
+      </c>
+      <c r="D53">
+        <v>21211241.3259084</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>12738658.848257</v>
+      </c>
+      <c r="D54">
+        <v>39009231.6887849</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>14940978.393082</v>
+      </c>
+      <c r="D55">
+        <v>50591421.3377851</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>2235660.58210563</v>
+      </c>
+      <c r="D56">
+        <v>34453053.1016318</v>
+      </c>
+      <c r="E56">
+        <v>5616309.53346379</v>
+      </c>
+      <c r="F56">
+        <v>-4934787.17545979</v>
+      </c>
+      <c r="G56">
+        <v>2854096.28436901</v>
+      </c>
+      <c r="H56">
+        <v>-462992.784827948</v>
+      </c>
+      <c r="I56">
+        <v>3071944.41447034</v>
+      </c>
+      <c r="J56">
+        <v>1019627.16813665</v>
+      </c>
+      <c r="K56">
+        <v>-983562.495517544</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>669210.721584968</v>
+      </c>
+      <c r="Q56">
+        <v>35152800.4861856</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>2378425.30449852</v>
+      </c>
+      <c r="D57">
+        <v>14288571.6182645</v>
+      </c>
+      <c r="E57">
+        <v>3502706.14885725</v>
+      </c>
+      <c r="F57">
+        <v>-2641903.40340137</v>
+      </c>
+      <c r="G57">
+        <v>1404194.04512737</v>
+      </c>
+      <c r="H57">
+        <v>-139449.948156253</v>
+      </c>
+      <c r="I57">
+        <v>2475048.74400795</v>
+      </c>
+      <c r="J57">
+        <v>1043476.26334056</v>
+      </c>
+      <c r="K57">
+        <v>-595984.942857176</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1446273.15976657</v>
+      </c>
+      <c r="Q57">
+        <v>20445478.9548274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1473524.53179832</v>
+      </c>
+      <c r="D58">
+        <v>9305725.78516032</v>
+      </c>
+      <c r="E58">
+        <v>191473.13719237</v>
+      </c>
+      <c r="F58">
+        <v>-192798.32314438</v>
+      </c>
+      <c r="G58">
+        <v>44781.7722140462</v>
+      </c>
+      <c r="H58">
+        <v>-7609.95387448929</v>
+      </c>
+      <c r="I58">
+        <v>137786.915878532</v>
+      </c>
+      <c r="J58">
+        <v>44178.1640049885</v>
+      </c>
+      <c r="K58">
+        <v>-34514.3426701543</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>114103.93981816</v>
+      </c>
+      <c r="Q58">
+        <v>1123217.67613088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1389715.38532692</v>
+      </c>
+      <c r="D59">
+        <v>8808766.18143015</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>990142.526160926</v>
+      </c>
+      <c r="D60">
+        <v>24683098.9579635</v>
+      </c>
+      <c r="E60">
+        <v>811410.153114703</v>
+      </c>
+      <c r="F60">
+        <v>-817025.92434478</v>
+      </c>
+      <c r="G60">
+        <v>321454.409398139</v>
+      </c>
+      <c r="H60">
+        <v>-34990.9098632634</v>
+      </c>
+      <c r="I60">
+        <v>355200.071105501</v>
+      </c>
+      <c r="J60">
+        <v>115408.494530711</v>
+      </c>
+      <c r="K60">
+        <v>-146262.230206048</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>61957.7537977602</v>
+      </c>
+      <c r="Q60">
+        <v>5098651.15634864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>5853215.16875231</v>
+      </c>
+      <c r="D61">
+        <v>8527314.90943859</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>2457079.46194976</v>
+      </c>
+      <c r="D62">
+        <v>3724175.89115386</v>
+      </c>
+      <c r="E62">
+        <v>679600.63618084</v>
+      </c>
+      <c r="F62">
+        <v>-389763.675357099</v>
+      </c>
+      <c r="G62">
+        <v>334195.942616207</v>
+      </c>
+      <c r="H62">
+        <v>-40071.480885963</v>
+      </c>
+      <c r="I62">
+        <v>648932.129279128</v>
+      </c>
+      <c r="J62">
+        <v>451301.872615586</v>
+      </c>
+      <c r="K62">
+        <v>-110721.044066595</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>773589.98020296</v>
+      </c>
+      <c r="Q62">
+        <v>2512965.59593</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>841207.053247348</v>
+      </c>
+      <c r="D63">
+        <v>899156.382286121</v>
+      </c>
+      <c r="E63">
+        <v>1224.12654866821</v>
+      </c>
+      <c r="F63">
+        <v>-916.757982748777</v>
+      </c>
+      <c r="G63">
+        <v>680.069436817803</v>
+      </c>
+      <c r="H63">
+        <v>-35.7879111379589</v>
+      </c>
+      <c r="I63">
+        <v>1465.03303357804</v>
+      </c>
+      <c r="J63">
+        <v>778.474571135348</v>
+      </c>
+      <c r="K63">
+        <v>-208.023553593648</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1693.9692703761</v>
+      </c>
+      <c r="Q63">
+        <v>3730.72115795935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>13774744.94671</v>
+      </c>
+      <c r="D64">
+        <v>24261616.0469116</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>6261903.08227553</v>
+      </c>
+      <c r="D65">
+        <v>25055855.0613647</v>
+      </c>
+      <c r="E65">
+        <v>435632.197006489</v>
+      </c>
+      <c r="F65">
+        <v>-326248.372427071</v>
+      </c>
+      <c r="G65">
+        <v>158768.178252503</v>
+      </c>
+      <c r="H65">
+        <v>-46834.760553902</v>
+      </c>
+      <c r="I65">
+        <v>293389.87413852</v>
+      </c>
+      <c r="J65">
+        <v>194331.670791144</v>
+      </c>
+      <c r="K65">
+        <v>-74029.7298342921</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>205934.185208171</v>
+      </c>
+      <c r="Q65">
+        <v>1825371.44753151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>7519689.85827554</v>
+      </c>
+      <c r="D66">
+        <v>13042756.3774884</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>4132346.24266508</v>
+      </c>
+      <c r="D67">
+        <v>5028795.96684361</v>
+      </c>
+      <c r="E67">
+        <v>966884.18260077</v>
+      </c>
+      <c r="F67">
+        <v>-724107.155225938</v>
+      </c>
+      <c r="G67">
+        <v>551335.832234472</v>
+      </c>
+      <c r="H67">
+        <v>-94777.6977077592</v>
+      </c>
+      <c r="I67">
+        <v>1095602.00385749</v>
+      </c>
+      <c r="J67">
+        <v>607934.118604753</v>
+      </c>
+      <c r="K67">
+        <v>-164308.734089136</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1168330.73995658</v>
+      </c>
+      <c r="Q67">
+        <v>3222082.55243604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>15212245.891347</v>
+      </c>
+      <c r="D68">
+        <v>17293489.2059665</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>7914862.55356313</v>
+      </c>
+      <c r="D69">
+        <v>14082227.9110826</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1341122.39268376</v>
+      </c>
+      <c r="D70">
+        <v>11121179.687134</v>
+      </c>
+      <c r="E70">
+        <v>2098580.42622451</v>
+      </c>
+      <c r="F70">
+        <v>-1843923.97041433</v>
+      </c>
+      <c r="G70">
+        <v>756582.787521183</v>
+      </c>
+      <c r="H70">
+        <v>-137013.315204531</v>
+      </c>
+      <c r="I70">
+        <v>1420539.23887899</v>
+      </c>
+      <c r="J70">
+        <v>477000.855456572</v>
+      </c>
+      <c r="K70">
+        <v>-367516.246880405</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>692424.521737266</v>
+      </c>
+      <c r="Q70">
+        <v>12851096.1180227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>5839421.16289235</v>
+      </c>
+      <c r="D71">
+        <v>14155446.8528368</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>4220431.70177288</v>
+      </c>
+      <c r="D72">
+        <v>37497994.648083</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>22290379.5706282</v>
+      </c>
+      <c r="D73">
+        <v>21571249.2071081</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>4094467.9420779</v>
+      </c>
+      <c r="D74">
+        <v>12442132.6275647</v>
+      </c>
+      <c r="E74">
+        <v>1001992.8695308</v>
+      </c>
+      <c r="F74">
+        <v>-628342.160884058</v>
+      </c>
+      <c r="G74">
+        <v>469819.160626503</v>
+      </c>
+      <c r="H74">
+        <v>-45806.0240873601</v>
+      </c>
+      <c r="I74">
+        <v>768056.462387322</v>
+      </c>
+      <c r="J74">
+        <v>505997.815073933</v>
+      </c>
+      <c r="K74">
+        <v>-165392.648312263</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>502776.706571458</v>
+      </c>
+      <c r="Q74">
+        <v>3859298.72157169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>12875005.453198</v>
+      </c>
+      <c r="D75">
+        <v>16949178.4724837</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:BB600">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2529,8 +4666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2539,9 +4676,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2594,1867 +4731,3934 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.14034218338051099</v>
+        <v>17499.299920164</v>
       </c>
       <c r="C2">
-        <v>0.645984332830568</v>
+        <v>1279834.07511725</v>
       </c>
       <c r="D2">
-        <v>0.35638976767548303</v>
+        <v>891653.19222142</v>
       </c>
       <c r="E2">
-        <v>-0.19210627028633601</v>
+        <v>-239465.923774405</v>
       </c>
       <c r="F2">
-        <v>-0.237241202370917</v>
+        <v>-443517.953368137</v>
       </c>
       <c r="G2">
-        <v>0.35548958435716799</v>
+        <v>355859.230406932</v>
       </c>
       <c r="H2">
-        <v>-0.99999999998207501</v>
+        <v>-35390.6941303285</v>
       </c>
       <c r="I2">
-        <v>-0.49912746139894398</v>
+        <v>-257138.863866567</v>
       </c>
       <c r="J2">
-        <v>-0.29321346685167998</v>
+        <v>-293196.247144369</v>
       </c>
       <c r="K2">
-        <v>-0.23714760940207999</v>
+        <v>-93037.6805894775</v>
       </c>
       <c r="L2">
-        <v>-0.10491865928081601</v>
+        <v>-117709.602985997</v>
       </c>
       <c r="M2">
-        <v>-2.6554542152749199E-2</v>
+        <v>-29791.8848344125</v>
       </c>
       <c r="N2">
-        <v>-0.145018762132711</v>
+        <v>-132708.855147357</v>
       </c>
       <c r="O2">
-        <v>-3.6703748048337703E-2</v>
+        <v>-33588.1530877668</v>
       </c>
       <c r="P2">
-        <v>0.38334580296385801</v>
+        <v>939958.886092063</v>
       </c>
       <c r="Q2">
-        <v>0.17342647651304799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>648111.16026307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.142025012771688</v>
+        <v>159285.499826074</v>
       </c>
       <c r="C3">
-        <v>0.77879353283670205</v>
+        <v>7163508.35749414</v>
       </c>
       <c r="D3">
-        <v>0.22555629335793001</v>
+        <v>2592114.47717622</v>
       </c>
       <c r="E3">
-        <v>-0.11825137386316401</v>
+        <v>-1325828.45708821</v>
       </c>
       <c r="F3">
-        <v>-0.20050916707598199</v>
+        <v>-3371586.30317077</v>
       </c>
       <c r="G3">
-        <v>0.60919856750189505</v>
+        <v>5910279.40059081</v>
       </c>
       <c r="H3">
-        <v>-1.0000000000063201</v>
+        <v>-357563.268030062</v>
       </c>
       <c r="I3">
-        <v>-0.49729460295653</v>
+        <v>-1720955.08150756</v>
       </c>
       <c r="J3">
-        <v>-0.37486854525616198</v>
+        <v>-4514271.42778877</v>
       </c>
       <c r="K3">
-        <v>-0.20043365912674699</v>
+        <v>-821061.082943343</v>
       </c>
       <c r="L3">
-        <v>-0.253771531985301</v>
+        <v>-2560831.6219924</v>
       </c>
       <c r="M3">
-        <v>-1.7188232551282399E-2</v>
+        <v>-173448.018771596</v>
       </c>
       <c r="N3">
-        <v>-0.32176618165717702</v>
+        <v>-2789590.16484208</v>
       </c>
       <c r="O3">
-        <v>-2.17935926170023E-2</v>
+        <v>-188942.142110318</v>
       </c>
       <c r="P3">
-        <v>0.62464601114947704</v>
+        <v>5777212.89213747</v>
       </c>
       <c r="Q3">
-        <v>0.113474474945467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3814268.32172088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.14129193331274301</v>
+        <v>69350.8677254431</v>
       </c>
       <c r="C4">
-        <v>0.82990851182652003</v>
+        <v>9265921.4300313</v>
       </c>
       <c r="D4">
-        <v>0.17233839830026601</v>
+        <v>2569053.13522322</v>
       </c>
       <c r="E4">
-        <v>-0.12624616261231</v>
+        <v>-619473.101536278</v>
       </c>
       <c r="F4">
-        <v>-0.199375963715685</v>
+        <v>-1467222.48429898</v>
       </c>
       <c r="G4">
-        <v>0.61012524716619798</v>
+        <v>1868305.69834681</v>
       </c>
       <c r="H4">
-        <v>-0.99999999999978695</v>
+        <v>-171025.971933268</v>
       </c>
       <c r="I4">
-        <v>-0.49806489189605302</v>
+        <v>-1067505.78172738</v>
       </c>
       <c r="J4">
-        <v>-0.39315383815931798</v>
+        <v>-1464252.5258963</v>
       </c>
       <c r="K4">
-        <v>-0.199300836896911</v>
+        <v>-357303.32782492</v>
       </c>
       <c r="L4">
-        <v>-0.24077862055761001</v>
+        <v>-1063357.18671326</v>
       </c>
       <c r="M4">
-        <v>-1.3235136357879601E-2</v>
+        <v>-58450.693548657</v>
       </c>
       <c r="N4">
-        <v>-0.30529201499879899</v>
+        <v>-1158346.73207719</v>
       </c>
       <c r="O4">
-        <v>-1.67813079340557E-2</v>
+        <v>-63672.0655974932</v>
       </c>
       <c r="P4">
-        <v>0.62879890503894997</v>
+        <v>3189969.12517119</v>
       </c>
       <c r="Q4">
-        <v>8.66278095626839E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1274364.0701822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.14009699408930601</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.89603394527548397</v>
+        <v>21827154.263681</v>
       </c>
       <c r="D5">
-        <v>0.12711584279611299</v>
+        <v>20426031.9495114</v>
       </c>
       <c r="E5">
-        <v>-0.194932399447</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.23675244509797699</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.59891618911295896</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.00000000000284</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.499608347797319</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.42368183602083898</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.23665924510750599</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.116821591949195</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-9.2201591371903705E-3</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.161471005396465</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>-1.27442504370265E-2</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.48918549097839598</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6.0000549130920199E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.138858561192612</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.53212786868964501</v>
+        <v>70666352.9249699</v>
       </c>
       <c r="D6">
-        <v>0.50924260741670102</v>
+        <v>21642188.0398035</v>
       </c>
       <c r="E6">
-        <v>-0.14567305600244501</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.28987998791324698</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.35509924702923801</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.99999999999242495</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.48243696675229802</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.24409414574663499</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.28976155042580798</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.13018409189869601</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-3.8167140414794701E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.14822799902856201</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>-4.3457949764911803E-2</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.37072954836526401</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25781001490460997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.140576173208074</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.82599858723905295</v>
+        <v>25436091.0459721</v>
       </c>
       <c r="D7">
-        <v>0.178138347676604</v>
+        <v>16828864.0379974</v>
       </c>
       <c r="E7">
-        <v>-0.12883911500456</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.20840476791319101</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.58742784282780303</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.99999999999855405</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.49564516443907503</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.39240713602902899</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-0.208325114159429</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.209048510045617</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-1.46898987410804E-2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-0.20663265750367699</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>-1.45202479018499E-2</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.60379194737152297</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>9.67631407288643E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.138158132582132</v>
+        <v>370.212724519661</v>
       </c>
       <c r="C8">
-        <v>0.34948146578874001</v>
+        <v>1511418.94048187</v>
       </c>
       <c r="D8">
-        <v>0.660162585103654</v>
+        <v>320235.817208204</v>
       </c>
       <c r="E8">
-        <v>-0.13658756481718701</v>
+        <v>-5149.63311263273</v>
       </c>
       <c r="F8">
-        <v>-0.25366194264549902</v>
+        <v>-9380.06050616423</v>
       </c>
       <c r="G8">
-        <v>0.27607987783059501</v>
+        <v>7736.08060190782</v>
       </c>
       <c r="H8">
-        <v>-0.99999999999797995</v>
+        <v>-1217.78493114107</v>
       </c>
       <c r="I8">
-        <v>-0.47060768392089602</v>
+        <v>-4594.23700214757</v>
       </c>
       <c r="J8">
-        <v>-0.16698267914311599</v>
+        <v>-10659.939354573</v>
       </c>
       <c r="K8">
-        <v>-0.25356037692274502</v>
+        <v>-1967.67640354665</v>
       </c>
       <c r="L8">
-        <v>-0.11909771578830999</v>
+        <v>-2777.61700019255</v>
       </c>
       <c r="M8">
-        <v>-4.96026160036682E-2</v>
+        <v>-219.223778212836</v>
       </c>
       <c r="N8">
-        <v>-0.14730241599399799</v>
+        <v>-3131.55711561194</v>
       </c>
       <c r="O8">
-        <v>-6.1349310964606898E-2</v>
+        <v>-247.161080351361</v>
       </c>
       <c r="P8">
-        <v>0.28668809550555502</v>
+        <v>29371.6986995969</v>
       </c>
       <c r="Q8">
-        <v>0.33954611477347202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4752.03251016865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.14060038373425601</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.55283937379729098</v>
+        <v>5510045.74382171</v>
       </c>
       <c r="D9">
-        <v>0.44921441691679298</v>
+        <v>3969111.97143359</v>
       </c>
       <c r="E9">
-        <v>-0.13819648445500399</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.22093626593127499</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.40074055513450801</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.99999999998773403</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.49405555805829598</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.26209671862376399</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.22085070725748601</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.16738290487428201</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-3.67409957175742E-2</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.17215129093286399</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>-3.7787641508131797E-2</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.43494881942539998</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.24150234537340201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.14107364838736899</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.80620264420597298</v>
+        <v>26978154.7219011</v>
       </c>
       <c r="D10">
-        <v>0.19598258068466801</v>
+        <v>9864519.00437048</v>
       </c>
       <c r="E10">
-        <v>-0.117439949711043</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.193507711619025</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.61673581263117006</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.99999999999478895</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.49350355555359898</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.384895821894568</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>-0.19343540840402501</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.25170471211007001</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>-1.4578721753476199E-2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.34092733758195098</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>-1.9746521092264501E-2</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.63003370999861796</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>9.7257205719306294E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>0.141176022277823</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.65513130231211303</v>
+        <v>8162066.29345753</v>
       </c>
       <c r="D11">
-        <v>0.347610087606956</v>
+        <v>17209946.6952604</v>
       </c>
       <c r="E11">
-        <v>-0.15491372452677499</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.199928966976781</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.46901663907630903</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.99999999999670397</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.496422891420713</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.31132396126414102</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.19985357412790999</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.18389261141278501</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-2.5156193383156399E-2</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.28073505548962202</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>-3.8404073047677803E-2</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.48078619469401201</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.16434471223181299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>0.14114788422556901</v>
+        <v>2857.86607091723</v>
       </c>
       <c r="C12">
-        <v>0.73487111376671799</v>
+        <v>11969571.3576822</v>
       </c>
       <c r="D12">
-        <v>0.27037980285100599</v>
+        <v>13559684.8514043</v>
       </c>
       <c r="E12">
-        <v>-0.116804539880909</v>
+        <v>-29972.1693796891</v>
       </c>
       <c r="F12">
-        <v>-0.21134109971998399</v>
+        <v>-89449.1233061854</v>
       </c>
       <c r="G12">
-        <v>0.54600028684758395</v>
+        <v>115125.717183255</v>
       </c>
       <c r="H12">
-        <v>-1.0000000000087099</v>
+        <v>-7987.66477724712</v>
       </c>
       <c r="I12">
-        <v>-0.496343123285722</v>
+        <v>-25013.0236146651</v>
       </c>
       <c r="J12">
-        <v>-0.34870092817089599</v>
+        <v>-66067.0726410171</v>
       </c>
       <c r="K12">
-        <v>-0.21126018307061101</v>
+        <v>-16013.0177985411</v>
       </c>
       <c r="L12">
-        <v>-0.228927683300886</v>
+        <v>-24107.5927552447</v>
       </c>
       <c r="M12">
-        <v>-2.2474744273749299E-2</v>
+        <v>-7067.82114721136</v>
       </c>
       <c r="N12">
-        <v>-0.222516392287507</v>
+        <v>-25221.5698170767</v>
       </c>
       <c r="O12">
-        <v>-2.1845227635363399E-2</v>
+        <v>-7394.53896218038</v>
       </c>
       <c r="P12">
-        <v>0.58686897947722805</v>
+        <v>99328.2158444345</v>
       </c>
       <c r="Q12">
-        <v>0.14690551316921899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>159026.920469478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>0.14017953118372101</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.71256659335253203</v>
+        <v>4397774.84924571</v>
       </c>
       <c r="D13">
-        <v>0.28971570921501</v>
+        <v>18915742.7756644</v>
       </c>
       <c r="E13">
-        <v>-0.19193234882773699</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.236951392146344</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.41571049071710098</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-0.99999999999817302</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.49922245280963001</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>-0.33143753823734001</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.23685794458941101</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.109775064371074</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>-2.1627914795478501E-2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-0.151731278609022</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>-2.9894144388935E-2</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.41525952982196601</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.14090404295369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14">
-        <v>0.14035787356870899</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.356938610309953</v>
+        <v>7513248.76150644</v>
       </c>
       <c r="D14">
-        <v>0.64543128228591096</v>
+        <v>3515875.66427393</v>
       </c>
       <c r="E14">
-        <v>-0.18508647636787101</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.21748937344177299</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.25922593375948699</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-1.0000000000125999</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.49603652444753399</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0.16928850758647701</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>-0.21740512531911599</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.108610951558389</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>-4.54739459410375E-2</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-0.175535692485004</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>-7.3494567317632695E-2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.270924888958678</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.29744822060864601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15">
-        <v>0.14037608230215401</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.49927395098251098</v>
+        <v>59999606.2948118</v>
       </c>
       <c r="D15">
-        <v>0.50352111203558803</v>
+        <v>24683450.0653503</v>
       </c>
       <c r="E15">
-        <v>-0.17135889713409899</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.217481605536293</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.35418378462230798</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0.999999999987219</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.49629099750925298</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>-0.235572190600006</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.21739739040138201</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.14463805473423999</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-3.5327789826912703E-2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>-0.233762297174648</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>-5.7096479658780203E-2</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.36911570776494701</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.231814207631411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16">
-        <v>0.14031747316777499</v>
+        <v>22000.0157150207</v>
       </c>
       <c r="C16">
-        <v>0.59476875496676096</v>
+        <v>14058964.0867844</v>
       </c>
       <c r="D16">
-        <v>0.40727728901661198</v>
+        <v>4068898.66915066</v>
       </c>
       <c r="E16">
-        <v>-0.138830242583521</v>
+        <v>-201571.321421652</v>
       </c>
       <c r="F16">
-        <v>-0.22068090862179701</v>
+        <v>-488998.545421055</v>
       </c>
       <c r="G16">
-        <v>0.41437620745112103</v>
+        <v>562742.418195121</v>
       </c>
       <c r="H16">
-        <v>-1.00000000001113</v>
+        <v>-47811.3597322954</v>
       </c>
       <c r="I16">
-        <v>-0.49277144420800101</v>
+        <v>-293966.437831987</v>
       </c>
       <c r="J16">
-        <v>-0.280128202322111</v>
+        <v>-536899.381538969</v>
       </c>
       <c r="K16">
-        <v>-0.22059546257149601</v>
+        <v>-114440.73088991</v>
       </c>
       <c r="L16">
-        <v>-0.16598863933636099</v>
+        <v>-294364.252153318</v>
       </c>
       <c r="M16">
-        <v>-3.3249906240193999E-2</v>
+        <v>-20685.0604014471</v>
       </c>
       <c r="N16">
-        <v>-0.170717337112121</v>
+        <v>-293230.105996481</v>
       </c>
       <c r="O16">
-        <v>-3.4197150735972202E-2</v>
+        <v>-20605.5222963914</v>
       </c>
       <c r="P16">
-        <v>0.45159786748500402</v>
+        <v>1278156.76120226</v>
       </c>
       <c r="Q16">
-        <v>0.219356087522487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>453861.019185861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17">
-        <v>0.14022505853905801</v>
+        <v>17006.3009031583</v>
       </c>
       <c r="C17">
-        <v>0.55654946425530705</v>
+        <v>11016686.5057196</v>
       </c>
       <c r="D17">
-        <v>0.44561970607440898</v>
+        <v>24184448.4620134</v>
       </c>
       <c r="E17">
-        <v>-0.18817562476633701</v>
+        <v>-168079.327720334</v>
       </c>
       <c r="F17">
-        <v>-0.23707584388208</v>
+        <v>-468141.735759564</v>
       </c>
       <c r="G17">
-        <v>0.33092127947946198</v>
+        <v>1393048.9711574</v>
       </c>
       <c r="H17">
-        <v>-1.00000000000115</v>
+        <v>-56725.910558016</v>
       </c>
       <c r="I17">
-        <v>-0.49892210321636299</v>
+        <v>-126339.080946636</v>
       </c>
       <c r="J17">
-        <v>-0.258660289060551</v>
+        <v>-312212.149435072</v>
       </c>
       <c r="K17">
-        <v>-0.23698249730113799</v>
+        <v>-93306.2603278086</v>
       </c>
       <c r="L17">
-        <v>-0.104988857862229</v>
+        <v>-131905.697142938</v>
       </c>
       <c r="M17">
-        <v>-3.3265931624359701E-2</v>
+        <v>-54936.9700398529</v>
       </c>
       <c r="N17">
-        <v>-0.145115782580372</v>
+        <v>-142320.471295388</v>
       </c>
       <c r="O17">
-        <v>-4.5980210602485999E-2</v>
+        <v>-59274.4035541546</v>
       </c>
       <c r="P17">
-        <v>0.34799408653629099</v>
+        <v>252813.337596599</v>
       </c>
       <c r="Q17">
-        <v>0.21678984560602599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1199965.22841626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B18">
-        <v>0.14021287696746401</v>
+        <v>61445.9989778697</v>
       </c>
       <c r="C18">
-        <v>0.53532134478794002</v>
+        <v>6192297.75834363</v>
       </c>
       <c r="D18">
-        <v>0.47007393999153901</v>
+        <v>6006541.39216524</v>
       </c>
       <c r="E18">
-        <v>-0.16792848453907999</v>
+        <v>-603773.203149904</v>
       </c>
       <c r="F18">
-        <v>-0.21741384715098599</v>
+        <v>-1447647.26878377</v>
       </c>
       <c r="G18">
-        <v>0.38550800596469698</v>
+        <v>2664624.39241353</v>
       </c>
       <c r="H18">
-        <v>-0.99999999998243205</v>
+        <v>-140375.49743196</v>
       </c>
       <c r="I18">
-        <v>-0.495004381609563</v>
+        <v>-664712.492034305</v>
       </c>
       <c r="J18">
-        <v>-0.25487126064141602</v>
+        <v>-1232704.92281765</v>
       </c>
       <c r="K18">
-        <v>-0.217329844094201</v>
+        <v>-323184.459193144</v>
       </c>
       <c r="L18">
-        <v>-0.150621821941163</v>
+        <v>-658180.362940766</v>
       </c>
       <c r="M18">
-        <v>-3.2836234886937099E-2</v>
+        <v>-144472.351667937</v>
       </c>
       <c r="N18">
-        <v>-0.243433094261609</v>
+        <v>-664431.636575609</v>
       </c>
       <c r="O18">
-        <v>-5.3069501309554901E-2</v>
+        <v>-145844.415999018</v>
       </c>
       <c r="P18">
-        <v>0.38949315152376102</v>
+        <v>1934871.17679557</v>
       </c>
       <c r="Q18">
-        <v>0.21626585108451801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3163225.18385015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19">
-        <v>0.13820741910380999</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.31389259124038099</v>
+        <v>26209409.235093</v>
       </c>
       <c r="D19">
-        <v>0.71734741296211102</v>
+        <v>14206568.4297665</v>
       </c>
       <c r="E19">
-        <v>-0.140392484759578</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.29039635467380498</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.240467009667266</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-0.99999999999397204</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.47264487875610001</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-0.147016152840095</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>-0.29027728221715399</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.103433869741362</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-5.4342550123379102E-2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-0.11777123888904199</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>-6.1875385581285802E-2</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.25199819943077501</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.36888779288623402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.14065103616003199</v>
+        <v>82950.8460429497</v>
       </c>
       <c r="C20">
-        <v>0.840521566350247</v>
+        <v>13773483.0857767</v>
       </c>
       <c r="D20">
-        <v>0.168276335054898</v>
+        <v>4300745.31987077</v>
       </c>
       <c r="E20">
-        <v>-0.12891601138127801</v>
+        <v>-690335.987620056</v>
       </c>
       <c r="F20">
-        <v>-0.20838926086760601</v>
+        <v>-1705932.49288155</v>
       </c>
       <c r="G20">
-        <v>0.609638349853034</v>
+        <v>2642392.3802888</v>
       </c>
       <c r="H20">
-        <v>-1.0000000000015701</v>
+        <v>-114846.194644924</v>
       </c>
       <c r="I20">
-        <v>-0.49653179819765098</v>
+        <v>-1053983.24232781</v>
       </c>
       <c r="J20">
-        <v>-0.40145714378422098</v>
+        <v>-2064461.29434044</v>
       </c>
       <c r="K20">
-        <v>-0.208309815005155</v>
+        <v>-426483.62130858</v>
       </c>
       <c r="L20">
-        <v>-0.21180703875510701</v>
+        <v>-1331658.86537638</v>
       </c>
       <c r="M20">
-        <v>-1.38136012787166E-2</v>
+        <v>-77129.6012145467</v>
       </c>
       <c r="N20">
-        <v>-0.20935935427581001</v>
+        <v>-1489035.79488397</v>
       </c>
       <c r="O20">
-        <v>-1.3653949320942001E-2</v>
+        <v>-86244.9956033379</v>
       </c>
       <c r="P20">
-        <v>0.61150162049384005</v>
+        <v>3280802.21689539</v>
       </c>
       <c r="Q20">
-        <v>9.0774156406252401E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1713950.84750373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.14168520924838099</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.96777849757713297</v>
+        <v>4616777.73067913</v>
       </c>
       <c r="D21">
-        <v>3.4590227231745103E-2</v>
+        <v>1055080.69993542</v>
       </c>
       <c r="E21">
-        <v>-9.2618124733809995E-2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.15524268782674999</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.82864791579786401</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-1.0000000000125899</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>-0.49801827264008602</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>-0.475075878462559</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>-0.15518869863601401</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.28085294413850798</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>-3.19054361552962E-3</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>-0.176415344972775</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>-2.0041102730960101E-3</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.77568102518899595</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.09680827575984E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.14191948436482699</v>
+        <v>39073.7881371751</v>
       </c>
       <c r="C22">
-        <v>0.91252270429107096</v>
+        <v>3903327.02615182</v>
       </c>
       <c r="D22">
-        <v>8.9555169246786803E-2</v>
+        <v>2527069.32669738</v>
       </c>
       <c r="E22">
-        <v>-8.6978057990639304E-2</v>
+        <v>-428631.621670211</v>
       </c>
       <c r="F22">
-        <v>-0.155621541283919</v>
+        <v>-829638.581933687</v>
       </c>
       <c r="G22">
-        <v>0.732210483381315</v>
+        <v>1402200.02278103</v>
       </c>
       <c r="H22">
-        <v>-0.99999999999868805</v>
+        <v>-52091.7881303467</v>
       </c>
       <c r="I22">
-        <v>-0.49681665354369597</v>
+        <v>-427846.521701431</v>
       </c>
       <c r="J22">
-        <v>-0.442198937574726</v>
+        <v>-916786.359453108</v>
       </c>
       <c r="K22">
-        <v>-0.15556742494840001</v>
+        <v>-201612.832599785</v>
       </c>
       <c r="L22">
-        <v>-0.28725091378323397</v>
+        <v>-457947.374203941</v>
       </c>
       <c r="M22">
-        <v>-8.2804504992474593E-3</v>
+        <v>-62646.4142103214</v>
       </c>
       <c r="N22">
-        <v>-0.180434189839697</v>
+        <v>-538352.056884905</v>
       </c>
       <c r="O22">
-        <v>-5.2012783514409702E-3</v>
+        <v>-73645.6360318698</v>
       </c>
       <c r="P22">
-        <v>0.75530455071296099</v>
+        <v>1063255.16784331</v>
       </c>
       <c r="Q22">
-        <v>5.42988799300681E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1043788.41097699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.14022743987901901</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.68862906969897697</v>
+        <v>13026399.1233381</v>
       </c>
       <c r="D23">
-        <v>0.31445430620092901</v>
+        <v>4011825.30341583</v>
       </c>
       <c r="E23">
-        <v>-0.141553212277022</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.19961218103196399</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.48439969880974898</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-1.0000000000042</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>-0.48863545779289902</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>-0.32123818782438202</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>-0.19953682824060201</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.19432166351256</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-2.2465067725868801E-2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-0.29665632841390899</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>-3.4295723104257797E-2</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.50712688419627405</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.15025888557935499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.14128969929384599</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.86856563718487201</v>
+        <v>19789648.7903841</v>
       </c>
       <c r="D24">
-        <v>0.133567171963656</v>
+        <v>91091280.025126</v>
       </c>
       <c r="E24">
-        <v>-0.111646986737818</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.217337290248206</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.66449686735304703</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-1.00000000001719</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>-0.496338787401227</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-0.416280564213028</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-0.217253573588469</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.25818597292944301</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-1.0777475826194E-2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>-0.276176051300704</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>-1.15284337181301E-2</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.67565223332496605</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>7.1130369297212004E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.13971953845315599</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.56353760118348895</v>
+        <v>149964758.658005</v>
       </c>
       <c r="D25">
-        <v>0.43873547553023401</v>
+        <v>117673218.444116</v>
       </c>
       <c r="E25">
-        <v>-0.16048515408844299</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.253244363717472</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.36082851142781602</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-1.00000000001</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>-0.48987985698826603</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-0.26249975978606099</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>-0.25314322264178402</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-0.129727147121417</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-3.3581234943718001E-2</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-0.16044896279868501</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>-4.1533888347639603E-2</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.38748988757390601</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.22418094683544601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.14105499644305899</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.587377086305364</v>
+        <v>33163528.0439945</v>
       </c>
       <c r="D26">
-        <v>0.41525103896964799</v>
+        <v>14512831.4818067</v>
       </c>
       <c r="E26">
-        <v>-0.139970566896502</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.22117524960344601</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.43496418653482699</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-0.99999999999498501</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>-0.49729947929504498</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>-0.28208604137666499</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>-0.221089633402026</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.17450784969165001</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-3.3993814380779197E-2</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-0.179479205789386</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>-3.49622340500539E-2</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.45809191027003299</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.222523099780913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.13905860567078401</v>
+        <v>15277.093401528</v>
       </c>
       <c r="C27">
-        <v>0.348049391492117</v>
+        <v>11224060.7482509</v>
       </c>
       <c r="D27">
-        <v>0.65403026865799596</v>
+        <v>5130140.20223869</v>
       </c>
       <c r="E27">
-        <v>-0.146082315543726</v>
+        <v>-126385.083523928</v>
       </c>
       <c r="F27">
-        <v>-0.25390830272519799</v>
+        <v>-342956.443281728</v>
       </c>
       <c r="G27">
-        <v>0.27393203959261803</v>
+        <v>530145.157604711</v>
       </c>
       <c r="H27">
-        <v>-1.0000000000032001</v>
+        <v>-41102.6197770843</v>
       </c>
       <c r="I27">
-        <v>-0.47880600120313299</v>
+        <v>-189872.257779934</v>
       </c>
       <c r="J27">
-        <v>-0.16714158402750401</v>
+        <v>-353802.75155534</v>
       </c>
       <c r="K27">
-        <v>-0.25380690393918398</v>
+        <v>-79573.1696853181</v>
       </c>
       <c r="L27">
-        <v>-0.11877430050057</v>
+        <v>-222941.742632538</v>
       </c>
       <c r="M27">
-        <v>-4.9813282984577698E-2</v>
+        <v>-21887.0805896586</v>
       </c>
       <c r="N27">
-        <v>-0.146902270800507</v>
+        <v>-220860.113424715</v>
       </c>
       <c r="O27">
-        <v>-6.1610019391437398E-2</v>
+        <v>-21682.6248337748</v>
       </c>
       <c r="P27">
-        <v>0.28663812632705898</v>
+        <v>621674.136285437</v>
       </c>
       <c r="Q27">
-        <v>0.33665249224518701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>476547.405417077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.13933162921759701</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.53711036232811005</v>
+        <v>88201626.8935834</v>
       </c>
       <c r="D28">
-        <v>0.46528455820313702</v>
+        <v>60481219.2811496</v>
       </c>
       <c r="E28">
-        <v>-0.15915230310306999</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.217630485425405</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.374067378275522</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-0.99999999997404798</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>-0.48402311586607399</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>-0.25227261964243403</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>-0.217546468237235</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.14507468081614699</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>-3.2104557216098499E-2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-0.234467977925163</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>-5.1887011157257301E-2</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0.38460240069845802</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.21823249755659599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.13939667669514499</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.593713338104364</v>
+        <v>27863204.2222624</v>
       </c>
       <c r="D29">
-        <v>0.41382537880917503</v>
+        <v>10908305.6741759</v>
       </c>
       <c r="E29">
-        <v>-0.15709057851455899</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.289674881947799</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.37555266363006501</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-0.99999999998132605</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>-0.48920807895273999</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-0.27674309757037002</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>-0.28955611455569702</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-0.12781735963056501</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-3.2354944266264299E-2</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-0.14553351908987</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>-3.6839762391870597E-2</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0.40042927373919701</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.21581441027898099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.13781701503949301</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.31482439153759001</v>
+        <v>30698499.1079496</v>
       </c>
       <c r="D30">
-        <v>0.68976286629388495</v>
+        <v>4371282.10747001</v>
       </c>
       <c r="E30">
-        <v>-0.13381091669189599</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.29053712041582702</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.25232239567549603</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-1.0000000000020699</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>-0.46775695440656101</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-0.152067038405447</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-0.29041907246582099</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.10688492445640101</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-5.3403758231045498E-2</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-0.12169982556789399</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>-6.08056797948976E-2</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.25959799016132701</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.36625703794269598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.14116276476904899</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.84694248123281901</v>
+        <v>6636027.67680132</v>
       </c>
       <c r="D31">
-        <v>0.155268840432364</v>
+        <v>5179366.33358329</v>
       </c>
       <c r="E31">
-        <v>-0.130556433977113</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.166138310698657</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.63111538290918301</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-0.99999999997986699</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>-0.49772073518568599</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>-0.40412778725211501</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>-0.16607899121202599</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.24074435981564901</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-1.14560351572956E-2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-0.341902610062427</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>-1.6269752667874199E-2</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.62873137466894802</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>7.5169947610625801E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.14129634635775701</v>
+        <v>4987.00657917652</v>
       </c>
       <c r="C32">
-        <v>1.00179394230409</v>
+        <v>1156436.26486155</v>
       </c>
       <c r="D32">
-        <v>0.181966273023275</v>
+        <v>607702.18530306</v>
       </c>
       <c r="E32">
-        <v>-0.115775302947977</v>
+        <v>-68261.0951541574</v>
       </c>
       <c r="F32">
-        <v>-0.21700586916853101</v>
+        <v>-126387.24434888</v>
       </c>
       <c r="G32">
-        <v>0.62843744967199899</v>
+        <v>104502.902057575</v>
       </c>
       <c r="H32">
-        <v>-1.0000000000017699</v>
+        <v>-10031.0260737024</v>
       </c>
       <c r="I32">
-        <v>-0.49877439353094899</v>
+        <v>-65811.9726760196</v>
       </c>
       <c r="J32">
-        <v>-0.40215918020207803</v>
+        <v>-105429.039226437</v>
       </c>
       <c r="K32">
-        <v>-0.216919785655975</v>
+        <v>-26512.5177548907</v>
       </c>
       <c r="L32">
-        <v>-0.25329104267952302</v>
+        <v>-35138.7052671635</v>
       </c>
       <c r="M32">
-        <v>-1.19652239605913E-2</v>
+        <v>-6923.03783100215</v>
       </c>
       <c r="N32">
-        <v>-0.27093859773849799</v>
+        <v>-39616.2823840859</v>
       </c>
       <c r="O32">
-        <v>-1.2800602723873599E-2</v>
+        <v>-7805.21245585987</v>
       </c>
       <c r="P32">
-        <v>0.66327349077006503</v>
+        <v>302999.055767868</v>
       </c>
       <c r="Q32">
-        <v>7.7734587311527298E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>150238.225686626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.14095436409314899</v>
+        <v>3047.19630825275</v>
       </c>
       <c r="C33">
-        <v>0.72317753381704297</v>
+        <v>337006.47430087</v>
       </c>
       <c r="D33">
-        <v>0.28625318446222098</v>
+        <v>712342.408061595</v>
       </c>
       <c r="E33">
-        <v>-0.12570292468108801</v>
+        <v>-40170.5776165181</v>
       </c>
       <c r="F33">
-        <v>-0.217268802522775</v>
+        <v>-70793.0034389574</v>
       </c>
       <c r="G33">
-        <v>0.53215708274712104</v>
+        <v>170686.601676789</v>
       </c>
       <c r="H33">
-        <v>-0.999999999995135</v>
+        <v>-1352.98317625711</v>
       </c>
       <c r="I33">
-        <v>-0.49321321707515398</v>
+        <v>-30920.5605197349</v>
       </c>
       <c r="J33">
-        <v>-0.344399158721862</v>
+        <v>-42408.628062185</v>
       </c>
       <c r="K33">
-        <v>-0.21718547165881399</v>
+        <v>-15970.1331555698</v>
       </c>
       <c r="L33">
-        <v>-0.20950590975156899</v>
+        <v>-21216.0235602641</v>
       </c>
       <c r="M33">
-        <v>-2.3136322851443899E-2</v>
+        <v>-8882.86397108459</v>
       </c>
       <c r="N33">
-        <v>-0.22410400533929101</v>
+        <v>-25574.567265503</v>
       </c>
       <c r="O33">
-        <v>-2.4748374457126601E-2</v>
+        <v>-10707.746834305</v>
       </c>
       <c r="P33">
-        <v>0.55489639323632001</v>
+        <v>46857.0100462966</v>
       </c>
       <c r="Q33">
-        <v>0.151818270136032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>174867.786108516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B34">
-        <v>0.141458366776467</v>
+        <v>4491.55509690172</v>
       </c>
       <c r="C34">
-        <v>0.83213921908905297</v>
+        <v>1006970.90266141</v>
       </c>
       <c r="D34">
-        <v>0.169995353450964</v>
+        <v>1205198.40526365</v>
       </c>
       <c r="E34">
-        <v>-0.113709507652297</v>
+        <v>-54812.5500987226</v>
       </c>
       <c r="F34">
-        <v>-0.21735789913260301</v>
+        <v>-104331.340283534</v>
       </c>
       <c r="G34">
-        <v>0.61474063566213299</v>
+        <v>196529.58667677</v>
       </c>
       <c r="H34">
-        <v>-0.99999999999390099</v>
+        <v>-3459.19299026718</v>
       </c>
       <c r="I34">
-        <v>-0.49801418880882897</v>
+        <v>-49863.1917782768</v>
       </c>
       <c r="J34">
-        <v>-0.39144321969462997</v>
+        <v>-79530.0257099734</v>
       </c>
       <c r="K34">
-        <v>-0.21727425022799701</v>
+        <v>-23536.0211525403</v>
       </c>
       <c r="L34">
-        <v>-0.25479920552736202</v>
+        <v>-41640.2092135104</v>
       </c>
       <c r="M34">
-        <v>-1.3801536466691701E-2</v>
+        <v>-10170.6052542431</v>
       </c>
       <c r="N34">
-        <v>-0.272553300839045</v>
+        <v>-50194.6330597275</v>
       </c>
       <c r="O34">
-        <v>-1.4763228072325101E-2</v>
+        <v>-12260.0474076171</v>
       </c>
       <c r="P34">
-        <v>0.65573608689233698</v>
+        <v>112897.015698254</v>
       </c>
       <c r="Q34">
-        <v>9.0048384365529796E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>222302.996674262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.14001275509189501</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.474561763788866</v>
+        <v>93540119.4176018</v>
       </c>
       <c r="D35">
-        <v>0.52752473328720995</v>
+        <v>64944576.855005</v>
       </c>
       <c r="E35">
-        <v>-0.15906068782830399</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.25342298424201898</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.33004455086106399</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-0.99999999999491596</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>-0.49196418295240801</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>-0.22411618794736099</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>-0.25332181609280402</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.130555246019116</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-4.0572245972220797E-2</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-0.16147315694130199</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>-5.0180505048135399E-2</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>0.35180080650080398</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0.26853046149415399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B36">
-        <v>0.141409656508722</v>
+        <v>64745.5397178419</v>
       </c>
       <c r="C36">
-        <v>0.72562959324253196</v>
+        <v>8326290.49510462</v>
       </c>
       <c r="D36">
-        <v>0.27720059696342197</v>
+        <v>6888354.87574106</v>
       </c>
       <c r="E36">
-        <v>-0.117708247402296</v>
+        <v>-640400.877327193</v>
       </c>
       <c r="F36">
-        <v>-0.18259116229983499</v>
+        <v>-1526692.26738159</v>
       </c>
       <c r="G36">
-        <v>0.54494480770096498</v>
+        <v>2352842.21349517</v>
       </c>
       <c r="H36">
-        <v>-0.99999999999653899</v>
+        <v>-134528.480181471</v>
       </c>
       <c r="I36">
-        <v>-0.492564803510678</v>
+        <v>-739355.598283</v>
       </c>
       <c r="J36">
-        <v>-0.34569343318016799</v>
+        <v>-1317020.03432903</v>
       </c>
       <c r="K36">
-        <v>-0.18252417432878701</v>
+        <v>-340831.123816315</v>
       </c>
       <c r="L36">
-        <v>-0.22788993762997101</v>
+        <v>-689133.213865571</v>
       </c>
       <c r="M36">
-        <v>-2.2499257139643399E-2</v>
+        <v>-138043.271151837</v>
       </c>
       <c r="N36">
-        <v>-0.24699936917169599</v>
+        <v>-695678.59984003</v>
       </c>
       <c r="O36">
-        <v>-2.4385879090012001E-2</v>
+        <v>-139354.481184855</v>
       </c>
       <c r="P36">
-        <v>0.57982367664891399</v>
+        <v>2427761.01960102</v>
       </c>
       <c r="Q36">
-        <v>0.14776984409795699</v>
+        <v>3033538.03797625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>7668.48330618814</v>
+      </c>
+      <c r="C37">
+        <v>1205108.24904195</v>
+      </c>
+      <c r="D37">
+        <v>1173679.29817963</v>
+      </c>
+      <c r="E37">
+        <v>-102876.681952912</v>
+      </c>
+      <c r="F37">
+        <v>-194383.677392907</v>
+      </c>
+      <c r="G37">
+        <v>202753.975655942</v>
+      </c>
+      <c r="H37">
+        <v>-21875.2247386146</v>
+      </c>
+      <c r="I37">
+        <v>-88453.3631996601</v>
+      </c>
+      <c r="J37">
+        <v>-144564.853678457</v>
+      </c>
+      <c r="K37">
+        <v>-40776.2981773703</v>
+      </c>
+      <c r="L37">
+        <v>-51659.9253864842</v>
+      </c>
+      <c r="M37">
+        <v>-16368.5516788973</v>
+      </c>
+      <c r="N37">
+        <v>-58242.7346252371</v>
+      </c>
+      <c r="O37">
+        <v>-18454.3207948445</v>
+      </c>
+      <c r="P37">
+        <v>329410.157678067</v>
+      </c>
+      <c r="Q37">
+        <v>355323.912939348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>2534.53481891484</v>
+      </c>
+      <c r="C38">
+        <v>1372944.44142477</v>
+      </c>
+      <c r="D38">
+        <v>1434011.85154311</v>
+      </c>
+      <c r="E38">
+        <v>-30346.2104711798</v>
+      </c>
+      <c r="F38">
+        <v>-58923.1837430998</v>
+      </c>
+      <c r="G38">
+        <v>112967.449845019</v>
+      </c>
+      <c r="H38">
+        <v>-2279.55368580297</v>
+      </c>
+      <c r="I38">
+        <v>-23946.8901770306</v>
+      </c>
+      <c r="J38">
+        <v>-57032.8802822769</v>
+      </c>
+      <c r="K38">
+        <v>-13292.4438721966</v>
+      </c>
+      <c r="L38">
+        <v>-24497.6809823129</v>
+      </c>
+      <c r="M38">
+        <v>-5340.60467834934</v>
+      </c>
+      <c r="N38">
+        <v>-29530.3901173611</v>
+      </c>
+      <c r="O38">
+        <v>-6437.75687836751</v>
+      </c>
+      <c r="P38">
+        <v>70431.4571953728</v>
+      </c>
+      <c r="Q38">
+        <v>117165.557545159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>3388.28738269513</v>
+      </c>
+      <c r="C39">
+        <v>6299291.39800675</v>
+      </c>
+      <c r="D39">
+        <v>16653137.832707</v>
+      </c>
+      <c r="E39">
+        <v>-34408.2414929289</v>
+      </c>
+      <c r="F39">
+        <v>-106740.365180449</v>
+      </c>
+      <c r="G39">
+        <v>276202.400611801</v>
+      </c>
+      <c r="H39">
+        <v>-8376.9350896182</v>
+      </c>
+      <c r="I39">
+        <v>-25696.1468394729</v>
+      </c>
+      <c r="J39">
+        <v>-53842.2421627911</v>
+      </c>
+      <c r="K39">
+        <v>-19108.436256065</v>
+      </c>
+      <c r="L39">
+        <v>-22815.9402872552</v>
+      </c>
+      <c r="M39">
+        <v>-11987.1409797634</v>
+      </c>
+      <c r="N39">
+        <v>-23870.4596403113</v>
+      </c>
+      <c r="O39">
+        <v>-12541.2104702264</v>
+      </c>
+      <c r="P39">
+        <v>46246.4596313657</v>
+      </c>
+      <c r="Q39">
+        <v>255787.604301877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>8384.40102146706</v>
+      </c>
+      <c r="C40">
+        <v>12230995.7580586</v>
+      </c>
+      <c r="D40">
+        <v>3282342.9841327</v>
+      </c>
+      <c r="E40">
+        <v>-76825.5542227416</v>
+      </c>
+      <c r="F40">
+        <v>-186248.628298054</v>
+      </c>
+      <c r="G40">
+        <v>222183.661368326</v>
+      </c>
+      <c r="H40">
+        <v>-22106.0397897963</v>
+      </c>
+      <c r="I40">
+        <v>-99285.0599231315</v>
+      </c>
+      <c r="J40">
+        <v>-236380.025313119</v>
+      </c>
+      <c r="K40">
+        <v>-43587.961588928</v>
+      </c>
+      <c r="L40">
+        <v>-113604.677099793</v>
+      </c>
+      <c r="M40">
+        <v>-7409.05364655191</v>
+      </c>
+      <c r="N40">
+        <v>-113166.998735687</v>
+      </c>
+      <c r="O40">
+        <v>-7380.49881212646</v>
+      </c>
+      <c r="P40">
+        <v>493406.354908366</v>
+      </c>
+      <c r="Q40">
+        <v>162178.388742323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>49302.2066832054</v>
+      </c>
+      <c r="C41">
+        <v>17332431.2539166</v>
+      </c>
+      <c r="D41">
+        <v>1230083.72218697</v>
+      </c>
+      <c r="E41">
+        <v>-322186.664758483</v>
+      </c>
+      <c r="F41">
+        <v>-809919.094261713</v>
+      </c>
+      <c r="G41">
+        <v>1172522.56205422</v>
+      </c>
+      <c r="H41">
+        <v>-100960.811851546</v>
+      </c>
+      <c r="I41">
+        <v>-725255.728453631</v>
+      </c>
+      <c r="J41">
+        <v>-1308782.08408249</v>
+      </c>
+      <c r="K41">
+        <v>-244690.086210612</v>
+      </c>
+      <c r="L41">
+        <v>-879321.191783529</v>
+      </c>
+      <c r="M41">
+        <v>-9989.25833962858</v>
+      </c>
+      <c r="N41">
+        <v>-770305.319362087</v>
+      </c>
+      <c r="O41">
+        <v>-8750.80795376562</v>
+      </c>
+      <c r="P41">
+        <v>3306755.05208666</v>
+      </c>
+      <c r="Q41">
+        <v>218676.552055404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>99764906.3221657</v>
+      </c>
+      <c r="D42">
+        <v>31352199.6539206</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>132769.31360364</v>
+      </c>
+      <c r="C43">
+        <v>29386156.559987</v>
+      </c>
+      <c r="D43">
+        <v>4223353.4625452</v>
+      </c>
+      <c r="E43">
+        <v>-813457.987038419</v>
+      </c>
+      <c r="F43">
+        <v>-2182800.47720764</v>
+      </c>
+      <c r="G43">
+        <v>3487395.78862675</v>
+      </c>
+      <c r="H43">
+        <v>-388192.474879324</v>
+      </c>
+      <c r="I43">
+        <v>-1830910.36801226</v>
+      </c>
+      <c r="J43">
+        <v>-3479534.12731178</v>
+      </c>
+      <c r="K43">
+        <v>-659460.502364673</v>
+      </c>
+      <c r="L43">
+        <v>-2417930.54298498</v>
+      </c>
+      <c r="M43">
+        <v>-69700.5760855973</v>
+      </c>
+      <c r="N43">
+        <v>-2118162.211827</v>
+      </c>
+      <c r="O43">
+        <v>-61059.1111751273</v>
+      </c>
+      <c r="P43">
+        <v>7534098.39330707</v>
+      </c>
+      <c r="Q43">
+        <v>1522468.12925674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>12706147.6461428</v>
+      </c>
+      <c r="D44">
+        <v>6242487.78111965</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>53678154.4509162</v>
+      </c>
+      <c r="D45">
+        <v>12883905.8427455</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>51872864.0142464</v>
+      </c>
+      <c r="D46">
+        <v>32232787.9165747</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4431737.3019341</v>
+      </c>
+      <c r="D47">
+        <v>3219952.33080228</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>57475.4523974843</v>
+      </c>
+      <c r="C48">
+        <v>19747662.6436505</v>
+      </c>
+      <c r="D48">
+        <v>11164596.522178</v>
+      </c>
+      <c r="E48">
+        <v>-580014.509556349</v>
+      </c>
+      <c r="F48">
+        <v>-1226662.46216279</v>
+      </c>
+      <c r="G48">
+        <v>1841668.13256685</v>
+      </c>
+      <c r="H48">
+        <v>-87024.1697644815</v>
+      </c>
+      <c r="I48">
+        <v>-757922.424725257</v>
+      </c>
+      <c r="J48">
+        <v>-1152779.92904652</v>
+      </c>
+      <c r="K48">
+        <v>-298094.616876915</v>
+      </c>
+      <c r="L48">
+        <v>-716633.869046345</v>
+      </c>
+      <c r="M48">
+        <v>-82848.3459423296</v>
+      </c>
+      <c r="N48">
+        <v>-842457.817199174</v>
+      </c>
+      <c r="O48">
+        <v>-97394.517690409</v>
+      </c>
+      <c r="P48">
+        <v>1743078.568934</v>
+      </c>
+      <c r="Q48">
+        <v>1506099.30159524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>125256.224647164</v>
+      </c>
+      <c r="C49">
+        <v>19773857.5600693</v>
+      </c>
+      <c r="D49">
+        <v>4185756.97111897</v>
+      </c>
+      <c r="E49">
+        <v>-989476.669272408</v>
+      </c>
+      <c r="F49">
+        <v>-2888761.63022593</v>
+      </c>
+      <c r="G49">
+        <v>3374954.46922723</v>
+      </c>
+      <c r="H49">
+        <v>-312896.361202002</v>
+      </c>
+      <c r="I49">
+        <v>-1775481.35481775</v>
+      </c>
+      <c r="J49">
+        <v>-3030332.92619046</v>
+      </c>
+      <c r="K49">
+        <v>-655495.96239347</v>
+      </c>
+      <c r="L49">
+        <v>-2059435.41677203</v>
+      </c>
+      <c r="M49">
+        <v>-85967.1622281894</v>
+      </c>
+      <c r="N49">
+        <v>-2107277.81313937</v>
+      </c>
+      <c r="O49">
+        <v>-87964.2260074615</v>
+      </c>
+      <c r="P49">
+        <v>6229764.13877681</v>
+      </c>
+      <c r="Q49">
+        <v>1889929.19375189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>37260788.5347885</v>
+      </c>
+      <c r="D50">
+        <v>9076264.14009463</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>139111.936781555</v>
+      </c>
+      <c r="C51">
+        <v>9524255.42738754</v>
+      </c>
+      <c r="D51">
+        <v>8979923.04667365</v>
+      </c>
+      <c r="E51">
+        <v>-1597393.28290336</v>
+      </c>
+      <c r="F51">
+        <v>-3780381.98971655</v>
+      </c>
+      <c r="G51">
+        <v>4276055.62884826</v>
+      </c>
+      <c r="H51">
+        <v>-301111.218030564</v>
+      </c>
+      <c r="I51">
+        <v>-1588621.27349246</v>
+      </c>
+      <c r="J51">
+        <v>-2658642.68292207</v>
+      </c>
+      <c r="K51">
+        <v>-753476.218548603</v>
+      </c>
+      <c r="L51">
+        <v>-1162157.09816199</v>
+      </c>
+      <c r="M51">
+        <v>-300836.574463174</v>
+      </c>
+      <c r="N51">
+        <v>-1253915.49004707</v>
+      </c>
+      <c r="O51">
+        <v>-324589.109537192</v>
+      </c>
+      <c r="P51">
+        <v>5545694.04711947</v>
+      </c>
+      <c r="Q51">
+        <v>6689714.86618277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <v>27547.2808792256</v>
+      </c>
+      <c r="C52">
+        <v>1562809.194125</v>
+      </c>
+      <c r="D52">
+        <v>1322128.19043896</v>
+      </c>
+      <c r="E52">
+        <v>-273272.997144377</v>
+      </c>
+      <c r="F52">
+        <v>-647612.810931168</v>
+      </c>
+      <c r="G52">
+        <v>1232309.8768713</v>
+      </c>
+      <c r="H52">
+        <v>-41115.7372314483</v>
+      </c>
+      <c r="I52">
+        <v>-250489.987358451</v>
+      </c>
+      <c r="J52">
+        <v>-707633.214904927</v>
+      </c>
+      <c r="K52">
+        <v>-144578.3332258</v>
+      </c>
+      <c r="L52">
+        <v>-306642.217506887</v>
+      </c>
+      <c r="M52">
+        <v>-59733.3509160671</v>
+      </c>
+      <c r="N52">
+        <v>-309554.639810231</v>
+      </c>
+      <c r="O52">
+        <v>-60300.7001325022</v>
+      </c>
+      <c r="P52">
+        <v>939524.158408167</v>
+      </c>
+      <c r="Q52">
+        <v>1302467.86638047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>28297771.7026104</v>
+      </c>
+      <c r="D53">
+        <v>9788584.48304677</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>40945717.9623832</v>
+      </c>
+      <c r="D54">
+        <v>27005293.0710306</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>48911850.7935969</v>
+      </c>
+      <c r="D55">
+        <v>41448737.3478478</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56">
+        <v>113002.752838656</v>
+      </c>
+      <c r="C56">
+        <v>6864582.93385804</v>
+      </c>
+      <c r="D56">
+        <v>15017170.0110752</v>
+      </c>
+      <c r="E56">
+        <v>-1186748.06618132</v>
+      </c>
+      <c r="F56">
+        <v>-3093546.85088154</v>
+      </c>
+      <c r="G56">
+        <v>8797685.54805312</v>
+      </c>
+      <c r="H56">
+        <v>-287153.476350941</v>
+      </c>
+      <c r="I56">
+        <v>-912176.447999664</v>
+      </c>
+      <c r="J56">
+        <v>-1919334.98058002</v>
+      </c>
+      <c r="K56">
+        <v>-616581.62003383</v>
+      </c>
+      <c r="L56">
+        <v>-868441.064907238</v>
+      </c>
+      <c r="M56">
+        <v>-364219.366810285</v>
+      </c>
+      <c r="N56">
+        <v>-937008.996470831</v>
+      </c>
+      <c r="O56">
+        <v>-392976.515120827</v>
+      </c>
+      <c r="P56">
+        <v>1693208.72511715</v>
+      </c>
+      <c r="Q56">
+        <v>7886712.18074858</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>109359.513767995</v>
+      </c>
+      <c r="C57">
+        <v>7386719.78964936</v>
+      </c>
+      <c r="D57">
+        <v>7651548.70203696</v>
+      </c>
+      <c r="E57">
+        <v>-1248790.30514974</v>
+      </c>
+      <c r="F57">
+        <v>-2561033.31685532</v>
+      </c>
+      <c r="G57">
+        <v>4321655.05414829</v>
+      </c>
+      <c r="H57">
+        <v>-133943.377253599</v>
+      </c>
+      <c r="I57">
+        <v>-1150559.02609602</v>
+      </c>
+      <c r="J57">
+        <v>-2166110.30565109</v>
+      </c>
+      <c r="K57">
+        <v>-577742.076097056</v>
+      </c>
+      <c r="L57">
+        <v>-1024531.2173292</v>
+      </c>
+      <c r="M57">
+        <v>-226725.441692397</v>
+      </c>
+      <c r="N57">
+        <v>-1235007.50529114</v>
+      </c>
+      <c r="O57">
+        <v>-273303.198046051</v>
+      </c>
+      <c r="P57">
+        <v>3217068.54786258</v>
+      </c>
+      <c r="Q57">
+        <v>5133669.80543826</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>6371.98326789076</v>
+      </c>
+      <c r="C58">
+        <v>5493973.23979181</v>
+      </c>
+      <c r="D58">
+        <v>4663136.46364288</v>
+      </c>
+      <c r="E58">
+        <v>-71786.3845871761</v>
+      </c>
+      <c r="F58">
+        <v>-198527.963522356</v>
+      </c>
+      <c r="G58">
+        <v>186926.522092253</v>
+      </c>
+      <c r="H58">
+        <v>-7787.46513853548</v>
+      </c>
+      <c r="I58">
+        <v>-68971.7174577527</v>
+      </c>
+      <c r="J58">
+        <v>-135889.339567802</v>
+      </c>
+      <c r="K58">
+        <v>-35540.0606940384</v>
+      </c>
+      <c r="L58">
+        <v>-52570.0954426429</v>
+      </c>
+      <c r="M58">
+        <v>-13307.2887206799</v>
+      </c>
+      <c r="N58">
+        <v>-54999.3927148171</v>
+      </c>
+      <c r="O58">
+        <v>-13922.3223074805</v>
+      </c>
+      <c r="P58">
+        <v>288729.269268806</v>
+      </c>
+      <c r="Q58">
+        <v>295667.983962048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>4741392.83078223</v>
+      </c>
+      <c r="D59">
+        <v>4070639.7639</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>11656.0705422307</v>
+      </c>
+      <c r="C60">
+        <v>3116770.50393628</v>
+      </c>
+      <c r="D60">
+        <v>7925225.13208358</v>
+      </c>
+      <c r="E60">
+        <v>-113138.550193398</v>
+      </c>
+      <c r="F60">
+        <v>-368416.945793724</v>
+      </c>
+      <c r="G60">
+        <v>1048297.36313259</v>
+      </c>
+      <c r="H60">
+        <v>-15633.7752047693</v>
+      </c>
+      <c r="I60">
+        <v>-74229.1969788494</v>
+      </c>
+      <c r="J60">
+        <v>-227058.73178842</v>
+      </c>
+      <c r="K60">
+        <v>-65953.4745465498</v>
+      </c>
+      <c r="L60">
+        <v>-81337.8145513707</v>
+      </c>
+      <c r="M60">
+        <v>-40639.4541179179</v>
+      </c>
+      <c r="N60">
+        <v>-85096.5474193799</v>
+      </c>
+      <c r="O60">
+        <v>-42517.3445392284</v>
+      </c>
+      <c r="P60">
+        <v>161408.754798758</v>
+      </c>
+      <c r="Q60">
+        <v>872401.801156811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>17948958.2502357</v>
+      </c>
+      <c r="D61">
+        <v>6520720.21037875</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>39503.2728102524</v>
+      </c>
+      <c r="C62">
+        <v>7778732.93467332</v>
+      </c>
+      <c r="D62">
+        <v>1929005.48772304</v>
+      </c>
+      <c r="E62">
+        <v>-365242.189086275</v>
+      </c>
+      <c r="F62">
+        <v>-697061.914644437</v>
+      </c>
+      <c r="G62">
+        <v>1058925.63333386</v>
+      </c>
+      <c r="H62">
+        <v>-70728.4719601739</v>
+      </c>
+      <c r="I62">
+        <v>-570012.851384236</v>
+      </c>
+      <c r="J62">
+        <v>-915610.908931121</v>
+      </c>
+      <c r="K62">
+        <v>-198016.092021717</v>
+      </c>
+      <c r="L62">
+        <v>-606171.844529454</v>
+      </c>
+      <c r="M62">
+        <v>-28845.228056889</v>
+      </c>
+      <c r="N62">
+        <v>-691090.983072063</v>
+      </c>
+      <c r="O62">
+        <v>-32886.2051200122</v>
+      </c>
+      <c r="P62">
+        <v>1819438.40034888</v>
+      </c>
+      <c r="Q62">
+        <v>630461.866429541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>90.0563174400304</v>
+      </c>
+      <c r="C63">
+        <v>2837877.28151136</v>
+      </c>
+      <c r="D63">
+        <v>675733.74925737</v>
+      </c>
+      <c r="E63">
+        <v>-737.681536411401</v>
+      </c>
+      <c r="F63">
+        <v>-2073.68780775369</v>
+      </c>
+      <c r="G63">
+        <v>2260.4420212474</v>
+      </c>
+      <c r="H63">
+        <v>-79.8717174006924</v>
+      </c>
+      <c r="I63">
+        <v>-1630.54948201989</v>
+      </c>
+      <c r="J63">
+        <v>-1655.80295733207</v>
+      </c>
+      <c r="K63">
+        <v>-470.540158012227</v>
+      </c>
+      <c r="L63">
+        <v>-1452.54568505834</v>
+      </c>
+      <c r="M63">
+        <v>-68.6168537617959</v>
+      </c>
+      <c r="N63">
+        <v>-1486.28157079884</v>
+      </c>
+      <c r="O63">
+        <v>-70.2199689612826</v>
+      </c>
+      <c r="P63">
+        <v>4440.11614629744</v>
+      </c>
+      <c r="Q63">
+        <v>1484.90682257716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>42341470.7924843</v>
+      </c>
+      <c r="D64">
+        <v>13865254.6087896</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65">
+        <v>16153.9952323074</v>
+      </c>
+      <c r="C65">
+        <v>21435029.7886308</v>
+      </c>
+      <c r="D65">
+        <v>10476199.6363563</v>
+      </c>
+      <c r="E65">
+        <v>-144017.922446365</v>
+      </c>
+      <c r="F65">
+        <v>-373325.312085217</v>
+      </c>
+      <c r="G65">
+        <v>571929.189548246</v>
+      </c>
+      <c r="H65">
+        <v>-52814.0527644427</v>
+      </c>
+      <c r="I65">
+        <v>-163162.078748574</v>
+      </c>
+      <c r="J65">
+        <v>-453016.701120068</v>
+      </c>
+      <c r="K65">
+        <v>-84712.2992569348</v>
+      </c>
+      <c r="L65">
+        <v>-216035.149953677</v>
+      </c>
+      <c r="M65">
+        <v>-23857.3650858598</v>
+      </c>
+      <c r="N65">
+        <v>-221053.809902514</v>
+      </c>
+      <c r="O65">
+        <v>-24411.5336285904</v>
+      </c>
+      <c r="P65">
+        <v>545442.710373318</v>
+      </c>
+      <c r="Q65">
+        <v>408814.947350766</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>23182351.4436978</v>
+      </c>
+      <c r="D66">
+        <v>7139199.25392651</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67">
+        <v>67104.6189125627</v>
+      </c>
+      <c r="C67">
+        <v>13788368.8928327</v>
+      </c>
+      <c r="D67">
+        <v>3770045.75740546</v>
+      </c>
+      <c r="E67">
+        <v>-539250.168399885</v>
+      </c>
+      <c r="F67">
+        <v>-1545922.95110459</v>
+      </c>
+      <c r="G67">
+        <v>1804469.27487152</v>
+      </c>
+      <c r="H67">
+        <v>-199321.988616139</v>
+      </c>
+      <c r="I67">
+        <v>-1147290.20280996</v>
+      </c>
+      <c r="J67">
+        <v>-1266944.08459822</v>
+      </c>
+      <c r="K67">
+        <v>-350789.277676959</v>
+      </c>
+      <c r="L67">
+        <v>-1087548.31827478</v>
+      </c>
+      <c r="M67">
+        <v>-58908.4951928817</v>
+      </c>
+      <c r="N67">
+        <v>-1112812.9805834</v>
+      </c>
+      <c r="O67">
+        <v>-60277.0606102422</v>
+      </c>
+      <c r="P67">
+        <v>3074524.23780924</v>
+      </c>
+      <c r="Q67">
+        <v>1280269.36456561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>55198549.8681399</v>
+      </c>
+      <c r="D68">
+        <v>15025667.1683225</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>25097461.8894993</v>
+      </c>
+      <c r="D69">
+        <v>8203513.58688765</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70">
+        <v>60422.694394365</v>
+      </c>
+      <c r="C70">
+        <v>4482645.44973848</v>
+      </c>
+      <c r="D70">
+        <v>5905355.66279665</v>
+      </c>
+      <c r="E70">
+        <v>-686222.696115728</v>
+      </c>
+      <c r="F70">
+        <v>-1639710.316821</v>
+      </c>
+      <c r="G70">
+        <v>2579256.61088666</v>
+      </c>
+      <c r="H70">
+        <v>-120772.868236527</v>
+      </c>
+      <c r="I70">
+        <v>-615958.31917366</v>
+      </c>
+      <c r="J70">
+        <v>-1104472.21443756</v>
+      </c>
+      <c r="K70">
+        <v>-326814.31354722</v>
+      </c>
+      <c r="L70">
+        <v>-506936.463168822</v>
+      </c>
+      <c r="M70">
+        <v>-157539.061072748</v>
+      </c>
+      <c r="N70">
+        <v>-546961.705316789</v>
+      </c>
+      <c r="O70">
+        <v>-169977.568623144</v>
+      </c>
+      <c r="P70">
+        <v>1716310.23061927</v>
+      </c>
+      <c r="Q70">
+        <v>3473183.2494284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>21500870.8090393</v>
+      </c>
+      <c r="D71">
+        <v>13222436.0606393</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>13979138.4408831</v>
+      </c>
+      <c r="D72">
+        <v>18386748.5552003</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>73486849.204367</v>
+      </c>
+      <c r="D73">
+        <v>15102908.7983677</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74">
+        <v>43955.2110049408</v>
+      </c>
+      <c r="C74">
+        <v>13624845.2782107</v>
+      </c>
+      <c r="D74">
+        <v>6437784.61682028</v>
+      </c>
+      <c r="E74">
+        <v>-365769.872387173</v>
+      </c>
+      <c r="F74">
+        <v>-850941.485989606</v>
+      </c>
+      <c r="G74">
+        <v>1586148.52819243</v>
+      </c>
+      <c r="H74">
+        <v>-60910.0569353905</v>
+      </c>
+      <c r="I74">
+        <v>-503008.554010885</v>
+      </c>
+      <c r="J74">
+        <v>-1083652.26253751</v>
+      </c>
+      <c r="K74">
+        <v>-223985.691465205</v>
+      </c>
+      <c r="L74">
+        <v>-637357.599221868</v>
+      </c>
+      <c r="M74">
+        <v>-62925.4308633972</v>
+      </c>
+      <c r="N74">
+        <v>-655176.058522193</v>
+      </c>
+      <c r="O74">
+        <v>-64684.5544560347</v>
+      </c>
+      <c r="P74">
+        <v>1339238.6087717</v>
+      </c>
+      <c r="Q74">
+        <v>1066322.08652445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>41346604.9561958</v>
+      </c>
+      <c r="D75">
+        <v>10809674.2912764</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:BB600">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results/derivatives.xlsx
+++ b/results/derivatives.xlsx
@@ -612,31 +612,31 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>86515.7633557101</v>
+        <v>86515.763355419</v>
       </c>
       <c r="C2">
-        <v>1204489.44835487</v>
+        <v>241586.279502008</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-7.27595761418343e-08</v>
       </c>
       <c r="E2">
-        <v>-231252.364286047</v>
+        <v>-61758.7046090193</v>
       </c>
       <c r="F2">
-        <v>21006.6588700283</v>
+        <v>21006.6588702466</v>
       </c>
       <c r="G2">
-        <v>-15408.8471891009</v>
+        <v>-4115.11659513053</v>
       </c>
       <c r="H2">
-        <v>270377.227558929</v>
+        <v>69686.0223128169</v>
       </c>
       <c r="I2">
-        <v>65166.459044267</v>
+        <v>15414.4287313829</v>
       </c>
       <c r="J2">
-        <v>-48510.2679481497</v>
+        <v>-12955.2461786807</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>107086.911279766</v>
+        <v>107086.911279839</v>
       </c>
       <c r="P2">
-        <v>1799740.4460056</v>
+        <v>360976.676893115</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -662,31 +662,31 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>527119.638491422</v>
+        <v>527119.638492004</v>
       </c>
       <c r="C3">
-        <v>4502940.11485996</v>
+        <v>990375.206298195</v>
       </c>
       <c r="D3">
-        <v>4.65661287307739e-06</v>
+        <v>5.82076609134674e-07</v>
       </c>
       <c r="E3">
-        <v>-1484555.11689652</v>
+        <v>-474279.819536023</v>
       </c>
       <c r="F3">
-        <v>433636.047362816</v>
+        <v>433636.047360487</v>
       </c>
       <c r="G3">
-        <v>-157609.263868071</v>
+        <v>-50352.3866349133</v>
       </c>
       <c r="H3">
-        <v>1553938.48663429</v>
+        <v>463959.045559168</v>
       </c>
       <c r="I3">
-        <v>1671703.50950677</v>
+        <v>408336.902522133</v>
       </c>
       <c r="J3">
-        <v>-361523.784941528</v>
+        <v>-115498.19439475</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>530018.239000347</v>
+        <v>530018.238995108</v>
       </c>
       <c r="P3">
-        <v>13179402.4954969</v>
+        <v>2898673.56270319</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -712,31 +712,31 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>681083.520831307</v>
+        <v>681083.520832472</v>
       </c>
       <c r="C4">
-        <v>3600942.39366241</v>
+        <v>702192.265786871</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-437403.793029371</v>
+        <v>-156300.480151258</v>
       </c>
       <c r="F4">
-        <v>138517.292012693</v>
+        <v>138517.292012984</v>
       </c>
       <c r="G4">
-        <v>-48182.0813380182</v>
+        <v>-17217.2316923388</v>
       </c>
       <c r="H4">
-        <v>647953.707306297</v>
+        <v>216386.045421823</v>
       </c>
       <c r="I4">
-        <v>523229.444735334</v>
+        <v>127806.090947706</v>
       </c>
       <c r="J4">
-        <v>-106518.022137461</v>
+        <v>-38062.8112284467</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>309340.594687383</v>
+        <v>309340.594688256</v>
       </c>
       <c r="P4">
-        <v>3553493.54866892</v>
+        <v>692939.629022439</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -762,31 +762,31 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>81749.4328897556</v>
+        <v>81749.4328897419</v>
       </c>
       <c r="C5">
-        <v>933484.626601507</v>
+        <v>173501.81859303</v>
       </c>
       <c r="D5">
-        <v>-4.54747350886464e-09</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-3793.69551489162</v>
+        <v>-1065.77827988303</v>
       </c>
       <c r="F5">
-        <v>305.148296033622</v>
+        <v>305.148296034758</v>
       </c>
       <c r="G5">
-        <v>-494.664617663148</v>
+        <v>-138.96813892643</v>
       </c>
       <c r="H5">
-        <v>3735.72017537299</v>
+        <v>1012.84339589256</v>
       </c>
       <c r="I5">
-        <v>1846.21433545999</v>
+        <v>436.702250111694</v>
       </c>
       <c r="J5">
-        <v>-795.811046104973</v>
+        <v>-223.57042744261</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2850.15749886497</v>
+        <v>2850.15749886156</v>
       </c>
       <c r="P5">
-        <v>28442.6873632901</v>
+        <v>5286.49089933765</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -812,31 +812,31 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>766257.615337236</v>
+        <v>766257.615337126</v>
       </c>
       <c r="C6">
-        <v>23467353.8836429</v>
+        <v>5069017.71686395</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-77829.1664639255</v>
+        <v>-19097.3196472441</v>
       </c>
       <c r="F6">
         <v>6769.93459921505</v>
       </c>
       <c r="G6">
-        <v>-6998.38549648121</v>
+        <v>-1717.22775550734</v>
       </c>
       <c r="H6">
-        <v>45429.7257249709</v>
+        <v>11212.0970795513</v>
       </c>
       <c r="I6">
-        <v>17550.7639474381</v>
+        <v>3983.32927425145</v>
       </c>
       <c r="J6">
-        <v>-13932.8106034372</v>
+        <v>-3418.76124044575</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8798.31406396988</v>
+        <v>8798.31406387893</v>
       </c>
       <c r="P6">
-        <v>520714.683326078</v>
+        <v>112475.908800679</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -862,31 +862,31 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>927711.503438768</v>
+        <v>927711.503438986</v>
       </c>
       <c r="C7">
-        <v>7312524.3210388</v>
+        <v>1351338.5695334</v>
       </c>
       <c r="D7">
-        <v>-2.91038304567337e-07</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-180465.602310142</v>
+        <v>-54775.2800888702</v>
       </c>
       <c r="F7">
-        <v>34567.3069349141</v>
+        <v>34567.3069351324</v>
       </c>
       <c r="G7">
-        <v>-16542.0454542618</v>
+        <v>-5020.87467852107</v>
       </c>
       <c r="H7">
-        <v>221192.088107055</v>
+        <v>66947.8671313118</v>
       </c>
       <c r="I7">
-        <v>153337.54745865</v>
+        <v>35102.5289946847</v>
       </c>
       <c r="J7">
-        <v>-42234.4882396283</v>
+        <v>-12819.0962327062</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>115014.961039706</v>
+        <v>115014.961040288</v>
       </c>
       <c r="P7">
-        <v>1495811.70062185</v>
+        <v>276422.744741431</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -912,31 +912,31 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>869219.135624589</v>
+        <v>869219.135625171</v>
       </c>
       <c r="C8">
-        <v>46434933.5772166</v>
+        <v>10690655.2090927</v>
       </c>
       <c r="D8">
-        <v>1.16415321826935e-06</v>
+        <v>2.91038304567337e-07</v>
       </c>
       <c r="E8">
-        <v>-594483.32524451</v>
+        <v>-146623.578508879</v>
       </c>
       <c r="F8">
-        <v>108538.31524495</v>
+        <v>108538.315245678</v>
       </c>
       <c r="G8">
-        <v>-65994.9507185956</v>
+        <v>-16277.0180875668</v>
       </c>
       <c r="H8">
-        <v>344270.186801441</v>
+        <v>82904.2190973996</v>
       </c>
       <c r="I8">
-        <v>124795.832907548</v>
+        <v>29177.8900146892</v>
       </c>
       <c r="J8">
-        <v>-118487.683892017</v>
+        <v>-29223.8444439135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>24114.2299817875</v>
       </c>
       <c r="P8">
-        <v>4439310.22502773</v>
+        <v>1022056.70011463</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -962,31 +962,31 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>463753.7287327</v>
+        <v>463753.728732991</v>
       </c>
       <c r="C9">
-        <v>8743023.43585296</v>
+        <v>1756850.81291886</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-5.82076609134674e-07</v>
       </c>
       <c r="E9">
-        <v>-993916.879438329</v>
+        <v>-247022.309346939</v>
       </c>
       <c r="F9">
-        <v>196972.947492031</v>
+        <v>196972.947492613</v>
       </c>
       <c r="G9">
-        <v>-84884.3097360805</v>
+        <v>-21096.6516946792</v>
       </c>
       <c r="H9">
-        <v>934584.931593854</v>
+        <v>246537.802711828</v>
       </c>
       <c r="I9">
-        <v>432624.457470374</v>
+        <v>93046.3437116123</v>
       </c>
       <c r="J9">
-        <v>-221889.819580829</v>
+        <v>-55147.2027372802</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>184087.648011046</v>
+        <v>184087.648011628</v>
       </c>
       <c r="P9">
-        <v>8564274.04671791</v>
+        <v>1720932.34467786</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1012,31 +1012,31 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>1196697.94376241</v>
+        <v>1196697.9437627</v>
       </c>
       <c r="C10">
-        <v>7755137.84013339</v>
+        <v>1374022.1424232</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-710552.464056527</v>
+        <v>-222629.648132715</v>
       </c>
       <c r="F10">
-        <v>230972.452266142</v>
+        <v>230972.452266724</v>
       </c>
       <c r="G10">
-        <v>-40789.663863834</v>
+        <v>-12780.1801729947</v>
       </c>
       <c r="H10">
-        <v>903380.680857226</v>
+        <v>303302.750719304</v>
       </c>
       <c r="I10">
-        <v>898041.274789721</v>
+        <v>191312.99778237</v>
       </c>
       <c r="J10">
-        <v>-177638.116014423</v>
+        <v>-55657.4120331788</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>364509.33716842</v>
+        <v>364509.337169875</v>
       </c>
       <c r="P10">
-        <v>6226347.10868704</v>
+        <v>1103157.54150419</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1062,31 +1062,31 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>312246.755757369</v>
+        <v>312246.755757078</v>
       </c>
       <c r="C11">
-        <v>4203752.90928117</v>
+        <v>988313.941280649</v>
       </c>
       <c r="D11">
-        <v>-1.16415321826935e-06</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-515445.952630253</v>
+        <v>-153950.783159526</v>
       </c>
       <c r="F11">
-        <v>111957.176845171</v>
+        <v>111957.176844007</v>
       </c>
       <c r="G11">
-        <v>-29516.0197518999</v>
+        <v>-8815.69509510882</v>
       </c>
       <c r="H11">
-        <v>543121.516098618</v>
+        <v>145573.961288901</v>
       </c>
       <c r="I11">
-        <v>342473.991405568</v>
+        <v>87117.7301782882</v>
       </c>
       <c r="J11">
-        <v>-125259.836520418</v>
+        <v>-37411.9727441575</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>115845.937086851</v>
+        <v>115845.937086269</v>
       </c>
       <c r="P11">
-        <v>3672155.34445713</v>
+        <v>863333.882793377</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1112,31 +1112,31 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>847488.412556122</v>
+        <v>847488.412556268</v>
       </c>
       <c r="C12">
-        <v>7753345.04803352</v>
+        <v>1618862.65821893</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-156073.469346738</v>
+        <v>-47365.5512367986</v>
       </c>
       <c r="F12">
-        <v>39564.5146330935</v>
+        <v>39564.5146328025</v>
       </c>
       <c r="G12">
-        <v>-16115.0397406891</v>
+        <v>-4890.63095563324</v>
       </c>
       <c r="H12">
-        <v>176553.52369271</v>
+        <v>51817.9815541953</v>
       </c>
       <c r="I12">
-        <v>128399.102416879</v>
+        <v>30308.0696384131</v>
       </c>
       <c r="J12">
-        <v>-36212.3220216017</v>
+        <v>-10989.8024391441</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>58520.8582814084</v>
       </c>
       <c r="P12">
-        <v>1319140.61429765</v>
+        <v>275430.471389627</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1162,31 +1162,31 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>81644.2331315193</v>
+        <v>81644.2331313738</v>
       </c>
       <c r="C13">
-        <v>1162414.00232058</v>
+        <v>232314.377067414</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-75857.0202402916</v>
+        <v>-20213.9106401955</v>
       </c>
       <c r="F13">
-        <v>5947.93385695084</v>
+        <v>5947.93385705998</v>
       </c>
       <c r="G13">
-        <v>-4701.07108732918</v>
+        <v>-1252.71241300652</v>
       </c>
       <c r="H13">
-        <v>79543.5904250189</v>
+        <v>20456.1227595332</v>
       </c>
       <c r="I13">
-        <v>23375.3756643273</v>
+        <v>5529.19504192687</v>
       </c>
       <c r="J13">
-        <v>-15912.6778614882</v>
+        <v>-4240.3121994721</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36676.4308420534</v>
+        <v>36676.4308421261</v>
       </c>
       <c r="P13">
-        <v>590308.166907998</v>
+        <v>117976.103005713</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1212,31 +1212,31 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>34270.9588115395</v>
+        <v>34270.9588111757</v>
       </c>
       <c r="C14">
-        <v>1208285.50233578</v>
+        <v>256557.46139957</v>
       </c>
       <c r="D14">
-        <v>2.91038304567337e-07</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-79257.3996602732</v>
+        <v>-18832.7468412535</v>
       </c>
       <c r="F14">
-        <v>17882.7051594271</v>
+        <v>17882.7051590633</v>
       </c>
       <c r="G14">
-        <v>-1228.56365094776</v>
+        <v>-291.925149249437</v>
       </c>
       <c r="H14">
-        <v>70394.4576585491</v>
+        <v>17447.8151911899</v>
       </c>
       <c r="I14">
-        <v>21115.9639443213</v>
+        <v>4621.13924466394</v>
       </c>
       <c r="J14">
-        <v>-17879.6154113661</v>
+        <v>-4248.46477562824</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6270.36091304035</v>
+        <v>6270.36091274931</v>
       </c>
       <c r="P14">
-        <v>643109.394442436</v>
+        <v>136552.589037419</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1262,31 +1262,31 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>90785.2845363959</v>
+        <v>90785.2845365414</v>
       </c>
       <c r="C15">
-        <v>1799628.14797516</v>
+        <v>371237.727131484</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3.63797880709171e-08</v>
       </c>
       <c r="E15">
-        <v>-82231.0285813001</v>
+        <v>-20651.2106991431</v>
       </c>
       <c r="F15">
-        <v>18243.5921723663</v>
+        <v>18243.5921725119</v>
       </c>
       <c r="G15">
-        <v>-2338.92262491281</v>
+        <v>-587.388784588256</v>
       </c>
       <c r="H15">
-        <v>79874.5229127235</v>
+        <v>20924.1010395999</v>
       </c>
       <c r="I15">
-        <v>34463.8643821236</v>
+        <v>7542.27070312481</v>
       </c>
       <c r="J15">
-        <v>-18550.434057106</v>
+        <v>-4658.69062907586</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13743.0251321348</v>
+        <v>13743.0251321712</v>
       </c>
       <c r="P15">
-        <v>719941.174800624</v>
+        <v>148513.639166013</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1312,31 +1312,31 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>619693.845233414</v>
+        <v>619693.845233705</v>
       </c>
       <c r="C16">
-        <v>10182467.4335588</v>
+        <v>2001014.86862113</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.91038304567337e-07</v>
       </c>
       <c r="E16">
-        <v>-975305.940257385</v>
+        <v>-245345.928483002</v>
       </c>
       <c r="F16">
-        <v>170436.644311994</v>
+        <v>170436.644311121</v>
       </c>
       <c r="G16">
-        <v>-73831.0965185519</v>
+        <v>-18572.7966763079</v>
       </c>
       <c r="H16">
-        <v>968658.890338847</v>
+        <v>258635.115503566</v>
       </c>
       <c r="I16">
-        <v>438242.013163399</v>
+        <v>94254.5348088606</v>
       </c>
       <c r="J16">
-        <v>-217734.967177967</v>
+        <v>-54772.9542906745</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>237824.776495108</v>
+        <v>237824.776493944</v>
       </c>
       <c r="P16">
-        <v>8323971.91325668</v>
+        <v>1635791.29254154</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1362,31 +1362,31 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>76236.3362869655</v>
+        <v>76236.3362871474</v>
       </c>
       <c r="C17">
-        <v>1695996.36207073</v>
+        <v>367569.361290443</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-131054.313098284</v>
+        <v>-33726.171445378</v>
       </c>
       <c r="F17">
-        <v>11325.8332065016</v>
+        <v>11325.8332069017</v>
       </c>
       <c r="G17">
-        <v>-13954.9863571301</v>
+        <v>-3591.24588325358</v>
       </c>
       <c r="H17">
-        <v>120225.42333696</v>
+        <v>29859.0240478006</v>
       </c>
       <c r="I17">
-        <v>32083.9863475703</v>
+        <v>7589.12373370549</v>
       </c>
       <c r="J17">
-        <v>-27491.5236598463</v>
+        <v>-7074.80599696282</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33302.8912555892</v>
+        <v>33302.8912557711</v>
       </c>
       <c r="P17">
-        <v>1054779.52111556</v>
+        <v>228599.921290661</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1412,31 +1412,31 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>110108.311921795</v>
+        <v>110108.311921776</v>
       </c>
       <c r="C18">
-        <v>2508789.81721151</v>
+        <v>520348.554610064</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-50288.7117300997</v>
+        <v>-12409.6140295842</v>
       </c>
       <c r="F18">
-        <v>9017.90654716024</v>
+        <v>9017.90654721481</v>
       </c>
       <c r="G18">
-        <v>-1830.34156216308</v>
+        <v>-451.668606110616</v>
       </c>
       <c r="H18">
-        <v>41631.8782242161</v>
+        <v>10716.241805585</v>
       </c>
       <c r="I18">
-        <v>21383.5043028666</v>
+        <v>4679.6893186729</v>
       </c>
       <c r="J18">
-        <v>-11344.5915350167</v>
+        <v>-2799.47521879876</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7729.20144816453</v>
+        <v>7729.20144812815</v>
       </c>
       <c r="P18">
-        <v>443479.859050713</v>
+        <v>91982.2386365377</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1465,28 +1465,28 @@
         <v>2822435.57801237</v>
       </c>
       <c r="C19">
-        <v>179895471.628265</v>
+        <v>40252097.9353678</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-808564.418563619</v>
+        <v>-192155.284833862</v>
       </c>
       <c r="F19">
-        <v>121556.045088219</v>
+        <v>121556.045089092</v>
       </c>
       <c r="G19">
-        <v>-55.907549103722</v>
+        <v>-13.2864256738685</v>
       </c>
       <c r="H19">
-        <v>415466.259267414</v>
+        <v>99309.3555571977</v>
       </c>
       <c r="I19">
-        <v>120238.729813136</v>
+        <v>27289.4361635554</v>
       </c>
       <c r="J19">
-        <v>-144747.469573049</v>
+        <v>-34399.2273297044</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25112.4097849242</v>
+        <v>25112.4097857974</v>
       </c>
       <c r="P19">
-        <v>5208585.34045983</v>
+        <v>1165435.04587025</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1515,28 +1515,28 @@
         <v>785876.625413221</v>
       </c>
       <c r="C20">
-        <v>7040476.39013355</v>
+        <v>1338207.96721833</v>
       </c>
       <c r="D20">
-        <v>1.45519152283669e-07</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-75686.2080990686</v>
+        <v>-22383.6083689093</v>
       </c>
       <c r="F20">
-        <v>12969.4923314673</v>
+        <v>12969.4923312491</v>
       </c>
       <c r="G20">
-        <v>-8651.70197110274</v>
+        <v>-2558.67368061445</v>
       </c>
       <c r="H20">
-        <v>82106.5348941192</v>
+        <v>24214.0848950658</v>
       </c>
       <c r="I20">
-        <v>65080.8693302679</v>
+        <v>14898.5238156092</v>
       </c>
       <c r="J20">
-        <v>-17712.8950053884</v>
+        <v>-5238.45116356824</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>43241.0620560404</v>
+        <v>43241.0620560768</v>
       </c>
       <c r="P20">
-        <v>638473.97344929</v>
+        <v>121356.980804303</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1562,31 +1562,31 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>1020737.01177433</v>
+        <v>1020737.01177462</v>
       </c>
       <c r="C21">
-        <v>4216944.723583</v>
+        <v>511119.697483809</v>
       </c>
       <c r="D21">
-        <v>2.91038304567337e-07</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-139455.188423162</v>
+        <v>-56730.5094626499</v>
       </c>
       <c r="F21">
-        <v>63980.4532256676</v>
+        <v>63980.453225231</v>
       </c>
       <c r="G21">
-        <v>-17675.5990009406</v>
+        <v>-7190.45126767014</v>
       </c>
       <c r="H21">
-        <v>254992.721306626</v>
+        <v>118229.212105362</v>
       </c>
       <c r="I21">
-        <v>386901.478060172</v>
+        <v>77491.1781122501</v>
       </c>
       <c r="J21">
-        <v>-42131.6997823305</v>
+        <v>-17139.2174091307</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>242650.331245386</v>
+        <v>242650.331244949</v>
       </c>
       <c r="P21">
-        <v>1233707.74515119</v>
+        <v>149532.984380639</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1612,31 +1612,31 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>1887504.36407281</v>
+        <v>1887504.36407427</v>
       </c>
       <c r="C22">
-        <v>9248346.10610618</v>
+        <v>1315665.56937934</v>
       </c>
       <c r="D22">
-        <v>-1.16415321826935e-06</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-544647.262525978</v>
+        <v>-185022.10243867</v>
       </c>
       <c r="F22">
-        <v>211216.733491747</v>
+        <v>211216.733492038</v>
       </c>
       <c r="G22">
-        <v>-90929.5488055795</v>
+        <v>-30889.6738325711</v>
       </c>
       <c r="H22">
-        <v>937380.853333743</v>
+        <v>362943.789720593</v>
       </c>
       <c r="I22">
-        <v>1083823.66546895</v>
+        <v>217075.347255159</v>
       </c>
       <c r="J22">
-        <v>-164546.871379716</v>
+        <v>-55898.2119004941</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>584189.611863112</v>
       </c>
       <c r="P22">
-        <v>5494882.11964373</v>
+        <v>781699.46600945</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1662,31 +1662,31 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>1557383.80783587</v>
+        <v>1557383.80783383</v>
       </c>
       <c r="C23">
-        <v>14432433.3862343</v>
+        <v>3273301.68958346</v>
       </c>
       <c r="D23">
-        <v>2.3283064365387e-06</v>
+        <v>-5.82076609134674e-07</v>
       </c>
       <c r="E23">
-        <v>-556646.431516856</v>
+        <v>-176998.211028113</v>
       </c>
       <c r="F23">
-        <v>149049.817987252</v>
+        <v>149049.817985797</v>
       </c>
       <c r="G23">
-        <v>-36587.4707291368</v>
+        <v>-11633.8064856245</v>
       </c>
       <c r="H23">
-        <v>712823.099459056</v>
+        <v>203403.834418568</v>
       </c>
       <c r="I23">
-        <v>436897.710753838</v>
+        <v>111137.014302076</v>
       </c>
       <c r="J23">
-        <v>-135272.070050705</v>
+        <v>-43012.7870148863</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>186282.926368294</v>
+        <v>186282.926366839</v>
       </c>
       <c r="P23">
-        <v>4065986.14418297</v>
+        <v>922172.925341001</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1712,31 +1712,31 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>1340183.69538477</v>
+        <v>1340183.69538535</v>
       </c>
       <c r="C24">
-        <v>7082932.34143523</v>
+        <v>1198635.96735231</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5.82076609134674e-07</v>
       </c>
       <c r="E24">
-        <v>-809843.06878061</v>
+        <v>-276108.694176073</v>
       </c>
       <c r="F24">
-        <v>223536.253392231</v>
+        <v>223536.253390776</v>
       </c>
       <c r="G24">
-        <v>-87386.2057621591</v>
+        <v>-29793.5391336796</v>
       </c>
       <c r="H24">
-        <v>1018076.11354627</v>
+        <v>359536.266046925</v>
       </c>
       <c r="I24">
-        <v>995078.327195952</v>
+        <v>219301.147217629</v>
       </c>
       <c r="J24">
-        <v>-183763.257249957</v>
+        <v>-62652.4260721635</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>542503.617402399</v>
+        <v>542503.617400071</v>
       </c>
       <c r="P24">
-        <v>6004147.30650838</v>
+        <v>1016074.496824</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1762,31 +1762,31 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>634648.864585906</v>
+        <v>634648.864589399</v>
       </c>
       <c r="C25">
-        <v>12414557.4283693</v>
+        <v>2669490.33856916</v>
       </c>
       <c r="D25">
-        <v>-2.3283064365387e-06</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-2413676.14658782</v>
+        <v>-629483.816982247</v>
       </c>
       <c r="F25">
-        <v>268840.040003415</v>
+        <v>268840.040008072</v>
       </c>
       <c r="G25">
-        <v>-181515.016148333</v>
+        <v>-47338.8964642072</v>
       </c>
       <c r="H25">
-        <v>2087529.19085557</v>
+        <v>531558.67318681</v>
       </c>
       <c r="I25">
-        <v>713512.505916879</v>
+        <v>166822.793171741</v>
       </c>
       <c r="J25">
-        <v>-481074.715014547</v>
+        <v>-125463.703277637</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>537382.158888504</v>
+        <v>537382.158886176</v>
       </c>
       <c r="P25">
-        <v>18105339.7031734</v>
+        <v>3893173.77546744</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1812,31 +1812,31 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>110684.624835849</v>
+        <v>110684.624836431</v>
       </c>
       <c r="C26">
-        <v>2455548.34729584</v>
+        <v>497702.340365067</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1.45519152283669e-07</v>
       </c>
       <c r="E26">
-        <v>-519498.880440369</v>
+        <v>-126495.131537231</v>
       </c>
       <c r="F26">
-        <v>83376.7458307557</v>
+        <v>83376.7458300281</v>
       </c>
       <c r="G26">
-        <v>-31082.5862654019</v>
+        <v>-7568.43948314781</v>
       </c>
       <c r="H26">
-        <v>409239.221562166</v>
+        <v>105765.75648287</v>
       </c>
       <c r="I26">
-        <v>229258.361805696</v>
+        <v>49307.5506089372</v>
       </c>
       <c r="J26">
-        <v>-115977.015019162</v>
+        <v>-28239.7678270354</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>85311.6728260648</v>
       </c>
       <c r="P26">
-        <v>4516225.06228916</v>
+        <v>915370.200546604</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1862,31 +1862,31 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>538220.435469411</v>
+        <v>538220.435474068</v>
       </c>
       <c r="C27">
-        <v>26044382.6150615</v>
+        <v>5985398.79385149</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-3551803.07750124</v>
+        <v>-880533.331049373</v>
       </c>
       <c r="F27">
-        <v>687104.72302977</v>
+        <v>687104.723036755</v>
       </c>
       <c r="G27">
-        <v>-307611.616891809</v>
+        <v>-76260.5008715764</v>
       </c>
       <c r="H27">
-        <v>2211025.77219717</v>
+        <v>535184.844185133</v>
       </c>
       <c r="I27">
-        <v>762324.435343035</v>
+        <v>178235.266446136</v>
       </c>
       <c r="J27">
-        <v>-707917.114612646</v>
+        <v>-175500.893893186</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>161108.036199585</v>
+        <v>161108.036201913</v>
       </c>
       <c r="P27">
-        <v>26573348.4679041</v>
+        <v>6106963.26417848</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1912,31 +1912,31 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>576270.912035834</v>
+        <v>576270.912035252</v>
       </c>
       <c r="C28">
-        <v>11182708.3482035</v>
+        <v>2287323.87366763</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1830647.46675314</v>
+        <v>-458974.963779328</v>
       </c>
       <c r="F28">
-        <v>340223.500619177</v>
+        <v>340223.500618595</v>
       </c>
       <c r="G28">
-        <v>-90070.0134038925</v>
+        <v>-22582.1092765545</v>
       </c>
       <c r="H28">
-        <v>1715029.28816248</v>
+        <v>448522.830904694</v>
       </c>
       <c r="I28">
-        <v>785170.337855816</v>
+        <v>171831.201816676</v>
       </c>
       <c r="J28">
-        <v>-412974.34435226</v>
+        <v>-103539.806645131</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>350418.889024295</v>
+        <v>350418.889024877</v>
       </c>
       <c r="P28">
-        <v>16001307.4994064</v>
+        <v>3272925.61995215</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1962,31 +1962,31 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>340255.174038612</v>
+        <v>340255.174038502</v>
       </c>
       <c r="C29">
-        <v>7050206.34773537</v>
+        <v>1461748.01100082</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3.63797880709171e-08</v>
       </c>
       <c r="E29">
-        <v>-129631.982970022</v>
+        <v>-32588.7845823672</v>
       </c>
       <c r="F29">
-        <v>10340.6691706914</v>
+        <v>10340.6691709097</v>
       </c>
       <c r="G29">
-        <v>-4997.80691563501</v>
+        <v>-1256.42182760203</v>
       </c>
       <c r="H29">
-        <v>92643.9132941596</v>
+        <v>23425.538712363</v>
       </c>
       <c r="I29">
-        <v>31681.0202319175</v>
+        <v>7190.33859189949</v>
       </c>
       <c r="J29">
-        <v>-23206.4398087095</v>
+        <v>-5833.97438276734</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>26348.0214028095</v>
       </c>
       <c r="P29">
-        <v>850972.462865175</v>
+        <v>176435.588358254</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2012,31 +2012,31 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>251691.921312013</v>
+        <v>251691.921312158</v>
       </c>
       <c r="C30">
-        <v>19623912.4143717</v>
+        <v>4403098.63040689</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-629895.074140513</v>
+        <v>-148502.378953417</v>
       </c>
       <c r="F30">
-        <v>81712.9612935241</v>
+        <v>81712.9612938152</v>
       </c>
       <c r="G30">
-        <v>-23959.6912648994</v>
+        <v>-5648.6727677111</v>
       </c>
       <c r="H30">
-        <v>273845.380490529</v>
+        <v>64936.2663891225</v>
       </c>
       <c r="I30">
-        <v>91107.360861497</v>
+        <v>20677.7675723424</v>
       </c>
       <c r="J30">
-        <v>-112762.466398417</v>
+        <v>-26584.5776609785</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>15749.5165412547</v>
+        <v>15749.5165411092</v>
       </c>
       <c r="P30">
-        <v>4053602.98939748</v>
+        <v>909523.717490665</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2062,31 +2062,31 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>562112.42749996</v>
+        <v>562112.427499233</v>
       </c>
       <c r="C31">
-        <v>3054033.16211188</v>
+        <v>486682.633121818</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.45519152283669e-07</v>
       </c>
       <c r="E31">
-        <v>-210924.235045386</v>
+        <v>-68968.4425441374</v>
       </c>
       <c r="F31">
-        <v>76454.8707014183</v>
+        <v>76454.8707006907</v>
       </c>
       <c r="G31">
-        <v>-21342.009754735</v>
+        <v>-6978.45448288717</v>
       </c>
       <c r="H31">
-        <v>351175.652371603</v>
+        <v>125107.188625116</v>
       </c>
       <c r="I31">
-        <v>320638.190621103</v>
+        <v>67181.2681626761</v>
       </c>
       <c r="J31">
-        <v>-59917.7219424746</v>
+        <v>-19592.0206241135</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>176976.181843493</v>
+        <v>176976.181843056</v>
       </c>
       <c r="P31">
-        <v>2060772.76947297</v>
+        <v>328399.288572255</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2112,31 +2112,31 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>189608.069801952</v>
+        <v>189608.069801953</v>
       </c>
       <c r="C32">
-        <v>769228.218160422</v>
+        <v>117757.802107677</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>-458.170039494235</v>
+        <v>-168.939167150484</v>
       </c>
       <c r="F32">
-        <v>153.287651057781</v>
+        <v>153.287651058349</v>
       </c>
       <c r="G32">
-        <v>-17.8857986168168</v>
+        <v>-6.59495746475613</v>
       </c>
       <c r="H32">
-        <v>732.182599426778</v>
+        <v>279.644517359543</v>
       </c>
       <c r="I32">
-        <v>544.932199793493</v>
+        <v>120.09532647312</v>
       </c>
       <c r="J32">
-        <v>-103.964363069622</v>
+        <v>-38.3343549256665</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>381.820673543984</v>
+        <v>381.820673543132</v>
       </c>
       <c r="P32">
-        <v>3191.63167311729</v>
+        <v>488.593010618104</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2162,31 +2162,31 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>1418652.20623789</v>
+        <v>1418652.20623724</v>
       </c>
       <c r="C33">
-        <v>18718661.8493774</v>
+        <v>3721799.14048836</v>
       </c>
       <c r="D33">
-        <v>5.82076609134674e-07</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-203624.150090327</v>
+        <v>-54472.1813585056</v>
       </c>
       <c r="F33">
-        <v>35969.3887626054</v>
+        <v>35969.3887620233</v>
       </c>
       <c r="G33">
-        <v>-29023.0399972643</v>
+        <v>-7764.05105985759</v>
       </c>
       <c r="H33">
-        <v>183115.898240649</v>
+        <v>50740.5040846061</v>
       </c>
       <c r="I33">
-        <v>136727.952119836</v>
+        <v>30132.9010359768</v>
       </c>
       <c r="J33">
-        <v>-46204.8000629875</v>
+        <v>-12360.401492333</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>46654.9836922786</v>
+        <v>46654.9836920603</v>
       </c>
       <c r="P33">
-        <v>1363693.66729603</v>
+        <v>271140.85182322</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2212,31 +2212,31 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>971164.752572658</v>
+        <v>971164.75257295</v>
       </c>
       <c r="C34">
-        <v>4344229.32309855</v>
+        <v>707886.679399817</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2.91038304567337e-07</v>
       </c>
       <c r="E34">
-        <v>-386986.532157753</v>
+        <v>-137682.19346719</v>
       </c>
       <c r="F34">
-        <v>129572.377447621</v>
+        <v>129572.377447039</v>
       </c>
       <c r="G34">
-        <v>-47916.9880464906</v>
+        <v>-17047.9214920488</v>
       </c>
       <c r="H34">
-        <v>585525.52206791</v>
+        <v>215779.905472009</v>
       </c>
       <c r="I34">
-        <v>443707.586640958</v>
+        <v>97786.857697356</v>
       </c>
       <c r="J34">
-        <v>-87811.9581466308</v>
+        <v>-31241.7668465059</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>274575.644769939</v>
+        <v>274575.644770375</v>
       </c>
       <c r="P34">
-        <v>2783462.60179009</v>
+        <v>453561.714142998</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2262,31 +2262,31 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>323011.763240211</v>
+        <v>323011.763238464</v>
       </c>
       <c r="C35">
-        <v>8574879.32761782</v>
+        <v>1911556.03406311</v>
       </c>
       <c r="D35">
-        <v>1.16415321826935e-06</v>
+        <v>-5.82076609134674e-07</v>
       </c>
       <c r="E35">
-        <v>-1299478.42829628</v>
+        <v>-332845.472096815</v>
       </c>
       <c r="F35">
-        <v>182224.338041851</v>
+        <v>182224.338037777</v>
       </c>
       <c r="G35">
-        <v>-89678.0790807679</v>
+        <v>-22969.9408006854</v>
       </c>
       <c r="H35">
-        <v>1001104.23590639</v>
+        <v>250360.585390008</v>
       </c>
       <c r="I35">
-        <v>356790.441260673</v>
+        <v>83419.3899802631</v>
       </c>
       <c r="J35">
-        <v>-259001.695585903</v>
+        <v>-66340.109820012</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>166771.703236736</v>
+        <v>166771.703236154</v>
       </c>
       <c r="P35">
-        <v>9908714.86117132</v>
+        <v>2208901.48525767</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2315,28 +2315,28 @@
         <v>1040105.58112059</v>
       </c>
       <c r="C36">
-        <v>10516265.6779995</v>
+        <v>2098930.66370249</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2.91038304567337e-07</v>
       </c>
       <c r="E36">
-        <v>-423587.452821084</v>
+        <v>-121514.382844325</v>
       </c>
       <c r="F36">
-        <v>119346.771791461</v>
+        <v>119346.771790297</v>
       </c>
       <c r="G36">
-        <v>-27409.0210814029</v>
+        <v>-7862.81618784415</v>
       </c>
       <c r="H36">
-        <v>517773.755731178</v>
+        <v>151278.200469387</v>
       </c>
       <c r="I36">
-        <v>399183.628489845</v>
+        <v>89472.1519836457</v>
       </c>
       <c r="J36">
-        <v>-111496.97565299</v>
+        <v>-31985.0979893818</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>127718.879709137</v>
+        <v>127718.879707973</v>
       </c>
       <c r="P36">
-        <v>3261933.61714191</v>
+        <v>651045.979782357</v>
       </c>
     </row>
   </sheetData>
@@ -2438,49 +2438,49 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2189583.89427979</v>
+        <v>259971.257172001</v>
       </c>
       <c r="C2">
-        <v>853634.511127602</v>
+        <v>208126.760100713</v>
       </c>
       <c r="D2">
-        <v>-773946.77893375</v>
+        <v>-114944.37199086</v>
       </c>
       <c r="E2">
-        <v>-638887.893959181</v>
+        <v>-94964.5127898839</v>
       </c>
       <c r="F2">
-        <v>806962.961842073</v>
+        <v>66529.183860257</v>
       </c>
       <c r="G2">
-        <v>-42337.1411359403</v>
+        <v>-6280.18685587449</v>
       </c>
       <c r="H2">
-        <v>-371222.288265126</v>
+        <v>-53097.0543003059</v>
       </c>
       <c r="I2">
-        <v>-1685572.6884678</v>
+        <v>-40905.0909119833</v>
       </c>
       <c r="J2">
-        <v>-134020.84674919</v>
+        <v>-19920.9080178116</v>
       </c>
       <c r="K2">
-        <v>-109139.834989328</v>
+        <v>-12081.6769699741</v>
       </c>
       <c r="L2">
-        <v>-527.895943960175</v>
+        <v>-193.290230381535</v>
       </c>
       <c r="M2">
-        <v>-123047.071991023</v>
+        <v>-20431.7678052757</v>
       </c>
       <c r="N2">
-        <v>-595.161076635122</v>
+        <v>-326.869333075592</v>
       </c>
       <c r="O2">
-        <v>1361058.34097019</v>
+        <v>223998.087510845</v>
       </c>
       <c r="P2">
-        <v>506739.442793187</v>
+        <v>185509.497211606</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2488,49 +2488,49 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>9743688.57045192</v>
+        <v>1348714.6092474</v>
       </c>
       <c r="C3">
-        <v>2159981.81387316</v>
+        <v>502684.7020071</v>
       </c>
       <c r="D3">
-        <v>-6039974.01681263</v>
+        <v>-925645.791921997</v>
       </c>
       <c r="E3">
-        <v>-4166535.20648368</v>
+        <v>-640487.425491447</v>
       </c>
       <c r="F3">
-        <v>8821899.67574552</v>
+        <v>1113270.61994001</v>
       </c>
       <c r="G3">
-        <v>-435903.433957137</v>
+        <v>-66615.2611456346</v>
       </c>
       <c r="H3">
-        <v>-2143347.90180437</v>
+        <v>-305247.180048609</v>
       </c>
       <c r="I3">
-        <v>-19590109.6837129</v>
+        <v>-636985.968723893</v>
       </c>
       <c r="J3">
-        <v>-1014649.57946911</v>
+        <v>-155973.862524843</v>
       </c>
       <c r="K3">
-        <v>-2842400.72194021</v>
+        <v>-316030.714213848</v>
       </c>
       <c r="L3">
-        <v>-2482.764958404</v>
+        <v>-867.49441572465</v>
       </c>
       <c r="M3">
-        <v>-3096312.06710357</v>
+        <v>-516391.740923282</v>
       </c>
       <c r="N3">
-        <v>-2704.52764816582</v>
+        <v>-1417.43670217693</v>
       </c>
       <c r="O3">
-        <v>7131050.06182566</v>
+        <v>1185765.82851238</v>
       </c>
       <c r="P3">
-        <v>2612478.62464283</v>
+        <v>910252.941617509</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2538,49 +2538,49 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>13385172.1260697</v>
+        <v>1792255.10089833</v>
       </c>
       <c r="C4">
-        <v>2150444.73549118</v>
+        <v>531664.856598363</v>
       </c>
       <c r="D4">
-        <v>-2841301.24576157</v>
+        <v>-416502.119718352</v>
       </c>
       <c r="E4">
-        <v>-1958024.57107231</v>
+        <v>-287770.888473024</v>
       </c>
       <c r="F4">
-        <v>3067560.46005758</v>
+        <v>357807.262732531</v>
       </c>
       <c r="G4">
-        <v>-213577.454835176</v>
+        <v>-31212.0597809553</v>
       </c>
       <c r="H4">
-        <v>-1433742.80205229</v>
+        <v>-195343.30532595</v>
       </c>
       <c r="I4">
-        <v>-6858556.22547213</v>
+        <v>-209075.758557301</v>
       </c>
       <c r="J4">
-        <v>-476825.01230156</v>
+        <v>-70079.0024473099</v>
       </c>
       <c r="K4">
-        <v>-1189192.97620188</v>
+        <v>-132153.490058845</v>
       </c>
       <c r="L4">
-        <v>-1061.58031150699</v>
+        <v>-394.496972439811</v>
       </c>
       <c r="M4">
-        <v>-1295423.44512651</v>
+        <v>-215937.788987067</v>
       </c>
       <c r="N4">
-        <v>-1156.40386240557</v>
+        <v>-644.58429988008</v>
       </c>
       <c r="O4">
-        <v>4120658.33410481</v>
+        <v>683525.016827043</v>
       </c>
       <c r="P4">
-        <v>876740.685966797</v>
+        <v>324630.736383842</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2588,49 +2588,49 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>2219044.16672767</v>
+        <v>256344.640640625</v>
       </c>
       <c r="C5">
-        <v>253776.912864087</v>
+        <v>64311.6717705539</v>
       </c>
       <c r="D5">
-        <v>-15720.6989102815</v>
+        <v>-1973.21655166206</v>
       </c>
       <c r="E5">
-        <v>-12969.1091626773</v>
+        <v>-1628.66269176675</v>
       </c>
       <c r="F5">
-        <v>13677.3056281527</v>
+        <v>1218.37705836924</v>
       </c>
       <c r="G5">
-        <v>-1686.66561505233</v>
+        <v>-211.224679055704</v>
       </c>
       <c r="H5">
-        <v>-6365.97691624047</v>
+        <v>-769.040755076276</v>
       </c>
       <c r="I5">
-        <v>-50025.4198307812</v>
+        <v>-1292.81209435248</v>
       </c>
       <c r="J5">
-        <v>-2720.56654090193</v>
+        <v>-341.649683855394</v>
       </c>
       <c r="K5">
-        <v>-1787.61059032695</v>
+        <v>-199.383490705713</v>
       </c>
       <c r="L5">
-        <v>-3.91238148949924</v>
+        <v>-1.48719345361314</v>
       </c>
       <c r="M5">
-        <v>-2015.38364670341</v>
+        <v>-337.185161024536</v>
       </c>
       <c r="N5">
-        <v>-4.40505174992722</v>
+        <v>-2.51447904702218</v>
       </c>
       <c r="O5">
-        <v>36051.2314223706</v>
+        <v>5932.5923221968</v>
       </c>
       <c r="P5">
-        <v>3076.31649257019</v>
+        <v>1170.11595860731</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2638,49 +2638,49 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>16509649.528513</v>
+        <v>2140049.49150392</v>
       </c>
       <c r="C6">
-        <v>11251158.3914784</v>
+        <v>2642570.87414235</v>
       </c>
       <c r="D6">
-        <v>-96223.1923999207</v>
+        <v>-16035.2549254094</v>
       </c>
       <c r="E6">
-        <v>-99214.9877760676</v>
+        <v>-16715.8778230987</v>
       </c>
       <c r="F6">
-        <v>184890.352608782</v>
+        <v>20018.0238895155</v>
       </c>
       <c r="G6">
-        <v>-8878.46756231738</v>
+        <v>-1490.7717899041</v>
       </c>
       <c r="H6">
-        <v>-28207.7642716467</v>
+        <v>-4716.57783087721</v>
       </c>
       <c r="I6">
-        <v>-294410.015105677</v>
+        <v>-8098.27933344422</v>
       </c>
       <c r="J6">
-        <v>-17761.1826300563</v>
+        <v>-2992.45396572587</v>
       </c>
       <c r="K6">
-        <v>-24031.0100992792</v>
+        <v>-2668.32704706758</v>
       </c>
       <c r="L6">
-        <v>-138.266979483888</v>
+        <v>-48.8338058858062</v>
       </c>
       <c r="M6">
-        <v>-25141.5892959631</v>
+        <v>-4187.44896676799</v>
       </c>
       <c r="N6">
-        <v>-144.539961329428</v>
+        <v>-76.6288793056447</v>
       </c>
       <c r="O6">
-        <v>121102.531500946</v>
+        <v>20083.8800657584</v>
       </c>
       <c r="P6">
-        <v>109451.223149954</v>
+        <v>38061.3561711471</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2688,49 +2688,49 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>20645212.9592677</v>
+        <v>2668629.47091897</v>
       </c>
       <c r="C7">
-        <v>3416127.52669957</v>
+        <v>866570.124301797</v>
       </c>
       <c r="D7">
-        <v>-912416.122953873</v>
+        <v>-130443.002056563</v>
       </c>
       <c r="E7">
-        <v>-661259.709520964</v>
+        <v>-95005.2729526942</v>
       </c>
       <c r="F7">
-        <v>958267.570930766</v>
+        <v>103395.436348801</v>
       </c>
       <c r="G7">
-        <v>-60196.4324398432</v>
+        <v>-8603.16742851865</v>
       </c>
       <c r="H7">
-        <v>-400819.787046639</v>
+        <v>-56865.0204122241</v>
       </c>
       <c r="I7">
-        <v>-2546683.69715335</v>
+        <v>-70031.9325161399</v>
       </c>
       <c r="J7">
-        <v>-154755.15888189</v>
+        <v>-22234.1746046732</v>
       </c>
       <c r="K7">
-        <v>-309200.050515356</v>
+        <v>-34388.2328004111</v>
       </c>
       <c r="L7">
-        <v>-450.507418718189</v>
+        <v>-172.131206491031</v>
       </c>
       <c r="M7">
-        <v>-308008.730844595</v>
+        <v>-51383.5314098105</v>
       </c>
       <c r="N7">
-        <v>-448.753726668656</v>
+        <v>-257.195171434432</v>
       </c>
       <c r="O7">
-        <v>1665417.76586324</v>
+        <v>275954.213021178</v>
       </c>
       <c r="P7">
-        <v>318144.032737473</v>
+        <v>120236.353522923</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2738,49 +2738,49 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>15629688.7433348</v>
+        <v>2207902.18229202</v>
       </c>
       <c r="C8">
-        <v>21773901.9880397</v>
+        <v>4962226.67123438</v>
       </c>
       <c r="D8">
-        <v>-549032.486258075</v>
+        <v>-102435.58439659</v>
       </c>
       <c r="E8">
-        <v>-504411.28290433</v>
+        <v>-95427.8341526515</v>
       </c>
       <c r="F8">
-        <v>2146602.07041074</v>
+        <v>278990.249837661</v>
       </c>
       <c r="G8">
-        <v>-55578.5978975473</v>
+        <v>-10475.1266175299</v>
       </c>
       <c r="H8">
-        <v>-139244.739169371</v>
+        <v>-25299.060872494</v>
       </c>
       <c r="I8">
-        <v>-1416007.84935057</v>
+        <v>-44813.7569487153</v>
       </c>
       <c r="J8">
-        <v>-100535.319644841</v>
+        <v>-19019.9295812636</v>
       </c>
       <c r="K8">
-        <v>-156075.574576389</v>
+        <v>-17450.8307085489</v>
       </c>
       <c r="L8">
-        <v>-1198.93177063204</v>
+        <v>-410.358009830816</v>
       </c>
       <c r="M8">
-        <v>-168398.566813557</v>
+        <v>-28242.9395217332</v>
       </c>
       <c r="N8">
-        <v>-1293.5515929712</v>
+        <v>-664.132906094892</v>
       </c>
       <c r="O8">
-        <v>327416.341076605</v>
+        <v>54814.1689416661</v>
       </c>
       <c r="P8">
-        <v>892474.18243147</v>
+        <v>300183.890870831</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2788,49 +2788,49 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>9394203.65900267</v>
+        <v>1272105.24591617</v>
       </c>
       <c r="C9">
-        <v>5568156.76919417</v>
+        <v>1356064.6526044</v>
       </c>
       <c r="D9">
-        <v>-2348434.68401814</v>
+        <v>-402734.816727461</v>
       </c>
       <c r="E9">
-        <v>-1807887.06647931</v>
+        <v>-311091.449483647</v>
       </c>
       <c r="F9">
-        <v>4579941.95673848</v>
+        <v>537223.83244487</v>
       </c>
       <c r="G9">
-        <v>-153024.064516649</v>
+        <v>-26224.3164976826</v>
       </c>
       <c r="H9">
-        <v>-836712.450643536</v>
+        <v>-151708.255417179</v>
       </c>
       <c r="I9">
-        <v>-6050965.89295892</v>
+        <v>-163270.912166336</v>
       </c>
       <c r="J9">
-        <v>-403607.218470424</v>
+        <v>-69450.5811005365</v>
       </c>
       <c r="K9">
-        <v>-783569.07249894</v>
+        <v>-87196.363308467</v>
       </c>
       <c r="L9">
-        <v>-3085.97557945177</v>
+        <v>-1129.87979897298</v>
       </c>
       <c r="M9">
-        <v>-791011.291819159</v>
+        <v>-132036.609724746</v>
       </c>
       <c r="N9">
-        <v>-3115.26950215921</v>
+        <v>-1710.86699410807</v>
       </c>
       <c r="O9">
-        <v>2651288.96346316</v>
+        <v>440478.729930473</v>
       </c>
       <c r="P9">
-        <v>2437803.26576438</v>
+        <v>887712.739915005</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2838,49 +2838,49 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>22147835.5398169</v>
+        <v>3034262.47301395</v>
       </c>
       <c r="C10">
-        <v>4156303.11116576</v>
+        <v>1074599.40936882</v>
       </c>
       <c r="D10">
-        <v>-3752242.51643755</v>
+        <v>-572072.241236456</v>
       </c>
       <c r="E10">
-        <v>-2517482.37497173</v>
+        <v>-386390.537185362</v>
       </c>
       <c r="F10">
-        <v>4720727.72500105</v>
+        <v>567919.596079737</v>
       </c>
       <c r="G10">
-        <v>-142914.100810885</v>
+        <v>-21803.5658454755</v>
       </c>
       <c r="H10">
-        <v>-1573706.01395611</v>
+        <v>-255676.527167088</v>
       </c>
       <c r="I10">
-        <v>-10685772.9111612</v>
+        <v>-290285.324101569</v>
       </c>
       <c r="J10">
-        <v>-629371.118932031</v>
+        <v>-96597.7540396852</v>
       </c>
       <c r="K10">
-        <v>-1718091.70938097</v>
+        <v>-191240.574946278</v>
       </c>
       <c r="L10">
-        <v>-1591.35807771236</v>
+        <v>-620.405621593818</v>
       </c>
       <c r="M10">
-        <v>-1921137.88092043</v>
+        <v>-320761.880933424</v>
       </c>
       <c r="N10">
-        <v>-1779.41064815968</v>
+        <v>-1040.55437550414</v>
       </c>
       <c r="O10">
-        <v>4749382.83035066</v>
+        <v>790769.362675492</v>
       </c>
       <c r="P10">
-        <v>1360405.69168981</v>
+        <v>521956.628871267</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2888,49 +2888,49 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>5978198.52807326</v>
+        <v>794082.150382746</v>
       </c>
       <c r="C11">
-        <v>2349552.75302753</v>
+        <v>529659.861830296</v>
       </c>
       <c r="D11">
-        <v>-1578943.79825098</v>
+        <v>-245850.101790566</v>
       </c>
       <c r="E11">
-        <v>-1093380.07581886</v>
+        <v>-170891.481695289</v>
       </c>
       <c r="F11">
-        <v>2450673.55312174</v>
+        <v>284639.000552706</v>
       </c>
       <c r="G11">
-        <v>-61943.2701938786</v>
+        <v>-9631.15693477448</v>
       </c>
       <c r="H11">
-        <v>-567857.582452707</v>
+        <v>-78954.2772158165</v>
       </c>
       <c r="I11">
-        <v>-4532405.62139545</v>
+        <v>-145013.845801586</v>
       </c>
       <c r="J11">
-        <v>-265705.28695127</v>
+        <v>-41528.8247555145</v>
       </c>
       <c r="K11">
-        <v>-535688.856225461</v>
+        <v>-59747.0011745463</v>
       </c>
       <c r="L11">
-        <v>-1466.96813637391</v>
+        <v>-496.70609732857</v>
       </c>
       <c r="M11">
-        <v>-629743.222491816</v>
+        <v>-105355.544904305</v>
       </c>
       <c r="N11">
-        <v>-1724.49908684939</v>
+        <v>-875.839661457576</v>
       </c>
       <c r="O11">
-        <v>1439106.69007339</v>
+        <v>239356.114947877</v>
       </c>
       <c r="P11">
-        <v>788248.410101514</v>
+        <v>266258.000129892</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2938,49 +2938,49 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>17097475.1538539</v>
+        <v>2336259.45817475</v>
       </c>
       <c r="C12">
-        <v>4695085.49114864</v>
+        <v>1122862.17536021</v>
       </c>
       <c r="D12">
-        <v>-634405.1890634</v>
+        <v>-98713.8091973611</v>
       </c>
       <c r="E12">
-        <v>-464388.138522045</v>
+        <v>-72532.8716170043</v>
       </c>
       <c r="F12">
-        <v>907117.215727922</v>
+        <v>109823.569660948</v>
       </c>
       <c r="G12">
-        <v>-47483.9296267601</v>
+        <v>-7369.57680172054</v>
       </c>
       <c r="H12">
-        <v>-259159.433867317</v>
+        <v>-38762.8522666637</v>
       </c>
       <c r="I12">
-        <v>-1739658.79426163</v>
+        <v>-52715.5201752612</v>
       </c>
       <c r="J12">
-        <v>-107747.910425533</v>
+        <v>-16829.1724014853</v>
       </c>
       <c r="K12">
-        <v>-269836.581653799</v>
+        <v>-30099.0687991725</v>
       </c>
       <c r="L12">
-        <v>-523.127173655666</v>
+        <v>-188.05555315339</v>
       </c>
       <c r="M12">
-        <v>-267317.090649158</v>
+        <v>-44726.9737292663</v>
       </c>
       <c r="N12">
-        <v>-518.248460139148</v>
+        <v>-279.444758052705</v>
       </c>
       <c r="O12">
-        <v>859345.589934383</v>
+        <v>142959.735048935</v>
       </c>
       <c r="P12">
-        <v>363687.986727455</v>
+        <v>130146.609586227</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2988,49 +2988,49 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>2104456.13436459</v>
+        <v>247980.817684511</v>
       </c>
       <c r="C13">
-        <v>615810.808577226</v>
+        <v>150480.076198182</v>
       </c>
       <c r="D13">
-        <v>-242553.047291876</v>
+        <v>-34312.8719341985</v>
       </c>
       <c r="E13">
-        <v>-200197.03805272</v>
+        <v>-28343.3610708744</v>
       </c>
       <c r="F13">
-        <v>245691.190406505</v>
+        <v>20607.5217791295</v>
       </c>
       <c r="G13">
-        <v>-12358.8947913959</v>
+        <v>-1745.37879414856</v>
       </c>
       <c r="H13">
-        <v>-104488.435566309</v>
+        <v>-14229.9876505058</v>
       </c>
       <c r="I13">
-        <v>-631740.73414586</v>
+        <v>-15799.1568334182</v>
       </c>
       <c r="J13">
-        <v>-41995.7412264193</v>
+        <v>-5945.64618295408</v>
       </c>
       <c r="K13">
-        <v>-32997.6677760715</v>
+        <v>-3663.70860796451</v>
       </c>
       <c r="L13">
-        <v>-147.683636459988</v>
+        <v>-54.2162626516074</v>
       </c>
       <c r="M13">
-        <v>-37202.4253598647</v>
+        <v>-6195.83037969278</v>
       </c>
       <c r="N13">
-        <v>-166.502136562485</v>
+        <v>-91.6841655998724</v>
       </c>
       <c r="O13">
-        <v>465006.14796998</v>
+        <v>76550.5573628616</v>
       </c>
       <c r="P13">
-        <v>124339.56885623</v>
+        <v>45616.0368442943</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3038,49 +3038,49 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>610380.92175193</v>
+        <v>82926.0312109545</v>
       </c>
       <c r="C14">
-        <v>809019.303334208</v>
+        <v>191767.042219908</v>
       </c>
       <c r="D14">
-        <v>-128166.207650647</v>
+        <v>-24343.9525665963</v>
       </c>
       <c r="E14">
-        <v>-97231.7411316908</v>
+        <v>-18494.418198643</v>
       </c>
       <c r="F14">
-        <v>347947.926108463</v>
+        <v>41237.7240665955</v>
       </c>
       <c r="G14">
-        <v>-1496.72619721969</v>
+        <v>-283.888663252583</v>
       </c>
       <c r="H14">
-        <v>-42666.6131679667</v>
+        <v>-8430.08544688928</v>
       </c>
       <c r="I14">
-        <v>-248244.450968486</v>
+        <v>-6866.46026017115</v>
       </c>
       <c r="J14">
-        <v>-21934.447662934</v>
+        <v>-4172.1455717925</v>
       </c>
       <c r="K14">
-        <v>-30548.0872379849</v>
+        <v>-3402.121866784</v>
       </c>
       <c r="L14">
-        <v>-218.640656530624</v>
+        <v>-77.8749594246619</v>
       </c>
       <c r="M14">
-        <v>-36823.7822235096</v>
+        <v>-6151.55158233392</v>
       </c>
       <c r="N14">
-        <v>-263.550207891967</v>
+        <v>-140.804287002538</v>
       </c>
       <c r="O14">
-        <v>75760.9380291251</v>
+        <v>12596.1724432636</v>
       </c>
       <c r="P14">
-        <v>160701.894826489</v>
+        <v>57102.2549259578</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3088,49 +3088,49 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>1657460.44172614</v>
+        <v>222304.27960254</v>
       </c>
       <c r="C15">
-        <v>1225132.14128106</v>
+        <v>294555.89830337</v>
       </c>
       <c r="D15">
-        <v>-182648.294523387</v>
+        <v>-31989.2750606596</v>
       </c>
       <c r="E15">
-        <v>-138442.400379427</v>
+        <v>-24297.2197354175</v>
       </c>
       <c r="F15">
-        <v>368727.730328392</v>
+        <v>42369.065282146</v>
       </c>
       <c r="G15">
-        <v>-3912.55106180324</v>
+        <v>-684.473601468198</v>
       </c>
       <c r="H15">
-        <v>-66519.5855518687</v>
+        <v>-12115.4776922049</v>
       </c>
       <c r="I15">
-        <v>-424990.253974829</v>
+        <v>-11489.4178086251</v>
       </c>
       <c r="J15">
-        <v>-31231.1233466608</v>
+        <v>-5481.19519680768</v>
       </c>
       <c r="K15">
-        <v>-53511.7978829658</v>
+        <v>-5943.91762668238</v>
       </c>
       <c r="L15">
-        <v>-209.582402021624</v>
+        <v>-75.7304253784241</v>
       </c>
       <c r="M15">
-        <v>-64505.0905288372</v>
+        <v>-10747.5080490622</v>
       </c>
       <c r="N15">
-        <v>-252.632613846799</v>
+        <v>-136.927255989576</v>
       </c>
       <c r="O15">
-        <v>165089.119544427</v>
+        <v>27383.8827763757</v>
       </c>
       <c r="P15">
-        <v>182954.788772913</v>
+        <v>65889.4930095994</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3138,49 +3138,49 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>13074122.3090724</v>
+        <v>1732056.74994388</v>
       </c>
       <c r="C16">
-        <v>6501072.41177</v>
+        <v>1600164.11428747</v>
       </c>
       <c r="D16">
-        <v>-2598116.95605982</v>
+        <v>-430205.645362148</v>
       </c>
       <c r="E16">
-        <v>-2002824.56343528</v>
+        <v>-333172.422214411</v>
       </c>
       <c r="F16">
-        <v>4274237.98877979</v>
+        <v>475629.638219252</v>
       </c>
       <c r="G16">
-        <v>-150417.83509776</v>
+        <v>-24922.902949038</v>
       </c>
       <c r="H16">
-        <v>-978863.395669032</v>
+        <v>-171405.607559718</v>
       </c>
       <c r="I16">
-        <v>-6729921.65181786</v>
+        <v>-175320.144050638</v>
       </c>
       <c r="J16">
-        <v>-447126.608325634</v>
+        <v>-74380.1073741633</v>
       </c>
       <c r="K16">
-        <v>-816523.604816757</v>
+        <v>-90757.517759339</v>
       </c>
       <c r="L16">
-        <v>-3054.05237479135</v>
+        <v>-1130.84657001309</v>
       </c>
       <c r="M16">
-        <v>-824278.819321189</v>
+        <v>-137429.086831398</v>
       </c>
       <c r="N16">
-        <v>-3083.03695172071</v>
+        <v>-1712.33226545155</v>
       </c>
       <c r="O16">
-        <v>3412268.21886608</v>
+        <v>566164.265573607</v>
       </c>
       <c r="P16">
-        <v>2381791.34235485</v>
+        <v>874919.893028564</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3188,49 +3188,49 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>1809213.48834439</v>
+        <v>220283.497666496</v>
       </c>
       <c r="C17">
-        <v>1021936.1903239</v>
+        <v>239841.902392036</v>
       </c>
       <c r="D17">
-        <v>-286905.572157993</v>
+        <v>-45293.3121034221</v>
       </c>
       <c r="E17">
-        <v>-236917.829892773</v>
+        <v>-37434.1914193064</v>
       </c>
       <c r="F17">
-        <v>384164.027858351</v>
+        <v>35053.8306794624</v>
       </c>
       <c r="G17">
-        <v>-25126.1632388923</v>
+        <v>-3959.81210240279</v>
       </c>
       <c r="H17">
-        <v>-108096.072757035</v>
+        <v>-16427.6653536581</v>
       </c>
       <c r="I17">
-        <v>-714502.161870187</v>
+        <v>-18603.8019464468</v>
       </c>
       <c r="J17">
-        <v>-49698.7479814561</v>
+        <v>-7852.64917096356</v>
       </c>
       <c r="K17">
-        <v>-47337.490565551</v>
+        <v>-5247.16708099731</v>
       </c>
       <c r="L17">
-        <v>-300.939433800522</v>
+        <v>-106.089160253759</v>
       </c>
       <c r="M17">
-        <v>-53369.516126113</v>
+        <v>-8873.676221192</v>
       </c>
       <c r="N17">
-        <v>-339.285935915541</v>
+        <v>-179.407241557783</v>
       </c>
       <c r="O17">
-        <v>423175.514285394</v>
+        <v>69749.9208974477</v>
       </c>
       <c r="P17">
-        <v>252663.775071851</v>
+        <v>89043.401508934</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3238,49 +3238,49 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>2040608.87342668</v>
+        <v>271825.132330887</v>
       </c>
       <c r="C18">
-        <v>1313175.02102465</v>
+        <v>314838.103259153</v>
       </c>
       <c r="D18">
-        <v>-94438.9204135223</v>
+        <v>-16120.6546397989</v>
       </c>
       <c r="E18">
-        <v>-71697.2625791095</v>
+        <v>-12273.4242315528</v>
       </c>
       <c r="F18">
-        <v>190528.934710164</v>
+        <v>21773.8622309844</v>
       </c>
       <c r="G18">
-        <v>-2594.2397423205</v>
+        <v>-442.584066095151</v>
       </c>
       <c r="H18">
-        <v>-29331.8732465559</v>
+        <v>-5206.24284041332</v>
       </c>
       <c r="I18">
-        <v>-272669.193136389</v>
+        <v>-7451.27980182588</v>
       </c>
       <c r="J18">
-        <v>-16174.1295672255</v>
+        <v>-2768.75417301198</v>
       </c>
       <c r="K18">
-        <v>-28104.3176945241</v>
+        <v>-3121.35824155121</v>
       </c>
       <c r="L18">
-        <v>-102.155210915953</v>
+        <v>-36.8196099952911</v>
       </c>
       <c r="M18">
-        <v>-33877.9856728797</v>
+        <v>-5643.89013454274</v>
       </c>
       <c r="N18">
-        <v>-123.12545630266</v>
+        <v>-66.5731264598435</v>
       </c>
       <c r="O18">
-        <v>92697.5255394063</v>
+        <v>15371.2103609541</v>
       </c>
       <c r="P18">
-        <v>86908.0386156566</v>
+        <v>31160.4020328377</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3288,49 +3288,49 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>52441892.592705</v>
+        <v>7365284.47906778</v>
       </c>
       <c r="C19">
-        <v>87540093.4080442</v>
+        <v>20216554.8890272</v>
       </c>
       <c r="D19">
-        <v>-627849.68390537</v>
+        <v>-120932.676786178</v>
       </c>
       <c r="E19">
-        <v>-659721.350970794</v>
+        <v>-128307.195882517</v>
       </c>
       <c r="F19">
-        <v>2509150.2768331</v>
+        <v>321596.87427833</v>
       </c>
       <c r="G19">
-        <v>-43.2564388029277</v>
+        <v>-8.51361648528837</v>
       </c>
       <c r="H19">
-        <v>-161931.216812809</v>
+        <v>-31291.1125311803</v>
       </c>
       <c r="I19">
-        <v>-1433127.20029848</v>
+        <v>-43631.0221638996</v>
       </c>
       <c r="J19">
-        <v>-118101.987059927</v>
+        <v>-22969.3148017395</v>
       </c>
       <c r="K19">
-        <v>-157015.37159388</v>
+        <v>-17536.7541413289</v>
       </c>
       <c r="L19">
-        <v>-1494.77349361405</v>
+        <v>-518.837869312847</v>
       </c>
       <c r="M19">
-        <v>-164271.185818943</v>
+        <v>-27520.6563965185</v>
       </c>
       <c r="N19">
-        <v>-1563.82760091219</v>
+        <v>-814.201468019746</v>
       </c>
       <c r="O19">
-        <v>351277.209889377</v>
+        <v>58723.0612053827</v>
       </c>
       <c r="P19">
-        <v>1114731.13543994</v>
+        <v>380718.79371797</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3338,49 +3338,49 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>17485876.8163936</v>
+        <v>2259289.91401088</v>
       </c>
       <c r="C20">
-        <v>2703139.20685439</v>
+        <v>676608.448418483</v>
       </c>
       <c r="D20">
-        <v>-340560.218094324</v>
+        <v>-48334.0709657205</v>
       </c>
       <c r="E20">
-        <v>-246603.697339015</v>
+        <v>-35134.2444012698</v>
       </c>
       <c r="F20">
-        <v>364110.306712391</v>
+        <v>39811.5783783578</v>
       </c>
       <c r="G20">
-        <v>-27999.8072897433</v>
+        <v>-3967.67815123894</v>
       </c>
       <c r="H20">
-        <v>-132423.424812441</v>
+        <v>-18646.2905807275</v>
       </c>
       <c r="I20">
-        <v>-1082438.87132761</v>
+        <v>-30252.2579598735</v>
       </c>
       <c r="J20">
-        <v>-57712.8356246976</v>
+        <v>-8222.5015124277</v>
       </c>
       <c r="K20">
-        <v>-116113.587648724</v>
+        <v>-12916.6869710753</v>
       </c>
       <c r="L20">
-        <v>-160.260475240648</v>
+        <v>-60.3886554017663</v>
       </c>
       <c r="M20">
-        <v>-115666.187204479</v>
+        <v>-19300.3480792686</v>
       </c>
       <c r="N20">
-        <v>-159.647759574</v>
+        <v>-90.2360110922018</v>
       </c>
       <c r="O20">
-        <v>625930.578336411</v>
+        <v>103672.943383208</v>
       </c>
       <c r="P20">
-        <v>111434.67184942</v>
+        <v>41608.7351471651</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -3388,49 +3388,49 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>23215973.1623018</v>
+        <v>3097451.36675716</v>
       </c>
       <c r="C21">
-        <v>899758.344206493</v>
+        <v>280068.151461019</v>
       </c>
       <c r="D21">
-        <v>-1984963.40721613</v>
+        <v>-273120.620450645</v>
       </c>
       <c r="E21">
-        <v>-1061801.69435451</v>
+        <v>-146530.405163357</v>
       </c>
       <c r="F21">
-        <v>1683919.98128267</v>
+        <v>202155.119702802</v>
       </c>
       <c r="G21">
-        <v>-133120.02815539</v>
+        <v>-18218.1482945452</v>
       </c>
       <c r="H21">
-        <v>-958791.248174384</v>
+        <v>-149146.279659471</v>
       </c>
       <c r="I21">
-        <v>-5517941.35370292</v>
+        <v>-142012.781196972</v>
       </c>
       <c r="J21">
-        <v>-320787.908784114</v>
+        <v>-44269.2827858264</v>
       </c>
       <c r="K21">
-        <v>-890069.412477314</v>
+        <v>-99383.456495998</v>
       </c>
       <c r="L21">
-        <v>-226.727609988302</v>
+        <v>-107.07052948419</v>
       </c>
       <c r="M21">
-        <v>-779720.947763417</v>
+        <v>-130593.030140153</v>
       </c>
       <c r="N21">
-        <v>-198.575851973146</v>
+        <v>-140.688958636019</v>
       </c>
       <c r="O21">
-        <v>4024194.90356697</v>
+        <v>668631.804914621</v>
       </c>
       <c r="P21">
-        <v>136789.421758149</v>
+        <v>63156.5824229619</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3438,49 +3438,49 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>41465137.5891734</v>
+        <v>5666094.19015236</v>
       </c>
       <c r="C22">
-        <v>3394645.60652152</v>
+        <v>978622.894219588</v>
       </c>
       <c r="D22">
-        <v>-5495258.42550676</v>
+        <v>-799255.134486593</v>
       </c>
       <c r="E22">
-        <v>-2943392.47197844</v>
+        <v>-429712.192930747</v>
       </c>
       <c r="F22">
-        <v>5405999.11024328</v>
+        <v>650540.773947723</v>
       </c>
       <c r="G22">
-        <v>-485038.414238952</v>
+        <v>-70205.1213406958</v>
       </c>
       <c r="H22">
-        <v>-2493638.37695681</v>
+        <v>-409927.96889157</v>
       </c>
       <c r="I22">
-        <v>-15622752.8798254</v>
+        <v>-402587.34048577</v>
       </c>
       <c r="J22">
-        <v>-889247.761643492</v>
+        <v>-129823.254641378</v>
       </c>
       <c r="K22">
-        <v>-2690072.53283635</v>
+        <v>-300668.509264942</v>
       </c>
       <c r="L22">
-        <v>-1681.78435880691</v>
+        <v>-732.675794279203</v>
       </c>
       <c r="M22">
-        <v>-2356564.35535289</v>
+        <v>-395087.984856218</v>
       </c>
       <c r="N22">
-        <v>-1473.30242209136</v>
+        <v>-962.743528652936</v>
       </c>
       <c r="O22">
-        <v>9735698.75907153</v>
+        <v>1621467.7453856</v>
       </c>
       <c r="P22">
-        <v>1044220.59586272</v>
+        <v>448091.668831185</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3488,49 +3488,49 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>29551921.5376768</v>
+        <v>3946969.81970425</v>
       </c>
       <c r="C23">
-        <v>10041497.4469319</v>
+        <v>2304550.69908377</v>
       </c>
       <c r="D23">
-        <v>-2291479.31818385</v>
+        <v>-350716.300396889</v>
       </c>
       <c r="E23">
-        <v>-1600074.20921698</v>
+        <v>-248167.333575548</v>
       </c>
       <c r="F23">
-        <v>3169846.96414554</v>
+        <v>367437.726097705</v>
       </c>
       <c r="G23">
-        <v>-104246.814269572</v>
+        <v>-16078.9601143915</v>
       </c>
       <c r="H23">
-        <v>-1004035.52637901</v>
+        <v>-137292.791293876</v>
       </c>
       <c r="I23">
-        <v>-5657802.16296436</v>
+        <v>-177822.707648447</v>
       </c>
       <c r="J23">
-        <v>-388838.342144154</v>
+        <v>-60307.8404997359</v>
       </c>
       <c r="K23">
-        <v>-825008.724150248</v>
+        <v>-92032.8338263789</v>
       </c>
       <c r="L23">
-        <v>-1941.84003863484</v>
+        <v>-669.808581878897</v>
       </c>
       <c r="M23">
-        <v>-969860.886088572</v>
+        <v>-162287.122148555</v>
       </c>
       <c r="N23">
-        <v>-2282.71216386929</v>
+        <v>-1181.060866802</v>
       </c>
       <c r="O23">
-        <v>2307265.57720453</v>
+        <v>384939.419371367</v>
       </c>
       <c r="P23">
-        <v>1105219.17123115</v>
+        <v>376442.463191634</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3538,49 +3538,49 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>27139360.0202678</v>
+        <v>3657918.0567048</v>
       </c>
       <c r="C24">
-        <v>3323237.61218227</v>
+        <v>879853.582285577</v>
       </c>
       <c r="D24">
-        <v>-4956023.00069295</v>
+        <v>-722266.97610924</v>
       </c>
       <c r="E24">
-        <v>-3724610.23427546</v>
+        <v>-545241.929896292</v>
       </c>
       <c r="F24">
-        <v>5182606.98528495</v>
+        <v>608695.221879752</v>
       </c>
       <c r="G24">
-        <v>-397792.405476794</v>
+        <v>-57862.3826830881</v>
       </c>
       <c r="H24">
-        <v>-2309965.82319494</v>
+        <v>-346606.768234633</v>
       </c>
       <c r="I24">
-        <v>-13356194.5931986</v>
+        <v>-371032.94470231</v>
       </c>
       <c r="J24">
-        <v>-845160.185857676</v>
+        <v>-123722.206587554</v>
       </c>
       <c r="K24">
-        <v>-2202837.88896631</v>
+        <v>-245072.759621544</v>
       </c>
       <c r="L24">
-        <v>-1598.89746923</v>
+        <v>-638.008330133744</v>
       </c>
       <c r="M24">
-        <v>-2254011.72117796</v>
+        <v>-376148.446603911</v>
       </c>
       <c r="N24">
-        <v>-1636.05990819633</v>
+        <v>-979.221581947058</v>
       </c>
       <c r="O24">
-        <v>7700351.68272909</v>
+        <v>1279083.79935659</v>
       </c>
       <c r="P24">
-        <v>1247879.49712947</v>
+        <v>492087.513047154</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3588,49 +3588,49 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>14103633.8403821</v>
+        <v>1787488.29827993</v>
       </c>
       <c r="C25">
-        <v>7853995.90802379</v>
+        <v>1848389.16957029</v>
       </c>
       <c r="D25">
-        <v>-5151575.01413953</v>
+        <v>-825303.080013255</v>
       </c>
       <c r="E25">
-        <v>-4585394.45796981</v>
+        <v>-740463.429570664</v>
       </c>
       <c r="F25">
-        <v>7655242.41495878</v>
+        <v>776090.810382739</v>
       </c>
       <c r="G25">
-        <v>-342701.525860466</v>
+        <v>-55187.1715905145</v>
       </c>
       <c r="H25">
-        <v>-1948023.26019853</v>
+        <v>-304066.721759737</v>
       </c>
       <c r="I25">
-        <v>-12930451.9651877</v>
+        <v>-348597.738964017</v>
       </c>
       <c r="J25">
-        <v>-913924.892805517</v>
+        <v>-147583.410259103</v>
       </c>
       <c r="K25">
-        <v>-1184182.15791229</v>
+        <v>-131134.584250394</v>
       </c>
       <c r="L25">
-        <v>-5234.00492500514</v>
+        <v>-1851.39849549159</v>
       </c>
       <c r="M25">
-        <v>-1277679.58866432</v>
+        <v>-212232.253368711</v>
       </c>
       <c r="N25">
-        <v>-5647.22903072834</v>
+        <v>-2996.27128872089</v>
       </c>
       <c r="O25">
-        <v>7174231.19476996</v>
+        <v>1186996.57129357</v>
       </c>
       <c r="P25">
-        <v>4824463.57987355</v>
+        <v>1690275.69167316</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3638,49 +3638,49 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>2267203.9802291</v>
+        <v>304991.930100659</v>
       </c>
       <c r="C26">
-        <v>1171803.14939586</v>
+        <v>284194.537676231</v>
       </c>
       <c r="D26">
-        <v>-1024876.00236549</v>
+        <v>-171804.966079653</v>
       </c>
       <c r="E26">
-        <v>-785687.999260845</v>
+        <v>-131912.801151047</v>
       </c>
       <c r="F26">
-        <v>2010901.84323839</v>
+        <v>235546.678169776</v>
       </c>
       <c r="G26">
-        <v>-46547.3663795274</v>
+        <v>-7784.70452394686</v>
       </c>
       <c r="H26">
-        <v>-305505.022890866</v>
+        <v>-54149.8635307653</v>
       </c>
       <c r="I26">
-        <v>-3284488.25513129</v>
+        <v>-89921.7872264853</v>
       </c>
       <c r="J26">
-        <v>-175403.318770695</v>
+        <v>-29449.285712617</v>
       </c>
       <c r="K26">
-        <v>-345918.992965017</v>
+        <v>-38433.254151023</v>
       </c>
       <c r="L26">
-        <v>-1105.9980886057</v>
+        <v>-402.919501066208</v>
       </c>
       <c r="M26">
-        <v>-349204.483266221</v>
+        <v>-58197.3510535317</v>
       </c>
       <c r="N26">
-        <v>-1116.50031409226</v>
+        <v>-610.104473598767</v>
       </c>
       <c r="O26">
-        <v>1228944.61071468</v>
+        <v>203795.191927929</v>
       </c>
       <c r="P26">
-        <v>958930.777688511</v>
+        <v>348700.795203767</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3688,49 +3688,49 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>9727933.38991236</v>
+        <v>1369924.92898542</v>
       </c>
       <c r="C27">
-        <v>13495281.7624854</v>
+        <v>3076450.68005077</v>
       </c>
       <c r="D27">
-        <v>-3670768.69231649</v>
+        <v>-686500.033634366</v>
       </c>
       <c r="E27">
-        <v>-3329584.84526724</v>
+        <v>-629012.780195335</v>
       </c>
       <c r="F27">
-        <v>13589372.1973244</v>
+        <v>1755497.46439443</v>
       </c>
       <c r="G27">
-        <v>-285889.17195797</v>
+        <v>-53827.3904565722</v>
       </c>
       <c r="H27">
-        <v>-998424.613657407</v>
+        <v>-181842.434075661</v>
       </c>
       <c r="I27">
-        <v>-8704272.30836824</v>
+        <v>-274105.913268868</v>
       </c>
       <c r="J27">
-        <v>-663627.015850507</v>
+        <v>-125369.97578165</v>
       </c>
       <c r="K27">
-        <v>-1023683.74734651</v>
+        <v>-114281.420413172</v>
       </c>
       <c r="L27">
-        <v>-7092.64162927866</v>
+        <v>-2427.79457301367</v>
       </c>
       <c r="M27">
-        <v>-1104508.8479761</v>
+        <v>-184956.430039019</v>
       </c>
       <c r="N27">
-        <v>-7652.6217116043</v>
+        <v>-3929.08964829985</v>
       </c>
       <c r="O27">
-        <v>2189446.94180507</v>
+        <v>365929.223281564</v>
       </c>
       <c r="P27">
-        <v>5846266.02469012</v>
+        <v>1977060.40047342</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3738,49 +3738,49 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>10970970.1031214</v>
+        <v>1449248.96453624</v>
       </c>
       <c r="C28">
-        <v>6938132.18731433</v>
+        <v>1671174.55803556</v>
       </c>
       <c r="D28">
-        <v>-4038836.69102564</v>
+        <v>-681081.481283181</v>
       </c>
       <c r="E28">
-        <v>-3109187.86169495</v>
+        <v>-529440.094059682</v>
       </c>
       <c r="F28">
-        <v>7401956.16541896</v>
+        <v>822027.623096947</v>
       </c>
       <c r="G28">
-        <v>-151873.087515123</v>
+        <v>-25789.2176619498</v>
       </c>
       <c r="H28">
-        <v>-1419664.25357386</v>
+        <v>-249229.175413493</v>
       </c>
       <c r="I28">
-        <v>-10487568.7022973</v>
+        <v>-277709.895567968</v>
       </c>
       <c r="J28">
-        <v>-701399.640673772</v>
+        <v>-119436.08214031</v>
       </c>
       <c r="K28">
-        <v>-1155927.93213204</v>
+        <v>-128097.011094214</v>
       </c>
       <c r="L28">
-        <v>-3725.66436417401</v>
+        <v>-1350.95460515004</v>
       </c>
       <c r="M28">
-        <v>-1393398.12980965</v>
+        <v>-231618.94511024</v>
       </c>
       <c r="N28">
-        <v>-4490.95345102251</v>
+        <v>-2442.63708940707</v>
       </c>
       <c r="O28">
-        <v>4208498.44701588</v>
+        <v>699057.033482241</v>
       </c>
       <c r="P28">
-        <v>3784900.97669419</v>
+        <v>1347951.17098722</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3788,49 +3788,49 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>7894999.1786835</v>
+        <v>987134.929604326</v>
       </c>
       <c r="C29">
-        <v>3920677.30206996</v>
+        <v>939590.955341118</v>
       </c>
       <c r="D29">
-        <v>-231412.584418722</v>
+        <v>-36436.8128072965</v>
       </c>
       <c r="E29">
-        <v>-236232.2143442</v>
+        <v>-37494.8647685596</v>
       </c>
       <c r="F29">
-        <v>327326.278556138</v>
+        <v>31979.7565553745</v>
       </c>
       <c r="G29">
-        <v>-9069.48582327459</v>
+        <v>-1434.85932003387</v>
       </c>
       <c r="H29">
-        <v>-83030.2443180699</v>
+        <v>-13116.2838139062</v>
       </c>
       <c r="I29">
-        <v>-638704.560040205</v>
+        <v>-16504.5771537189</v>
       </c>
       <c r="J29">
-        <v>-42289.8513652035</v>
+        <v>-6712.25600399339</v>
       </c>
       <c r="K29">
-        <v>-49701.4400383341</v>
+        <v>-5515.684238635</v>
       </c>
       <c r="L29">
-        <v>-260.65399433719</v>
+        <v>-94.0118788275868</v>
       </c>
       <c r="M29">
-        <v>-51998.2343903393</v>
+        <v>-8655.84088820469</v>
       </c>
       <c r="N29">
-        <v>-272.684493975248</v>
+        <v>-147.529586683959</v>
       </c>
       <c r="O29">
-        <v>361374.125874718</v>
+        <v>59785.2144384524</v>
       </c>
       <c r="P29">
-        <v>206018.314182002</v>
+        <v>73384.982492571</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3838,49 +3838,49 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>4657586.55420679</v>
+        <v>655484.774214856</v>
       </c>
       <c r="C30">
-        <v>7487137.25580485</v>
+        <v>1726873.63916739</v>
       </c>
       <c r="D30">
-        <v>-387757.109840168</v>
+        <v>-74238.7094561855</v>
       </c>
       <c r="E30">
-        <v>-410666.390882106</v>
+        <v>-79518.3745885151</v>
       </c>
       <c r="F30">
-        <v>1697440.87585073</v>
+        <v>219546.079642532</v>
       </c>
       <c r="G30">
-        <v>-15509.6391390543</v>
+        <v>-2992.62433276454</v>
       </c>
       <c r="H30">
-        <v>-84685.9091951046</v>
+        <v>-16265.3041087469</v>
       </c>
       <c r="I30">
-        <v>-1078985.57683744</v>
+        <v>-33234.8170958721</v>
       </c>
       <c r="J30">
-        <v>-73516.6891041445</v>
+        <v>-14235.2309676789</v>
       </c>
       <c r="K30">
-        <v>-100830.675761681</v>
+        <v>-11269.1090158478</v>
       </c>
       <c r="L30">
-        <v>-941.482745110989</v>
+        <v>-326.381834602216</v>
       </c>
       <c r="M30">
-        <v>-105490.15440396</v>
+        <v>-17684.7656777682</v>
       </c>
       <c r="N30">
-        <v>-985.000020009466</v>
+        <v>-512.190180961625</v>
       </c>
       <c r="O30">
-        <v>220356.407254003</v>
+        <v>36847.3096968955</v>
       </c>
       <c r="P30">
-        <v>684086.820169468</v>
+        <v>232593.069355571</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3888,49 +3888,49 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>10819546.3585295</v>
+        <v>1442241.11531279</v>
       </c>
       <c r="C31">
-        <v>1559449.01684765</v>
+        <v>425940.465508029</v>
       </c>
       <c r="D31">
-        <v>-1570757.7031292</v>
+        <v>-231292.57827648</v>
       </c>
       <c r="E31">
-        <v>-902887.742670719</v>
+        <v>-133290.830890473</v>
       </c>
       <c r="F31">
-        <v>1665265.99976001</v>
+        <v>188396.985455765</v>
       </c>
       <c r="G31">
-        <v>-90540.7083244063</v>
+        <v>-13291.6242227657</v>
       </c>
       <c r="H31">
-        <v>-743421.81548709</v>
+        <v>-118624.877169786</v>
       </c>
       <c r="I31">
-        <v>-4104618.7845408</v>
+        <v>-105226.389038726</v>
       </c>
       <c r="J31">
-        <v>-256485.490945634</v>
+        <v>-37864.2593987752</v>
       </c>
       <c r="K31">
-        <v>-649147.633390967</v>
+        <v>-72152.8984856559</v>
       </c>
       <c r="L31">
-        <v>-513.752473052591</v>
+        <v>-211.239497293718</v>
       </c>
       <c r="M31">
-        <v>-740087.325517088</v>
+        <v>-123391.102158057</v>
       </c>
       <c r="N31">
-        <v>-585.73053451255</v>
+        <v>-361.234842857812</v>
       </c>
       <c r="O31">
-        <v>2250167.13779885</v>
+        <v>373299.879975093</v>
       </c>
       <c r="P31">
-        <v>416416.417034343</v>
+        <v>169976.094550511</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3938,49 +3938,49 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>3840779.98867898</v>
+        <v>516811.747097209</v>
       </c>
       <c r="C32">
-        <v>514696.7516012</v>
+        <v>143672.253477886</v>
       </c>
       <c r="D32">
-        <v>-3487.07993899552</v>
+        <v>-516.220896305413</v>
       </c>
       <c r="E32">
-        <v>-2614.72286031676</v>
+        <v>-387.706499178648</v>
       </c>
       <c r="F32">
-        <v>3490.46073014961</v>
+        <v>400.016782563739</v>
       </c>
       <c r="G32">
-        <v>-101.168596843308</v>
+        <v>-14.9028900932535</v>
       </c>
       <c r="H32">
-        <v>-2068.41818005614</v>
+        <v>-315.139382433927</v>
       </c>
       <c r="I32">
-        <v>-7318.66931168497</v>
+        <v>-193.882919259636</v>
       </c>
       <c r="J32">
-        <v>-593.310795898105</v>
+        <v>-87.9746486754129</v>
       </c>
       <c r="K32">
-        <v>-1527.20504994249</v>
+        <v>-170.125011755999</v>
       </c>
       <c r="L32">
-        <v>-1.33886544062989</v>
+        <v>-0.559135073103789</v>
       </c>
       <c r="M32">
-        <v>-1562.68498408281</v>
+        <v>-261.11607868188</v>
       </c>
       <c r="N32">
-        <v>-1.35648208470229</v>
+        <v>-0.858877585869777</v>
       </c>
       <c r="O32">
-        <v>5408.95154817008</v>
+        <v>897.97030421721</v>
       </c>
       <c r="P32">
-        <v>937.911097689721</v>
+        <v>392.493707855124</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3988,49 +3988,49 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>29184886.8163774</v>
+        <v>3912741.04248027</v>
       </c>
       <c r="C33">
-        <v>8588810.48870622</v>
+        <v>2103294.87143958</v>
       </c>
       <c r="D33">
-        <v>-594759.673267836</v>
+        <v>-92532.680796794</v>
       </c>
       <c r="E33">
-        <v>-448952.548903762</v>
+        <v>-70236.2848589837</v>
       </c>
       <c r="F33">
-        <v>878545.108647668</v>
+        <v>102097.048005453</v>
       </c>
       <c r="G33">
-        <v>-63353.0124928802</v>
+        <v>-9843.13093707897</v>
       </c>
       <c r="H33">
-        <v>-198439.427313861</v>
+        <v>-31772.6470169146</v>
       </c>
       <c r="I33">
-        <v>-1978323.70262186</v>
+        <v>-55123.4186314832</v>
       </c>
       <c r="J33">
-        <v>-101872.892045067</v>
+        <v>-15937.4959494016</v>
       </c>
       <c r="K33">
-        <v>-225766.743259737</v>
+        <v>-25280.0465094333</v>
       </c>
       <c r="L33">
-        <v>-626.689270138741</v>
+        <v>-231.121487158816</v>
       </c>
       <c r="M33">
-        <v>-231011.511099641</v>
+        <v>-38800.9044853243</v>
       </c>
       <c r="N33">
-        <v>-641.244366997853</v>
+        <v>-354.718271191814</v>
       </c>
       <c r="O33">
-        <v>665348.507044255</v>
+        <v>110933.898868825</v>
       </c>
       <c r="P33">
-        <v>278296.732516028</v>
+        <v>101547.260486841</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -4038,49 +4038,49 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>19362091.0308207</v>
+        <v>2630159.96549511</v>
       </c>
       <c r="C34">
-        <v>3042264.29831935</v>
+        <v>822547.514773905</v>
       </c>
       <c r="D34">
-        <v>-2671803.22720902</v>
+        <v>-402409.368418157</v>
       </c>
       <c r="E34">
-        <v>-2004848.67073828</v>
+        <v>-302701.40761626</v>
       </c>
       <c r="F34">
-        <v>2873209.02405307</v>
+        <v>336585.259973072</v>
       </c>
       <c r="G34">
-        <v>-245662.000770681</v>
+        <v>-36854.3595320079</v>
       </c>
       <c r="H34">
-        <v>-1498374.49761573</v>
+        <v>-232306.48635712</v>
       </c>
       <c r="I34">
-        <v>-5805879.37504519</v>
+        <v>-156559.586192016</v>
       </c>
       <c r="J34">
-        <v>-454924.966916442</v>
+        <v>-68686.7329233792</v>
       </c>
       <c r="K34">
-        <v>-1205611.97814764</v>
+        <v>-134252.709358698</v>
       </c>
       <c r="L34">
-        <v>-1135.86132181808</v>
+        <v>-461.974798236042</v>
       </c>
       <c r="M34">
-        <v>-1233619.3833896</v>
+        <v>-206056.941578863</v>
       </c>
       <c r="N34">
-        <v>-1162.24964382127</v>
+        <v>-709.040880901739</v>
       </c>
       <c r="O34">
-        <v>3901177.31845006</v>
+        <v>648177.222437807</v>
       </c>
       <c r="P34">
-        <v>857151.006169152</v>
+        <v>347051.615501987</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -4088,49 +4088,49 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>6564116.67175591</v>
+        <v>867311.261116993</v>
       </c>
       <c r="C35">
-        <v>5269178.2946419</v>
+        <v>1218954.88085138</v>
       </c>
       <c r="D35">
-        <v>-2142389.99450579</v>
+        <v>-368245.222801925</v>
       </c>
       <c r="E35">
-        <v>-1903170.63385388</v>
+        <v>-328852.79675218</v>
       </c>
       <c r="F35">
-        <v>4362242.30235675</v>
+        <v>492024.02150695</v>
       </c>
       <c r="G35">
-        <v>-130449.467496946</v>
+        <v>-22471.8281286187</v>
       </c>
       <c r="H35">
-        <v>-721048.34001977</v>
+        <v>-120690.334233514</v>
       </c>
       <c r="I35">
-        <v>-5249430.22275576</v>
+        <v>-151021.637111553</v>
       </c>
       <c r="J35">
-        <v>-379325.052353088</v>
+        <v>-65544.3866580026</v>
       </c>
       <c r="K35">
-        <v>-560855.705731083</v>
+        <v>-62229.3119458482</v>
       </c>
       <c r="L35">
-        <v>-2895.43594466522</v>
+        <v>-1006.11869827844</v>
       </c>
       <c r="M35">
-        <v>-605138.201031368</v>
+        <v>-100713.820294186</v>
       </c>
       <c r="N35">
-        <v>-3124.04024414718</v>
+        <v>-1628.28721222468</v>
       </c>
       <c r="O35">
-        <v>2236175.88642286</v>
+        <v>370647.753813828</v>
       </c>
       <c r="P35">
-        <v>2551577.17135968</v>
+        <v>881731.00233922</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -4138,49 +4138,49 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>20586433.889512</v>
+        <v>2820159.05654669</v>
       </c>
       <c r="C36">
-        <v>5896528.42093026</v>
+        <v>1440936.56100915</v>
       </c>
       <c r="D36">
-        <v>-1802049.72400796</v>
+        <v>-283634.443982737</v>
       </c>
       <c r="E36">
-        <v>-1139536.90140508</v>
+        <v>-180565.097357612</v>
       </c>
       <c r="F36">
-        <v>2679673.2880082</v>
+        <v>323959.930924466</v>
       </c>
       <c r="G36">
-        <v>-72786.3962785341</v>
+        <v>-11443.4740200522</v>
       </c>
       <c r="H36">
-        <v>-682372.667971067</v>
+        <v>-108584.065973409</v>
       </c>
       <c r="I36">
-        <v>-5276349.80888804</v>
+        <v>-151880.769139971</v>
       </c>
       <c r="J36">
-        <v>-299949.921499938</v>
+        <v>-47528.5304270801</v>
       </c>
       <c r="K36">
-        <v>-764678.466813639</v>
+        <v>-85818.6525350902</v>
       </c>
       <c r="L36">
-        <v>-1843.66209432483</v>
+        <v>-678.43626573449</v>
       </c>
       <c r="M36">
-        <v>-786056.449543685</v>
+        <v>-132326.507132675</v>
       </c>
       <c r="N36">
-        <v>-1895.15051897615</v>
+        <v>-1046.07905464945</v>
       </c>
       <c r="O36">
-        <v>1826049.87518862</v>
+        <v>305518.242442631</v>
       </c>
       <c r="P36">
-        <v>810570.339530241</v>
+        <v>295016.959797649</v>
       </c>
     </row>
   </sheetData>
